--- a/2432S028.xlsx
+++ b/2432S028.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunikata\Desktop\xptouch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171807E0-9358-4AB3-BE0D-31B70D54C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADC9B15-AEF7-490D-A235-B211E27A2BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="242">
   <si>
     <t>Onboard Equipment</t>
   </si>
@@ -192,9 +192,6 @@
     <t>IO34</t>
   </si>
   <si>
-    <t>Battery voltage ADC value Get Signal (input)</t>
-  </si>
-  <si>
     <t>SPI Peripheral</t>
   </si>
   <si>
@@ -216,15 +213,7 @@
     <t>The SPI bus of the SPI peripheral writes data pins</t>
   </si>
   <si>
-    <t>ESP-32E</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>IO04</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CDs</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -288,10 +277,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>0x04=0x0040D9</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>0x04=0x0040D9 0x09=0x003080</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -300,10 +285,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>PanelID</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>IO36</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -384,47 +365,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>0x04, 0xFF, 0x00</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>0x04, 0xFFFF00, 0xb38100</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>CST816S</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>↑</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ST7789</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>↑</t>
-    </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -500,19 +441,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>0x04, 0xFF, 0x85</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>LovyanGFX</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NG</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1975,12 +1908,233 @@
     <t>Use 21 for NeoPixel control 27 and 35 pin are does not suppurt</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>2.8inch_ESP-32E_7789</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2.8inch_ESP-32E</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>動作確認</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.2inch_ESP-32E</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO39</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>I2C_SDC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LCD IO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LCD Resolution</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.5inch_ESP-32E</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO13</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ILI9341V</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>_DRIVER</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ST7789P3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ST7796U</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Screen Size</t>
+  </si>
+  <si>
+    <t>4.0inch_ESP-32E</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ST7796S</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RGB LED R</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RGB LED G</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RGB LED B</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RGB LED GND</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>動く？</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Like
+2.8inch_ESP-32E_7789</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Like
+Sunton_2432S028</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Like
+JC2432W328R</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>photoresistor</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Battery voltage ADC value Get Signal (input)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Photoresistor voltage ADC value Get Signal (input)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Neopixel not Support
+DHT11 not Support</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ES3C28P</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JC8048W550 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ESP32-WROOM-32E</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ESP32-S3-WROOM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>D-FT6336G</t>
+  </si>
+  <si>
+    <t>IO10</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO46</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RST</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO45</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>I2C_ISR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO18</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO42</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO38</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO40</t>
+  </si>
+  <si>
+    <t>IO39/41/48/47</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RXD0(IO43)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TXD0(IO44)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO9</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO3</t>
+  </si>
+  <si>
+    <t>I2S</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RGB</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RGB8BIT</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2067,33 +2221,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
@@ -2156,8 +2283,51 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF242E42"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2230,8 +2400,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2290,15 +2520,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -2351,6 +2572,178 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2358,7 +2751,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2371,9 +2764,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2413,84 +2803,42 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2500,38 +2848,308 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2868,1411 +3486,2794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BC7DEC-5679-4A0D-9125-1D99B7399C91}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="73.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="73.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="47"/>
+      <c r="B3" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="L3" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A5" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="J5" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="55"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="H10" s="105">
+        <v>3.2</v>
+      </c>
+      <c r="I10" s="105">
+        <v>3.5</v>
+      </c>
+      <c r="J10" s="105">
+        <v>4</v>
+      </c>
+      <c r="K10" s="105">
+        <v>2.8</v>
+      </c>
+      <c r="L10" s="105">
+        <v>5</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="12">
+        <v>320</v>
+      </c>
+      <c r="C11" s="12">
+        <v>320</v>
+      </c>
+      <c r="D11" s="12">
+        <v>320</v>
+      </c>
+      <c r="E11" s="12">
+        <v>320</v>
+      </c>
+      <c r="F11" s="12">
+        <v>320</v>
+      </c>
+      <c r="G11" s="12">
+        <v>320</v>
+      </c>
+      <c r="H11" s="12">
+        <v>320</v>
+      </c>
+      <c r="I11" s="20">
+        <v>480</v>
+      </c>
+      <c r="J11" s="20">
+        <v>480</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20">
+        <v>800</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="43"/>
+      <c r="B12" s="12">
+        <v>240</v>
+      </c>
+      <c r="C12" s="12">
+        <v>240</v>
+      </c>
+      <c r="D12" s="12">
+        <v>240</v>
+      </c>
+      <c r="E12" s="12">
+        <v>240</v>
+      </c>
+      <c r="F12" s="12">
+        <v>240</v>
+      </c>
+      <c r="G12" s="12">
+        <v>240</v>
+      </c>
+      <c r="H12" s="12">
+        <v>240</v>
+      </c>
+      <c r="I12" s="20">
+        <v>320</v>
+      </c>
+      <c r="J12" s="20">
+        <v>320</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20">
+        <v>480</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="41"/>
+      <c r="B14" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="41"/>
+      <c r="B15" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K15" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="41"/>
+      <c r="B16" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="41"/>
+      <c r="B17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="L17" s="131"/>
+      <c r="M17" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="41"/>
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="11">
+        <v>12</v>
+      </c>
+      <c r="L19" s="131"/>
+      <c r="M19" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="41"/>
+      <c r="B20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="11">
+        <v>11</v>
+      </c>
+      <c r="L20" s="131"/>
+      <c r="M20" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="41"/>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="11">
+        <v>13</v>
+      </c>
+      <c r="L21" s="131"/>
+      <c r="M21" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="41"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="L22" s="131"/>
+      <c r="M22" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="41"/>
+      <c r="B23" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="11">
+        <v>55000000</v>
+      </c>
+      <c r="E23" s="11">
+        <v>55000000</v>
+      </c>
+      <c r="F23" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="G23" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="H23" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="I23" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="J23" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="K23" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="L23" s="131"/>
+      <c r="M23" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="41"/>
+      <c r="B24" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="11">
+        <v>20000000</v>
+      </c>
+      <c r="E24" s="11">
+        <v>20000000</v>
+      </c>
+      <c r="F24" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="G24" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="I24" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="J24" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="K24" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="L24" s="131"/>
+      <c r="M24" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="42"/>
+      <c r="B25" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11">
+        <v>2500000</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="H25" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="I25" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="J25" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="K25" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="L25" s="132"/>
+      <c r="M25" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C26" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" s="50"/>
+      <c r="M26" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" s="120"/>
+      <c r="B28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" s="16"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="120"/>
+      <c r="B29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="25" t="s">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" s="120"/>
+      <c r="B30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31" s="120"/>
+      <c r="B31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32" s="120"/>
+      <c r="B32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="120"/>
+      <c r="B33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="120"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="120"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="120"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="120"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="121" t="s">
+        <v>179</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="42"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="43"/>
+      <c r="B40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="43"/>
+      <c r="B41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="43"/>
+      <c r="B43" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="117"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="43"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="43"/>
+      <c r="B45" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="117" t="s">
+        <v>232</v>
+      </c>
+      <c r="L45" s="36"/>
+      <c r="M45" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="43"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="43"/>
+      <c r="B47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="117" t="s">
+        <v>234</v>
+      </c>
+      <c r="L47" s="36"/>
+      <c r="M47" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" s="43"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="L49" s="29"/>
+      <c r="M49" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" s="43"/>
+      <c r="B50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="129"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="37"/>
+      <c r="M51" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" s="43"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="43"/>
+      <c r="B53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="8"/>
+      <c r="M53" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="L54" s="37"/>
+      <c r="M54" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" s="43"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" s="43"/>
+      <c r="B56" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="L56" s="36"/>
+      <c r="M56" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" s="43"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L59" s="29"/>
+      <c r="M59" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" s="34"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="34"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="34"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" s="34"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="34"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="34"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="34"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" s="34"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" s="34"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69" s="114"/>
+      <c r="L69" s="94"/>
+      <c r="M69" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="34"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="96"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="96"/>
+      <c r="K70" s="115"/>
+      <c r="L70" s="96"/>
+      <c r="M70" s="78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="F71" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="G71" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="L71" s="9"/>
+      <c r="M71" s="82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="83"/>
+      <c r="B72" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="H72" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="J72" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="K72" s="122" t="s">
+        <v>238</v>
+      </c>
+      <c r="L72" s="100"/>
+      <c r="M72" s="84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="83"/>
+      <c r="B73" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="K73" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="L73" s="31"/>
+      <c r="M73" s="84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="85"/>
+      <c r="B74" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="G74" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74" s="9"/>
+      <c r="M74" s="86"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="80"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" s="43"/>
+      <c r="B76" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="33"/>
+      <c r="B77" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="75"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="75"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="76"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64"/>
+      <c r="M81" s="66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="H82" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="I82" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="J82" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="K82" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="L82" s="70"/>
+      <c r="M82" s="71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83" s="35"/>
+      <c r="B83" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F83" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G83" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H83" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I83" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="J83" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="K83" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="L83" s="32"/>
+      <c r="M83" s="12"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" s="35"/>
+      <c r="B84" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I84" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="J84" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K84" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="L84" s="31"/>
+      <c r="M84" s="12"/>
+    </row>
+    <row r="85" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="52"/>
+      <c r="B85" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="G85" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="H85" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="I85" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J85" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="K85" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="L85" s="54"/>
+      <c r="M85" s="55"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="42"/>
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="42"/>
-      <c r="B8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="42"/>
-      <c r="B9" s="6" t="s">
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="I86" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="J86" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="K86" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="L86" s="59"/>
+      <c r="M86" s="60"/>
+    </row>
+    <row r="87" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="61"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I87" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J87" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K87" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="L87" s="29"/>
+      <c r="M87" s="62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="61"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="42"/>
-      <c r="B10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="42"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="42"/>
-      <c r="B12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="42"/>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="42"/>
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="42"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="42"/>
-      <c r="B16" s="9">
-        <v>40000000</v>
-      </c>
-      <c r="C16" s="9">
-        <v>40000000</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12">
-        <v>55000000</v>
-      </c>
-      <c r="F16" s="12">
-        <v>55000000</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="42"/>
-      <c r="B17" s="9">
-        <v>20000000</v>
-      </c>
-      <c r="C17" s="9">
-        <v>20000000</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="12">
-        <v>20000000</v>
-      </c>
-      <c r="F17" s="12">
-        <v>20000000</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="9">
-        <v>2500000</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2500000</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <v>2500000</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="17" t="s">
+      <c r="L88" s="29"/>
+      <c r="M88" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="36"/>
-      <c r="B21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="36"/>
-      <c r="B22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="36"/>
-      <c r="B23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="36"/>
-      <c r="B24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="36"/>
-      <c r="B25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="36"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="36"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="36"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="28"/>
-      <c r="B32" s="9" t="s">
+    </row>
+    <row r="89" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="63"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="I89" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="J89" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="K89" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="28"/>
-      <c r="B42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="28"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="28"/>
-      <c r="B45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="48"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="48"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="48"/>
-      <c r="B55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="48"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="48"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="48"/>
-      <c r="B58" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" s="48"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" s="48"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="48"/>
-      <c r="B61" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="49"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" s="56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A64" s="28"/>
-      <c r="B64" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G64" s="56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A65" s="28"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" s="56" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A66" s="28"/>
-      <c r="B66" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="E66" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="G66" s="57"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A67" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A68" s="28"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A69" s="28"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A70" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A71" s="48"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="F71" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A72" s="48"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="F72" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A73" s="48"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="F73" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="G73" s="13"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A74" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B74" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="E74" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="F74" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A75" s="50"/>
-      <c r="B75" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="G75" s="13"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A76" s="50"/>
-      <c r="B76" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G76" s="13"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A77" s="50"/>
-      <c r="B77" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="E77" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="F77" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="G77" s="13"/>
+      <c r="L89" s="65"/>
+      <c r="M89" s="66"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L93" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
+  <mergeCells count="125">
+    <mergeCell ref="L16:L25"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L60:L62"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="L66:L68"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A42:A48"/>
     <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A52:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4291,7 +6292,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -4299,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -4307,7 +6308,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -4315,204 +6316,204 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="A5" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="27" t="s">
         <v>151</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>160</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>162</v>
+        <v>150</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M7" s="39" t="s">
-        <v>163</v>
+      <c r="M7" s="26" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>164</v>
+      <c r="C8" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>165</v>
+      <c r="C9" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>166</v>
+      <c r="C10" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>167</v>
+      <c r="C11" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>168</v>
+      <c r="C12" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>169</v>
+      <c r="C13" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C14" s="39"/>
-      <c r="M14" s="39" t="s">
+      <c r="C14" s="26"/>
+      <c r="M14" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C15" s="26"/>
+      <c r="M15" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C15" s="39"/>
-      <c r="M15" s="39" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="25"/>
+      <c r="C21" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C22" s="25" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" s="39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="C17" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="38"/>
-      <c r="C18" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="38"/>
-      <c r="C19" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="M19" s="41"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="38"/>
-      <c r="C20" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" s="38"/>
-      <c r="C21" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C22" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>176</v>
+      <c r="M22" s="26" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M23" s="39" t="s">
-        <v>177</v>
+      <c r="M23" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
-      </c>
-      <c r="M24" s="41"/>
+        <v>172</v>
+      </c>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>178</v>
+        <v>116</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>127</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>179</v>
+        <v>117</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -4522,33 +6523,33 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -4556,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -4564,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -4572,7 +6573,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -4580,7 +6581,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -4588,7 +6589,7 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -4596,7 +6597,7 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -4604,7 +6605,7 @@
         <v>255</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4614,6 +6615,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100431B1C8C9D9DBE4AA0E80FF5D0349E59" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f7ed8c6386409f34b595d96d3c2cb336">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8eebbbb-06cf-461a-bdd4-fdce0afb9207" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b92ee3a140b325dd50340e431628f3" ns3:_="">
     <xsd:import namespace="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
@@ -4763,15 +6773,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4779,6 +6780,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B34AA1-4D99-4870-B3C7-12AFF67D4A6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4792,14 +6801,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2432S028.xlsx
+++ b/2432S028.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunikata\Desktop\xptouch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADC9B15-AEF7-490D-A235-B211E27A2BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623922E7-681B-4D71-AF86-075E54F019E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
+    <workbookView xWindow="30300" yWindow="830" windowWidth="26670" windowHeight="18080" activeTab="2" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="278">
   <si>
     <t>Onboard Equipment</t>
   </si>
@@ -2127,6 +2128,129 @@
   </si>
   <si>
     <t>RGB8BIT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>VLED-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>VLED+</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>VDD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>R0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>G0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>DCLK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DISP</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HSYNC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>VSYNC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>8048S050</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>8048S070</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>8048S043</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>JC8048W550</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2751,7 +2875,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2851,305 +2975,302 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3488,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BC7DEC-5679-4A0D-9125-1D99B7399C91}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3543,142 +3664,142 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="46"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="K3" s="107" t="s">
+      <c r="K3" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="107" t="s">
+      <c r="L3" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="M3" s="46"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="46"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="107" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="46"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="18" t="s">
@@ -3721,54 +3842,54 @@
       <c r="A7" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="76" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>110</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="77" t="s">
         <v>109</v>
       </c>
       <c r="G8" s="12"/>
@@ -3780,20 +3901,20 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="76" t="s">
         <v>113</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="77" t="s">
         <v>110</v>
       </c>
       <c r="G9" s="12"/>
@@ -3826,25 +3947,25 @@
       <c r="G10" s="12">
         <v>2.8</v>
       </c>
-      <c r="H10" s="105">
+      <c r="H10" s="78">
         <v>3.2</v>
       </c>
-      <c r="I10" s="105">
+      <c r="I10" s="78">
         <v>3.5</v>
       </c>
-      <c r="J10" s="105">
+      <c r="J10" s="78">
         <v>4</v>
       </c>
-      <c r="K10" s="105">
+      <c r="K10" s="78">
         <v>2.8</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="78">
         <v>5</v>
       </c>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="110" t="s">
         <v>196</v>
       </c>
       <c r="B11" s="12">
@@ -3881,7 +4002,7 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="12">
         <v>240</v>
       </c>
@@ -3916,7 +4037,7 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="111" t="s">
         <v>195</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -3957,63 +4078,63 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="41"/>
-      <c r="B14" s="110" t="s">
+      <c r="A14" s="111"/>
+      <c r="B14" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="H14" s="111" t="s">
+      <c r="H14" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="I14" s="112" t="s">
+      <c r="I14" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="J14" s="112" t="s">
+      <c r="J14" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="K14" s="110" t="s">
+      <c r="K14" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="L14" s="112" t="s">
+      <c r="L14" s="85" t="s">
         <v>240</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="41"/>
-      <c r="B15" s="110" t="s">
+      <c r="A15" s="111"/>
+      <c r="B15" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="113" t="s">
+      <c r="G15" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="111" t="s">
+      <c r="H15" s="84" t="s">
         <v>82</v>
       </c>
       <c r="I15" s="21" t="s">
@@ -4022,7 +4143,7 @@
       <c r="J15" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="K15" s="110" t="s">
+      <c r="K15" s="83" t="s">
         <v>84</v>
       </c>
       <c r="L15" s="21" t="s">
@@ -4031,38 +4152,38 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="41"/>
-      <c r="B16" s="109" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="109" t="s">
+      <c r="G16" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="109" t="s">
+      <c r="H16" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="109" t="s">
+      <c r="I16" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="109" t="s">
+      <c r="J16" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="116" t="s">
+      <c r="K16" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="L16" s="130" t="s">
+      <c r="L16" s="96" t="s">
         <v>241</v>
       </c>
       <c r="M16" s="7" t="s">
@@ -4073,55 +4194,55 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="41"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="111"/>
+      <c r="B17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="117" t="s">
+      <c r="K17" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="L17" s="131"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="41"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="131"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="97"/>
       <c r="M18" s="10" t="s">
         <v>4</v>
       </c>
@@ -4130,7 +4251,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="41"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
@@ -4161,13 +4282,13 @@
       <c r="K19" s="11">
         <v>12</v>
       </c>
-      <c r="L19" s="131"/>
+      <c r="L19" s="97"/>
       <c r="M19" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="41"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
@@ -4190,7 +4311,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>6</v>
@@ -4198,13 +4319,13 @@
       <c r="K20" s="11">
         <v>11</v>
       </c>
-      <c r="L20" s="131"/>
+      <c r="L20" s="97"/>
       <c r="M20" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="41"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="8" t="s">
         <v>7</v>
       </c>
@@ -4235,17 +4356,17 @@
       <c r="K21" s="11">
         <v>13</v>
       </c>
-      <c r="L21" s="131"/>
+      <c r="L21" s="97"/>
       <c r="M21" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="41"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="8" t="s">
         <v>8</v>
       </c>
@@ -4264,13 +4385,13 @@
       <c r="K22" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="L22" s="131"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="41"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="8">
         <v>40000000</v>
       </c>
@@ -4299,13 +4420,13 @@
       <c r="K23" s="8">
         <v>40000000</v>
       </c>
-      <c r="L23" s="131"/>
+      <c r="L23" s="97"/>
       <c r="M23" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="41"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="8">
         <v>20000000</v>
       </c>
@@ -4334,13 +4455,13 @@
       <c r="K24" s="8">
         <v>20000000</v>
       </c>
-      <c r="L24" s="131"/>
+      <c r="L24" s="97"/>
       <c r="M24" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="42"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="8">
         <v>2500000</v>
       </c>
@@ -4367,7 +4488,7 @@
       <c r="K25" s="8">
         <v>2500000</v>
       </c>
-      <c r="L25" s="132"/>
+      <c r="L25" s="98"/>
       <c r="M25" s="7" t="s">
         <v>79</v>
       </c>
@@ -4376,10 +4497,10 @@
       <c r="A26" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="29" t="s">
@@ -4388,31 +4509,31 @@
       <c r="E26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="101" t="s">
+      <c r="F26" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="101" t="s">
+      <c r="G26" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="119" t="s">
+      <c r="K26" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="L26" s="50"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="124" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4449,7 +4570,7 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="120"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="16" t="s">
         <v>92</v>
       </c>
@@ -4484,7 +4605,7 @@
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="120"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="5" t="s">
         <v>70</v>
       </c>
@@ -4517,7 +4638,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="120"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
@@ -4550,7 +4671,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="120"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="8" t="s">
         <v>12</v>
       </c>
@@ -4583,7 +4704,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="120"/>
+      <c r="A32" s="111"/>
       <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
@@ -4616,57 +4737,57 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" s="120"/>
-      <c r="B33" s="36" t="s">
+      <c r="A33" s="111"/>
+      <c r="B33" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="102" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="108" t="s">
         <v>73</v>
       </c>
       <c r="K33" s="22"/>
-      <c r="L33" s="38"/>
+      <c r="L33" s="108"/>
       <c r="M33" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="120"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="39"/>
+      <c r="L34" s="109"/>
       <c r="M34" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" s="120"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="29" t="s">
@@ -4687,7 +4808,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" s="120"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="29" t="s">
@@ -4708,7 +4829,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" s="120"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="29" t="s">
@@ -4720,7 +4841,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="121" t="s">
+      <c r="K37" s="89" t="s">
         <v>179</v>
       </c>
       <c r="L37" s="6"/>
@@ -4729,7 +4850,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" s="42"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="29"/>
@@ -4739,7 +4860,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="121" t="s">
+      <c r="K38" s="89" t="s">
         <v>180</v>
       </c>
       <c r="L38" s="6"/>
@@ -4748,7 +4869,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="110" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -4787,7 +4908,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" s="43"/>
+      <c r="A40" s="110"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
@@ -4822,7 +4943,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="43"/>
+      <c r="A41" s="110"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -4857,7 +4978,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="110" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -4896,167 +5017,167 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="43"/>
-      <c r="B43" s="36" t="s">
+      <c r="A43" s="110"/>
+      <c r="B43" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="36" t="s">
+      <c r="J43" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="117"/>
-      <c r="L43" s="36"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="102"/>
       <c r="M43" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" s="43"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="36"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="102"/>
       <c r="M44" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" s="43"/>
-      <c r="B45" s="36" t="s">
+      <c r="A45" s="110"/>
+      <c r="B45" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="36" t="s">
+      <c r="I45" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="J45" s="36" t="s">
+      <c r="J45" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="K45" s="117" t="s">
+      <c r="K45" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="L45" s="36"/>
+      <c r="L45" s="102"/>
       <c r="M45" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" s="43"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="36"/>
+      <c r="A46" s="110"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="102"/>
       <c r="M46" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" s="43"/>
-      <c r="B47" s="36" t="s">
+      <c r="A47" s="110"/>
+      <c r="B47" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="I47" s="36" t="s">
+      <c r="I47" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="J47" s="36" t="s">
+      <c r="J47" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="117" t="s">
+      <c r="K47" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="L47" s="36"/>
+      <c r="L47" s="102"/>
       <c r="M47" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" s="43"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="36"/>
+      <c r="A48" s="110"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="102"/>
       <c r="M48" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="110" t="s">
         <v>33</v>
       </c>
       <c r="B49" s="9"/>
@@ -5078,7 +5199,7 @@
       <c r="J49" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K49" s="128" t="s">
+      <c r="K49" s="103" t="s">
         <v>239</v>
       </c>
       <c r="L49" s="29"/>
@@ -5087,7 +5208,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" s="43"/>
+      <c r="A50" s="110"/>
       <c r="B50" s="8" t="s">
         <v>36</v>
       </c>
@@ -5115,70 +5236,70 @@
       <c r="J50" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K50" s="129"/>
+      <c r="K50" s="104"/>
       <c r="L50" s="8"/>
       <c r="M50" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="37" t="s">
+      <c r="F51" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="H51" s="37" t="s">
+      <c r="H51" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="37" t="s">
+      <c r="I51" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="J51" s="37" t="s">
+      <c r="J51" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K51" s="37" t="s">
+      <c r="K51" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="L51" s="37"/>
+      <c r="L51" s="101"/>
       <c r="M51" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" s="43"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
       <c r="M52" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" s="43"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="8" t="s">
         <v>8</v>
       </c>
@@ -5213,111 +5334,111 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="37" t="s">
+      <c r="F54" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="37" t="s">
+      <c r="H54" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="I54" s="37" t="s">
+      <c r="I54" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="J54" s="37" t="s">
+      <c r="J54" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="K54" s="37" t="s">
+      <c r="K54" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="L54" s="37"/>
+      <c r="L54" s="101"/>
       <c r="M54" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" s="43"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="101"/>
       <c r="M55" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" s="43"/>
-      <c r="B56" s="36" t="s">
+      <c r="A56" s="110"/>
+      <c r="B56" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G56" s="36" t="s">
+      <c r="G56" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="H56" s="36" t="s">
+      <c r="H56" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="I56" s="36" t="s">
+      <c r="I56" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="J56" s="36" t="s">
+      <c r="J56" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="K56" s="36" t="s">
+      <c r="K56" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="L56" s="36"/>
+      <c r="L56" s="102"/>
       <c r="M56" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A57" s="43"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
+      <c r="A57" s="110"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="102"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="102"/>
       <c r="M57" s="10" t="s">
         <v>46</v>
       </c>
@@ -5381,316 +5502,316 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="119" t="s">
         <v>51</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="45" t="s">
+      <c r="F60" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="45" t="s">
+      <c r="G60" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="H60" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I60" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="45" t="s">
+      <c r="J60" s="105" t="s">
         <v>26</v>
       </c>
       <c r="K60" s="9"/>
-      <c r="L60" s="45"/>
+      <c r="L60" s="105"/>
       <c r="M60" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" s="34"/>
+      <c r="A61" s="123"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
       <c r="K61" s="9"/>
-      <c r="L61" s="45"/>
+      <c r="L61" s="105"/>
       <c r="M61" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" s="34"/>
+      <c r="A62" s="123"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
       <c r="K62" s="9"/>
-      <c r="L62" s="45"/>
+      <c r="L62" s="105"/>
       <c r="M62" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" s="34"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="45" t="s">
+      <c r="F63" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="G63" s="45" t="s">
+      <c r="G63" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="H63" s="45" t="s">
+      <c r="H63" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="I63" s="45" t="s">
+      <c r="I63" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="J63" s="45" t="s">
+      <c r="J63" s="105" t="s">
         <v>31</v>
       </c>
       <c r="K63" s="9"/>
-      <c r="L63" s="45"/>
+      <c r="L63" s="105"/>
       <c r="M63" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A64" s="34"/>
+      <c r="A64" s="123"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
+      <c r="J64" s="105"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="45"/>
+      <c r="L64" s="105"/>
       <c r="M64" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" s="34"/>
+      <c r="A65" s="123"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="105"/>
       <c r="K65" s="9"/>
-      <c r="L65" s="45"/>
+      <c r="L65" s="105"/>
       <c r="M65" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" s="34"/>
+      <c r="A66" s="123"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="45" t="s">
+      <c r="F66" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="G66" s="45" t="s">
+      <c r="G66" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="J66" s="45" t="s">
+      <c r="J66" s="105" t="s">
         <v>29</v>
       </c>
       <c r="K66" s="9"/>
-      <c r="L66" s="45"/>
+      <c r="L66" s="105"/>
       <c r="M66" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" s="34"/>
+      <c r="A67" s="123"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="105"/>
       <c r="K67" s="9"/>
-      <c r="L67" s="45"/>
+      <c r="L67" s="105"/>
       <c r="M67" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" s="34"/>
+      <c r="A68" s="123"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="105"/>
       <c r="K68" s="9"/>
-      <c r="L68" s="45"/>
+      <c r="L68" s="105"/>
       <c r="M68" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A69" s="34"/>
+      <c r="A69" s="123"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="93" t="s">
+      <c r="F69" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="93" t="s">
+      <c r="G69" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="H69" s="94" t="s">
+      <c r="H69" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="I69" s="94" t="s">
+      <c r="I69" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="J69" s="94" t="s">
+      <c r="J69" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="K69" s="114"/>
-      <c r="L69" s="94"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="106"/>
       <c r="M69" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="34"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="96"/>
-      <c r="J70" s="96"/>
-      <c r="K70" s="115"/>
-      <c r="L70" s="96"/>
-      <c r="M70" s="78" t="s">
+      <c r="A70" s="123"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="107"/>
+      <c r="M70" s="56" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="E71" s="59" t="s">
+      <c r="E71" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F71" s="59" t="s">
+      <c r="F71" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="G71" s="59" t="s">
+      <c r="G71" s="43" t="s">
         <v>175</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="123" t="s">
+      <c r="K71" s="91" t="s">
         <v>3</v>
       </c>
       <c r="L71" s="9"/>
-      <c r="M71" s="82" t="s">
+      <c r="M71" s="59" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="83"/>
-      <c r="B72" s="90" t="s">
+      <c r="A72" s="121"/>
+      <c r="B72" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="91" t="s">
+      <c r="C72" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="92" t="s">
+      <c r="D72" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="92" t="s">
+      <c r="E72" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F72" s="100" t="s">
+      <c r="F72" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="100" t="s">
+      <c r="G72" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="H72" s="100" t="s">
+      <c r="H72" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="I72" s="100" t="s">
+      <c r="I72" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="J72" s="100" t="s">
+      <c r="J72" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="K72" s="122" t="s">
+      <c r="K72" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="L72" s="100"/>
-      <c r="M72" s="84" t="s">
+      <c r="L72" s="73"/>
+      <c r="M72" s="60" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="83"/>
-      <c r="B73" s="97" t="s">
+      <c r="A73" s="121"/>
+      <c r="B73" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="98" t="s">
+      <c r="C73" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="D73" s="98" t="s">
+      <c r="D73" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="E73" s="98" t="s">
+      <c r="E73" s="71" t="s">
         <v>60</v>
       </c>
       <c r="F73" s="9"/>
@@ -5704,80 +5825,80 @@
       <c r="J73" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="K73" s="122" t="s">
+      <c r="K73" s="90" t="s">
         <v>5</v>
       </c>
       <c r="L73" s="31"/>
-      <c r="M73" s="84" t="s">
+      <c r="M73" s="60" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="85"/>
-      <c r="B74" s="65" t="s">
+      <c r="A74" s="122"/>
+      <c r="B74" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C74" s="65" t="s">
+      <c r="C74" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D74" s="65" t="s">
+      <c r="D74" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="65" t="s">
+      <c r="E74" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="F74" s="65" t="s">
+      <c r="F74" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="G74" s="65" t="s">
+      <c r="G74" s="47" t="s">
         <v>176</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="122" t="s">
+      <c r="K74" s="90" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="9"/>
-      <c r="M74" s="86"/>
+      <c r="M74" s="61"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="92" t="s">
+      <c r="C75" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="92" t="s">
+      <c r="D75" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="92" t="s">
+      <c r="E75" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="80"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="58"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" s="43"/>
-      <c r="B76" s="97" t="s">
+      <c r="A76" s="110"/>
+      <c r="B76" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="98" t="s">
+      <c r="C76" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="98" t="s">
+      <c r="D76" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="E76" s="98" t="s">
+      <c r="E76" s="71" t="s">
         <v>60</v>
       </c>
       <c r="F76" s="9"/>
@@ -5792,55 +5913,55 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="33"/>
-      <c r="B77" s="99" t="s">
+      <c r="A77" s="119"/>
+      <c r="B77" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="99" t="s">
+      <c r="C77" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="D77" s="99" t="s">
+      <c r="D77" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E77" s="99" t="s">
+      <c r="E77" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="55" t="s">
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="72" t="s">
+      <c r="A78" s="125" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="74" t="s">
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="E78" s="74" t="s">
+      <c r="E78" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="74"/>
-      <c r="K78" s="74"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="60" t="s">
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="44" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="75"/>
+      <c r="A79" s="126"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="12" t="s">
@@ -5856,12 +5977,12 @@
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
-      <c r="M79" s="60" t="s">
+      <c r="M79" s="44" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="75"/>
+      <c r="A80" s="126"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="12" t="s">
@@ -5877,72 +5998,72 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="60" t="s">
+      <c r="M80" s="44" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="76"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="77"/>
-      <c r="D81" s="64" t="s">
+      <c r="A81" s="127"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E81" s="64" t="s">
+      <c r="E81" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="64"/>
-      <c r="L81" s="64"/>
-      <c r="M81" s="66" t="s">
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="48" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A82" s="68" t="s">
+      <c r="A82" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="69" t="s">
+      <c r="B82" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="C82" s="69" t="s">
+      <c r="C82" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="D82" s="69" t="s">
+      <c r="D82" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="E82" s="69" t="s">
+      <c r="E82" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="F82" s="70" t="s">
+      <c r="F82" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="G82" s="70" t="s">
+      <c r="G82" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="H82" s="70" t="s">
+      <c r="H82" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="I82" s="70" t="s">
+      <c r="I82" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="J82" s="70" t="s">
+      <c r="J82" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="K82" s="70" t="s">
+      <c r="K82" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="L82" s="70"/>
-      <c r="M82" s="71" t="s">
+      <c r="L82" s="51"/>
+      <c r="M82" s="52" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A83" s="35"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="12" t="s">
         <v>184</v>
       </c>
@@ -5977,7 +6098,7 @@
       <c r="M83" s="12"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A84" s="35"/>
+      <c r="A84" s="129"/>
       <c r="B84" s="12" t="s">
         <v>185</v>
       </c>
@@ -6012,73 +6133,73 @@
       <c r="M84" s="12"/>
     </row>
     <row r="85" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="52"/>
-      <c r="B85" s="53" t="s">
+      <c r="A85" s="130"/>
+      <c r="B85" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="53" t="s">
+      <c r="C85" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E85" s="53" t="s">
+      <c r="E85" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F85" s="54" t="s">
+      <c r="F85" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="54" t="s">
+      <c r="G85" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="H85" s="54" t="s">
+      <c r="H85" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="I85" s="54" t="s">
+      <c r="I85" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="J85" s="54" t="s">
+      <c r="J85" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="K85" s="54" t="s">
+      <c r="K85" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="L85" s="54"/>
-      <c r="M85" s="55"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="40"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" s="56" t="s">
+      <c r="A86" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="59" t="s">
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="I86" s="59" t="s">
+      <c r="I86" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="J86" s="59" t="s">
+      <c r="J86" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="K86" s="124" t="s">
+      <c r="K86" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="L86" s="59"/>
-      <c r="M86" s="60"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="44"/>
     </row>
     <row r="87" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="61"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
+      <c r="A87" s="114"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
       <c r="H87" s="29" t="s">
         <v>70</v>
       </c>
@@ -6088,22 +6209,22 @@
       <c r="J87" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="K87" s="125" t="s">
+      <c r="K87" s="93" t="s">
         <v>176</v>
       </c>
       <c r="L87" s="29"/>
-      <c r="M87" s="62" t="s">
+      <c r="M87" s="45" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="61"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
+      <c r="A88" s="114"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
       <c r="H88" s="29" t="s">
         <v>11</v>
       </c>
@@ -6113,42 +6234,143 @@
       <c r="J88" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="126" t="s">
+      <c r="K88" s="94" t="s">
         <v>2</v>
       </c>
       <c r="L88" s="29"/>
-      <c r="M88" s="62" t="s">
+      <c r="M88" s="45" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="63"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="65" t="s">
+      <c r="A89" s="115"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="I89" s="65" t="s">
+      <c r="I89" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="J89" s="65" t="s">
+      <c r="J89" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="K89" s="127" t="s">
+      <c r="K89" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="L89" s="65"/>
-      <c r="M89" s="66"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="48"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L93" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="L16:L25"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="K43:K44"/>
@@ -6173,107 +6395,6 @@
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6614,16 +6735,462 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BACAD1-97A4-4AD0-A21C-371462B24AAD}">
+  <dimension ref="B1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="9" style="131"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="131" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="F9" s="131">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>48</v>
+      </c>
+      <c r="F10" s="131">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>47</v>
+      </c>
+      <c r="F11" s="131">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12" s="131">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13" s="131">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" s="131">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19" s="131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20" s="131">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25" s="131">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>46</v>
+      </c>
+      <c r="E27">
+        <v>46</v>
+      </c>
+      <c r="F27" s="131">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28" s="131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C33">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>39</v>
+      </c>
+      <c r="E33">
+        <v>39</v>
+      </c>
+      <c r="F33" s="131">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>41</v>
+      </c>
+      <c r="E34">
+        <v>41</v>
+      </c>
+      <c r="F34" s="131">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35" s="131">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100431B1C8C9D9DBE4AA0E80FF5D0349E59" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f7ed8c6386409f34b595d96d3c2cb336">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8eebbbb-06cf-461a-bdd4-fdce0afb9207" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b92ee3a140b325dd50340e431628f3" ns3:_="">
     <xsd:import namespace="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
@@ -6773,6 +7340,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6780,14 +7356,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B34AA1-4D99-4870-B3C7-12AFF67D4A6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6801,6 +7369,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2432S028.xlsx
+++ b/2432S028.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunikata\Desktop\xptouch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623922E7-681B-4D71-AF86-075E54F019E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FD3E4D-4988-4A6A-A056-4960CD23F143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="830" windowWidth="26670" windowHeight="18080" activeTab="2" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="285">
   <si>
     <t>Onboard Equipment</t>
   </si>
@@ -2058,10 +2058,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>unknown</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>D-FT6336G</t>
   </si>
   <si>
@@ -2252,13 +2248,44 @@
   <si>
     <t>JC8048W550</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO14</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO12</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ST7796  </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Sunton_3248S035C</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Sunton_3248S035R</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Sunton_2432S028C</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タッチパネル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>感圧式</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2449,6 +2476,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -2875,7 +2908,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3062,15 +3095,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3164,6 +3188,93 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3179,98 +3290,53 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3607,22 +3673,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BC7DEC-5679-4A0D-9125-1D99B7399C91}">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="20.625" customWidth="1"/>
-    <col min="13" max="13" width="73.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="141" customWidth="1"/>
+    <col min="11" max="14" width="20.625" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="141" customWidth="1"/>
+    <col min="16" max="16" width="20.625" customWidth="1"/>
+    <col min="17" max="17" width="4.75" style="141" customWidth="1"/>
+    <col min="18" max="18" width="20.625" customWidth="1"/>
+    <col min="19" max="19" width="73.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3633,48 +3705,60 @@
         <v>93</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="O1" s="131"/>
+      <c r="P1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="Q1" s="131"/>
+      <c r="R1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>106</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>106</v>
@@ -3682,8 +3766,8 @@
       <c r="F2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>107</v>
+      <c r="G2" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>107</v>
@@ -3691,18 +3775,30 @@
       <c r="I2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>107</v>
-      </c>
+      <c r="J2" s="132"/>
       <c r="K2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="132"/>
+      <c r="P2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="33"/>
       <c r="B3" s="35" t="s">
         <v>221</v>
@@ -3728,29 +3824,37 @@
       <c r="I3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="132"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="N3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="132"/>
+      <c r="P3" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="Q3" s="132"/>
+      <c r="R3" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
         <v>210</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>106</v>
+      <c r="D4" s="76" t="s">
+        <v>211</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>106</v>
@@ -3758,2643 +3862,3417 @@
       <c r="F4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="I4" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="J4" s="132"/>
+      <c r="K4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="132"/>
+      <c r="P4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="I5" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" s="132"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.4">
+      <c r="A6" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="80" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="H6" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="I6" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="J6" s="132"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="N6" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
+      <c r="O6" s="132"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J7" s="133"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="s">
+      <c r="O7" s="133"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B8" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C8" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D8" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="G8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="H8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="J8" s="133"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="N8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40" t="s">
+      <c r="O8" s="133"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="76" t="s">
+      <c r="S8" s="40"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B9" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="77" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="F9" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="G9" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
       <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="N9" s="12"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B11" s="12">
         <v>2.8</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C11" s="12">
         <v>2.8</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>2.8</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>2.8</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>2.8</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="12">
         <v>2.8</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H11" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="I11" s="75">
         <v>3.2</v>
       </c>
-      <c r="I10" s="78">
+      <c r="J11" s="133"/>
+      <c r="K11" s="12">
         <v>3.5</v>
       </c>
-      <c r="J10" s="78">
+      <c r="L11" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="75">
+        <v>3.5</v>
+      </c>
+      <c r="N11" s="75">
         <v>4</v>
       </c>
-      <c r="K10" s="78">
+      <c r="O11" s="133"/>
+      <c r="P11" s="75">
         <v>2.8</v>
       </c>
-      <c r="L10" s="78">
+      <c r="Q11" s="133"/>
+      <c r="R11" s="75">
         <v>5</v>
       </c>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="110" t="s">
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A12" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B12" s="12">
         <v>320</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C12" s="12">
         <v>320</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>320</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>320</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>320</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>320</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H12" s="12">
         <v>320</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I12" s="12">
+        <v>320</v>
+      </c>
+      <c r="J12" s="133"/>
+      <c r="K12" s="12">
         <v>480</v>
       </c>
-      <c r="J11" s="20">
+      <c r="L12" s="12">
         <v>480</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20">
+      <c r="M12" s="20">
+        <v>480</v>
+      </c>
+      <c r="N12" s="20">
+        <v>480</v>
+      </c>
+      <c r="O12" s="133"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="20">
         <v>800</v>
       </c>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="110"/>
-      <c r="B12" s="12">
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" s="108"/>
+      <c r="B13" s="12">
         <v>240</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C13" s="12">
         <v>240</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>240</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>240</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>240</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <v>240</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="12">
         <v>240</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I13" s="12">
+        <v>240</v>
+      </c>
+      <c r="J13" s="133"/>
+      <c r="K13" s="12">
         <v>320</v>
       </c>
-      <c r="J12" s="20">
+      <c r="L13" s="12">
         <v>320</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20">
+      <c r="M13" s="20">
+        <v>320</v>
+      </c>
+      <c r="N13" s="20">
+        <v>320</v>
+      </c>
+      <c r="O13" s="133"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="20">
         <v>480</v>
       </c>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="111" t="s">
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J14" s="131"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="N14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="O14" s="131"/>
+      <c r="P14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="Q14" s="131"/>
+      <c r="R14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="111"/>
-      <c r="B14" s="83" t="s">
+    <row r="15" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="95"/>
+      <c r="B15" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G15" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="I15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="I14" s="85" t="s">
+      <c r="J15" s="134"/>
+      <c r="K15" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="J14" s="85" t="s">
+      <c r="L15" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="N15" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="O15" s="134"/>
+      <c r="P15" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="Q15" s="134"/>
+      <c r="R15" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="95"/>
+      <c r="B16" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="134"/>
+      <c r="K16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="L16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="M16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="N16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="O16" s="134"/>
+      <c r="P16" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" s="95"/>
+      <c r="B17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="135"/>
+      <c r="K17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="135"/>
+      <c r="P17" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="111"/>
-      <c r="B15" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K15" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="111"/>
-      <c r="B16" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="87" t="s">
+      <c r="S17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="95"/>
+      <c r="B18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="135"/>
+      <c r="K18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="135"/>
+      <c r="P18" s="125" t="s">
         <v>225</v>
       </c>
-      <c r="L16" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="111"/>
-      <c r="B17" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="99" t="s">
+      <c r="Q18" s="135"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="95"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20" s="95"/>
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="135"/>
+      <c r="K20" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="135"/>
+      <c r="P20" s="11">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A21" s="95"/>
+      <c r="B21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="135"/>
+      <c r="K21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="135"/>
+      <c r="P21" s="11">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A22" s="95"/>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="135"/>
+      <c r="K22" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="135"/>
+      <c r="P22" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="95"/>
+      <c r="B23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="135"/>
+      <c r="K23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="135"/>
+      <c r="P23" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L17" s="97"/>
-      <c r="M17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="111"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="111"/>
-      <c r="B19" s="8" t="s">
+      <c r="Q23" s="135"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A24" s="95"/>
+      <c r="B24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="C24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="D24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="E24" s="11">
+        <v>55000000</v>
+      </c>
+      <c r="F24" s="11">
+        <v>55000000</v>
+      </c>
+      <c r="G24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="I24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="J24" s="135"/>
+      <c r="K24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="L24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="M24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="N24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="O24" s="135"/>
+      <c r="P24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A25" s="95"/>
+      <c r="B25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="C25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="D25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="E25" s="11">
+        <v>20000000</v>
+      </c>
+      <c r="F25" s="11">
+        <v>20000000</v>
+      </c>
+      <c r="G25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="H25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="I25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="J25" s="135"/>
+      <c r="K25" s="8">
+        <v>16000000</v>
+      </c>
+      <c r="L25" s="8">
+        <v>16000000</v>
+      </c>
+      <c r="M25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="N25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="O25" s="135"/>
+      <c r="P25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="Q25" s="135"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A26" s="96"/>
+      <c r="B26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2500000</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2500000</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="J26" s="135"/>
+      <c r="K26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="L26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="M26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="N26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="O26" s="135"/>
+      <c r="P26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A27" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="136"/>
+      <c r="K27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="136"/>
+      <c r="P27" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="131"/>
+      <c r="K28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="131"/>
+      <c r="P28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A29" s="95"/>
+      <c r="B29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="137"/>
+      <c r="K29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" s="137"/>
+      <c r="P29" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A30" s="95"/>
+      <c r="B30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="G30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="J30" s="135"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="M30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="N30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="11">
+      <c r="O30" s="135"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A31" s="95"/>
+      <c r="B31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="135"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="135"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A32" s="95"/>
+      <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="97"/>
-      <c r="M19" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="111"/>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="11">
-        <v>11</v>
-      </c>
-      <c r="L20" s="97"/>
-      <c r="M20" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="111"/>
-      <c r="B21" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="G32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="J32" s="135"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="M32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="N32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="11">
+      <c r="O32" s="135"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A33" s="95"/>
+      <c r="B33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="97"/>
-      <c r="M21" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="111"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="111"/>
-      <c r="B23" s="8">
-        <v>40000000</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="11">
-        <v>55000000</v>
-      </c>
-      <c r="E23" s="11">
-        <v>55000000</v>
-      </c>
-      <c r="F23" s="8">
-        <v>40000000</v>
-      </c>
-      <c r="G23" s="8">
-        <v>40000000</v>
-      </c>
-      <c r="H23" s="8">
-        <v>40000000</v>
-      </c>
-      <c r="I23" s="8">
-        <v>40000000</v>
-      </c>
-      <c r="J23" s="8">
-        <v>40000000</v>
-      </c>
-      <c r="K23" s="8">
-        <v>40000000</v>
-      </c>
-      <c r="L23" s="97"/>
-      <c r="M23" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="111"/>
-      <c r="B24" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="11">
-        <v>20000000</v>
-      </c>
-      <c r="E24" s="11">
-        <v>20000000</v>
-      </c>
-      <c r="F24" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="G24" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="H24" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="I24" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="J24" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="K24" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="112"/>
-      <c r="B25" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11">
-        <v>2500000</v>
-      </c>
-      <c r="F25" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="G25" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="H25" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="I25" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="J25" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="K25" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="L25" s="98"/>
-      <c r="M25" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="88" t="s">
-        <v>228</v>
-      </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="111"/>
-      <c r="B28" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="111"/>
-      <c r="B29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="111"/>
-      <c r="B30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="111"/>
-      <c r="B31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="111"/>
-      <c r="B32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="J33" s="135"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="M33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="7" t="s">
+      <c r="N33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="135"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" s="111"/>
-      <c r="B33" s="102" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A34" s="95"/>
+      <c r="B34" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="102" t="s">
+      <c r="C34" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="108" t="s">
+      <c r="D34" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="102" t="s">
+      <c r="G34" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="102" t="s">
+      <c r="H34" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="108" t="s">
+      <c r="I34" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="108" t="s">
+      <c r="J34" s="135"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="103">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="108" t="s">
+      <c r="N34" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="7" t="s">
+      <c r="O34" s="135"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="135"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="111"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="10" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A35" s="95"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="135"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="135"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" s="111"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" s="111"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A36" s="95"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="6"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" s="111"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="135"/>
+      <c r="P36" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q36" s="135"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A37" s="95"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="6"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="89" t="s">
-        <v>179</v>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="L37" s="6"/>
-      <c r="M37" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" s="112"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="135"/>
+      <c r="P37" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q37" s="135"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A38" s="95"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="89" t="s">
+      <c r="J38" s="133"/>
+      <c r="K38" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q38" s="133"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A39" s="96"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" s="110" t="s">
+      <c r="Q39" s="133"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A40" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B40" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C40" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D40" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E40" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F40" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="H40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="I40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="J40" s="135"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="29" t="s">
+      <c r="N40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="7" t="s">
+      <c r="O40" s="135"/>
+      <c r="P40" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q40" s="135"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" s="110"/>
-      <c r="B40" s="8" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A41" s="108"/>
+      <c r="B41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="110"/>
-      <c r="B41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="J41" s="135"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="135"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A42" s="108"/>
+      <c r="B42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="135"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="135"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="135"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" s="110" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A43" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J43" s="135"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="N43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="135"/>
+      <c r="P43" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q43" s="135"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A44" s="108"/>
+      <c r="B44" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="135"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" s="135"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="135"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A45" s="108"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="135"/>
+      <c r="P45" s="126"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A46" s="108"/>
+      <c r="B46" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="135"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="135"/>
+      <c r="P46" s="125" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q46" s="135"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A47" s="108"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="103"/>
+      <c r="N47" s="103"/>
+      <c r="O47" s="135"/>
+      <c r="P47" s="126"/>
+      <c r="Q47" s="135"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A48" s="108"/>
+      <c r="B48" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="135"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" s="135"/>
+      <c r="P48" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="110"/>
-      <c r="B43" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="K43" s="99"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" s="110"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="10" t="s">
+      <c r="Q48" s="135"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A49" s="108"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="135"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="103"/>
+      <c r="O49" s="135"/>
+      <c r="P49" s="126"/>
+      <c r="Q49" s="135"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" s="110"/>
-      <c r="B45" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="L45" s="102"/>
-      <c r="M45" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" s="110"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="102"/>
-      <c r="M46" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" s="110"/>
-      <c r="B47" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="99" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A50" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="135"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="O50" s="135"/>
+      <c r="P50" s="127" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q50" s="135"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A51" s="108"/>
+      <c r="B51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="135"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="135"/>
+      <c r="P51" s="128"/>
+      <c r="Q51" s="135"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A52" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="135"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="O52" s="135"/>
+      <c r="P52" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q52" s="135"/>
+      <c r="R52" s="104"/>
+      <c r="S52" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A53" s="108"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="135"/>
+      <c r="P53" s="104"/>
+      <c r="Q53" s="135"/>
+      <c r="R53" s="104"/>
+      <c r="S53" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A54" s="108"/>
+      <c r="B54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="135"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="135"/>
+      <c r="P54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="135"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A55" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="135"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="N55" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" s="135"/>
+      <c r="P55" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="L47" s="102"/>
-      <c r="M47" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" s="110"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="K49" s="103" t="s">
-        <v>239</v>
-      </c>
-      <c r="L49" s="29"/>
-      <c r="M49" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" s="110"/>
-      <c r="B50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K50" s="104"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="I51" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="J51" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K51" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="L51" s="101"/>
-      <c r="M51" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" s="110"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="101"/>
-      <c r="M52" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" s="110"/>
-      <c r="B53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" s="8"/>
-      <c r="M53" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="G54" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="I54" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="J54" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="K54" s="101" t="s">
+      <c r="Q55" s="135"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A56" s="108"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="135"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="135"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="135"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A57" s="108"/>
+      <c r="B57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="135"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="N57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="O57" s="135"/>
+      <c r="P57" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="L54" s="101"/>
-      <c r="M54" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" s="110"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
-      <c r="M55" s="10" t="s">
+      <c r="Q57" s="135"/>
+      <c r="R57" s="103"/>
+      <c r="S57" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A58" s="108"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="135"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="103"/>
+      <c r="N58" s="103"/>
+      <c r="O58" s="135"/>
+      <c r="P58" s="103"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" s="110"/>
-      <c r="B56" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="J56" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="K56" s="102" t="s">
-        <v>236</v>
-      </c>
-      <c r="L56" s="102"/>
-      <c r="M56" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A57" s="110"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="102"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="102"/>
-      <c r="L57" s="102"/>
-      <c r="M57" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="7" t="s">
+      <c r="F59" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="135"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="135"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="135"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A60" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I59" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J59" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="K59" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="L59" s="29"/>
-      <c r="M59" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A60" s="119" t="s">
-        <v>51</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="105" t="s">
-        <v>26</v>
-      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J60" s="135"/>
       <c r="K60" s="9"/>
-      <c r="L60" s="105"/>
-      <c r="M60" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" s="123"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="O60" s="135"/>
+      <c r="P60" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q60" s="135"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A61" s="109" t="s">
+        <v>51</v>
+      </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="105"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="135"/>
       <c r="K61" s="9"/>
-      <c r="L61" s="105"/>
-      <c r="M61" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" s="123"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="135"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="135"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A62" s="113"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="105"/>
-      <c r="J62" s="105"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="135"/>
       <c r="K62" s="9"/>
-      <c r="L62" s="105"/>
-      <c r="M62" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" s="123"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="135"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="135"/>
+      <c r="R62" s="116"/>
+      <c r="S62" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A63" s="113"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="I63" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="J63" s="105" t="s">
-        <v>31</v>
-      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="135"/>
       <c r="K63" s="9"/>
-      <c r="L63" s="105"/>
-      <c r="M63" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A64" s="123"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="135"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="135"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A64" s="113"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="105"/>
-      <c r="I64" s="105"/>
-      <c r="J64" s="105"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" s="135"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="105"/>
-      <c r="M64" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" s="123"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="N64" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64" s="135"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="135"/>
+      <c r="R64" s="116"/>
+      <c r="S64" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A65" s="113"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="105"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="135"/>
       <c r="K65" s="9"/>
-      <c r="L65" s="105"/>
-      <c r="M65" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" s="123"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="116"/>
+      <c r="N65" s="116"/>
+      <c r="O65" s="135"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="135"/>
+      <c r="R65" s="116"/>
+      <c r="S65" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A66" s="113"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="105" t="s">
-        <v>29</v>
-      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="116"/>
+      <c r="J66" s="135"/>
       <c r="K66" s="9"/>
-      <c r="L66" s="105"/>
-      <c r="M66" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" s="123"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="116"/>
+      <c r="N66" s="116"/>
+      <c r="O66" s="135"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="135"/>
+      <c r="R66" s="116"/>
+      <c r="S66" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A67" s="113"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="105"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="135"/>
       <c r="K67" s="9"/>
-      <c r="L67" s="105"/>
-      <c r="M67" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" s="123"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" s="135"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="135"/>
+      <c r="R67" s="116"/>
+      <c r="S67" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A68" s="113"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="105"/>
-      <c r="J68" s="105"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="135"/>
       <c r="K68" s="9"/>
-      <c r="L68" s="105"/>
-      <c r="M68" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A69" s="123"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="116"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="135"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="135"/>
+      <c r="R68" s="116"/>
+      <c r="S68" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A69" s="113"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="116" t="s">
+      <c r="F69" s="9"/>
+      <c r="G69" s="116"/>
+      <c r="H69" s="116"/>
+      <c r="I69" s="116"/>
+      <c r="J69" s="135"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="116"/>
+      <c r="N69" s="116"/>
+      <c r="O69" s="135"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="135"/>
+      <c r="R69" s="116"/>
+      <c r="S69" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A70" s="113"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="116" t="s">
+      <c r="H70" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="H69" s="106" t="s">
+      <c r="I70" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="I69" s="106" t="s">
+      <c r="J70" s="138"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="J69" s="106" t="s">
+      <c r="N70" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="K69" s="68"/>
-      <c r="L69" s="106"/>
-      <c r="M69" s="7" t="s">
+      <c r="O70" s="138"/>
+      <c r="P70" s="65"/>
+      <c r="Q70" s="138"/>
+      <c r="R70" s="117"/>
+      <c r="S70" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="123"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="107"/>
-      <c r="J70" s="107"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="107"/>
-      <c r="M70" s="56" t="s">
+    <row r="71" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="113"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="115"/>
+      <c r="H71" s="115"/>
+      <c r="I71" s="118"/>
+      <c r="J71" s="138"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="118"/>
+      <c r="N71" s="118"/>
+      <c r="O71" s="138"/>
+      <c r="P71" s="66"/>
+      <c r="Q71" s="138"/>
+      <c r="R71" s="118"/>
+      <c r="S71" s="56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="120" t="s">
+    <row r="72" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D71" s="43" t="s">
+      <c r="D72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F71" s="43" t="s">
+      <c r="F72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="G71" s="43" t="s">
+      <c r="G72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="91" t="s">
+      <c r="H72" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="135"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="135"/>
+      <c r="P72" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="L71" s="9"/>
-      <c r="M71" s="59" t="s">
+      <c r="Q72" s="135"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="121"/>
-      <c r="B72" s="65" t="s">
+    <row r="73" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="111"/>
+      <c r="B73" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="66" t="s">
+      <c r="C73" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="67" t="s">
+      <c r="D73" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="67" t="s">
+      <c r="F73" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F72" s="73" t="s">
+      <c r="G73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="73" t="s">
+      <c r="H73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H72" s="73" t="s">
+      <c r="I73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="I72" s="73" t="s">
+      <c r="J73" s="133"/>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J72" s="73" t="s">
+      <c r="N73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="K72" s="90" t="s">
-        <v>238</v>
-      </c>
-      <c r="L72" s="73"/>
-      <c r="M72" s="60" t="s">
+      <c r="O73" s="133"/>
+      <c r="P73" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q73" s="133"/>
+      <c r="R73" s="70"/>
+      <c r="S73" s="60" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="121"/>
-      <c r="B73" s="70" t="s">
+    <row r="74" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="111"/>
+      <c r="B74" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="71" t="s">
+      <c r="C74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D73" s="71" t="s">
+      <c r="D74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E73" s="71" t="s">
+      <c r="E74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="31" t="s">
+      <c r="F74" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="I73" s="31" t="s">
+      <c r="J74" s="133"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="J73" s="31" t="s">
+      <c r="N74" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="K73" s="90" t="s">
+      <c r="O74" s="133"/>
+      <c r="P74" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L73" s="31"/>
-      <c r="M73" s="60" t="s">
+      <c r="Q74" s="133"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="60" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="122"/>
-      <c r="B74" s="47" t="s">
+    <row r="75" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="112"/>
+      <c r="B75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D74" s="47" t="s">
+      <c r="D75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="47" t="s">
+      <c r="E75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="F74" s="47" t="s">
+      <c r="F75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="G74" s="47" t="s">
+      <c r="G75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="90" t="s">
+      <c r="H75" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="135"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="135"/>
+      <c r="P75" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="L74" s="9"/>
-      <c r="M74" s="61"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A75" s="118" t="s">
+      <c r="Q75" s="135"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="61"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A76" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B76" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="67" t="s">
+      <c r="C76" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="67" t="s">
+      <c r="D76" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="67" t="s">
+      <c r="E76" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="58"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" s="110"/>
-      <c r="B76" s="70" t="s">
+      <c r="F76" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="133"/>
+      <c r="K76" s="129"/>
+      <c r="L76" s="129"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="133"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="133"/>
+      <c r="R76" s="52"/>
+      <c r="S76" s="58"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A77" s="108"/>
+      <c r="B77" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="71" t="s">
+      <c r="C77" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D77" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E76" s="71" t="s">
+      <c r="E77" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12" t="s">
+      <c r="F77" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="133"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="133"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="133"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="119"/>
-      <c r="B77" s="72" t="s">
+    <row r="78" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="109"/>
+      <c r="B78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="72" t="s">
+      <c r="C78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D77" s="72" t="s">
+      <c r="D78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E77" s="72" t="s">
+      <c r="E78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40" t="s">
+      <c r="F78" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="133"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="133"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="133"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="125" t="s">
+    <row r="79" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="54" t="s">
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="E78" s="54" t="s">
+      <c r="F79" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="44" t="s">
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="133"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="133"/>
+      <c r="P79" s="54"/>
+      <c r="Q79" s="133"/>
+      <c r="R79" s="54"/>
+      <c r="S79" s="44" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="126"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="126"/>
+    <row r="80" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="98"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="12" t="s">
-        <v>179</v>
-      </c>
+      <c r="D80" s="9"/>
       <c r="E80" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F80" s="9"/>
+        <v>178</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="G80" s="9"/>
-      <c r="H80" s="12"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
+      <c r="J80" s="133"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="44" t="s">
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="133"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="133"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A81" s="98"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="133"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="133"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="133"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="44" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="127"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="46" t="s">
+    <row r="82" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="99"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E81" s="46" t="s">
+      <c r="F82" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="48" t="s">
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="133"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="133"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="133"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A82" s="128" t="s">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A83" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="50" t="s">
+      <c r="B83" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="C82" s="50" t="s">
+      <c r="C83" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D83" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E83" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="F82" s="51" t="s">
+      <c r="F83" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="G82" s="51" t="s">
+      <c r="G83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="H82" s="51" t="s">
+      <c r="H83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="I82" s="51" t="s">
+      <c r="I83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="J82" s="51" t="s">
+      <c r="J83" s="139"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="K82" s="51" t="s">
+      <c r="N83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="L82" s="51"/>
-      <c r="M82" s="52" t="s">
+      <c r="O83" s="139"/>
+      <c r="P83" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q83" s="139"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="52" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A83" s="129"/>
-      <c r="B83" s="12" t="s">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A84" s="101"/>
+      <c r="B84" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D84" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E84" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F83" s="32" t="s">
+      <c r="F84" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="G83" s="32" t="s">
+      <c r="H84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="H83" s="32" t="s">
+      <c r="I84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="I83" s="32" t="s">
+      <c r="J84" s="139"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="J83" s="32" t="s">
+      <c r="N84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="K83" s="32" t="s">
+      <c r="O84" s="139"/>
+      <c r="P84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="L83" s="32"/>
-      <c r="M83" s="12"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A84" s="129"/>
-      <c r="B84" s="12" t="s">
+      <c r="Q84" s="139"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="12"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A85" s="101"/>
+      <c r="B85" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D85" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E85" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="F85" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="G84" s="31" t="s">
+      <c r="H85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="H84" s="31" t="s">
+      <c r="I85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="I84" s="31" t="s">
+      <c r="J85" s="133"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="J84" s="31" t="s">
+      <c r="N85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="K84" s="31" t="s">
+      <c r="O85" s="133"/>
+      <c r="P85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="L84" s="31"/>
-      <c r="M84" s="12"/>
-    </row>
-    <row r="85" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="130"/>
-      <c r="B85" s="38" t="s">
+      <c r="Q85" s="133"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="12"/>
+    </row>
+    <row r="86" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="102"/>
+      <c r="B86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E85" s="38" t="s">
+      <c r="E86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F85" s="39" t="s">
+      <c r="F86" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="39" t="s">
+      <c r="H86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="H85" s="39" t="s">
+      <c r="I86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="I85" s="39" t="s">
+      <c r="J86" s="133"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="J85" s="39" t="s">
+      <c r="N86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="K85" s="39" t="s">
+      <c r="O86" s="133"/>
+      <c r="P86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="L85" s="39"/>
-      <c r="M85" s="40"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" s="113" t="s">
+      <c r="Q86" s="133"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="40"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A87" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="43" t="s">
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="I86" s="43" t="s">
+      <c r="J87" s="140"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="J86" s="43" t="s">
+      <c r="N87" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="K86" s="92" t="s">
+      <c r="O87" s="140"/>
+      <c r="P87" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="L86" s="43"/>
-      <c r="M86" s="44"/>
-    </row>
-    <row r="87" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="114"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I87" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="J87" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K87" s="93" t="s">
-        <v>176</v>
-      </c>
-      <c r="L87" s="29"/>
-      <c r="M87" s="45" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="114"/>
+      <c r="Q87" s="140"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="44"/>
+    </row>
+    <row r="88" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="120"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37"/>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
-      <c r="H88" s="29" t="s">
+      <c r="H88" s="37"/>
+      <c r="I88" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J88" s="135"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N88" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O88" s="135"/>
+      <c r="P88" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q88" s="135"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="120"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I88" s="29" t="s">
+      <c r="J89" s="135"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J88" s="29" t="s">
+      <c r="N89" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="94" t="s">
+      <c r="O89" s="135"/>
+      <c r="P89" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="L88" s="29"/>
-      <c r="M88" s="45" t="s">
+      <c r="Q89" s="135"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="45" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="115"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="47" t="s">
+    <row r="90" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="121"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="I89" s="47" t="s">
+      <c r="J90" s="140"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="J89" s="47" t="s">
+      <c r="N90" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="K89" s="95" t="s">
+      <c r="O90" s="140"/>
+      <c r="P90" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="L89" s="47"/>
-      <c r="M89" s="48"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L93" s="28"/>
+      <c r="Q90" s="140"/>
+      <c r="R90" s="47"/>
+      <c r="S90" s="48"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="R94" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="125">
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="L16:L25"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="J66:J68"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L60:L62"/>
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="L66:L68"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="J54:J55"/>
+  <mergeCells count="136">
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="R17:R26"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="R64:R66"/>
+    <mergeCell ref="R67:R69"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N61:N63"/>
+    <mergeCell ref="N64:N66"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A26"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M61:M63"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A61:A71"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6739,37 +7617,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BACAD1-97A4-4AD0-A21C-371462B24AAD}">
   <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="9" style="131"/>
+    <col min="6" max="6" width="9" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" t="s">
         <v>276</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="93" t="s">
         <v>274</v>
-      </c>
-      <c r="E1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" s="131" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
@@ -6779,12 +7657,12 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
         <v>176</v>
@@ -6792,7 +7670,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
         <v>176</v>
@@ -6800,7 +7678,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
         <v>176</v>
@@ -6808,7 +7686,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9">
         <v>45</v>
@@ -6819,13 +7697,13 @@
       <c r="E9">
         <v>45</v>
       </c>
-      <c r="F9" s="131">
+      <c r="F9" s="93">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10">
         <v>48</v>
@@ -6836,13 +7714,13 @@
       <c r="E10">
         <v>48</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="93">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11">
         <v>47</v>
@@ -6853,13 +7731,13 @@
       <c r="E11">
         <v>47</v>
       </c>
-      <c r="F11" s="131">
+      <c r="F11" s="93">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -6870,13 +7748,13 @@
       <c r="E12">
         <v>21</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="93">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -6887,13 +7765,13 @@
       <c r="E13">
         <v>14</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="93">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
         <v>176</v>
@@ -6901,7 +7779,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
         <v>176</v>
@@ -6909,7 +7787,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -6920,13 +7798,13 @@
       <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="93">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -6937,13 +7815,13 @@
       <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17" s="131">
+      <c r="F17" s="93">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -6954,13 +7832,13 @@
       <c r="E18">
         <v>7</v>
       </c>
-      <c r="F18" s="131">
+      <c r="F18" s="93">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -6971,13 +7849,13 @@
       <c r="E19">
         <v>15</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="93">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -6988,13 +7866,13 @@
       <c r="E20">
         <v>16</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="93">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -7005,13 +7883,13 @@
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21" s="131">
+      <c r="F21" s="93">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" t="s">
         <v>176</v>
@@ -7019,7 +7897,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D23" t="s">
         <v>176</v>
@@ -7027,7 +7905,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D24" t="s">
         <v>176</v>
@@ -7035,7 +7913,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -7046,13 +7924,13 @@
       <c r="E25">
         <v>8</v>
       </c>
-      <c r="F25" s="131">
+      <c r="F25" s="93">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -7063,13 +7941,13 @@
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="93">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27">
         <v>46</v>
@@ -7080,13 +7958,13 @@
       <c r="E27">
         <v>46</v>
       </c>
-      <c r="F27" s="131">
+      <c r="F27" s="93">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -7097,13 +7975,13 @@
       <c r="E28">
         <v>9</v>
       </c>
-      <c r="F28" s="131">
+      <c r="F28" s="93">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -7114,7 +7992,7 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="131">
+      <c r="F29" s="93">
         <v>4</v>
       </c>
     </row>
@@ -7125,17 +8003,17 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33">
         <v>39</v>
@@ -7146,13 +8024,13 @@
       <c r="E33">
         <v>39</v>
       </c>
-      <c r="F33" s="131">
+      <c r="F33" s="93">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C34">
         <v>41</v>
@@ -7163,13 +8041,13 @@
       <c r="E34">
         <v>41</v>
       </c>
-      <c r="F34" s="131">
+      <c r="F34" s="93">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C35">
         <v>40</v>
@@ -7180,7 +8058,7 @@
       <c r="E35">
         <v>40</v>
       </c>
-      <c r="F35" s="131">
+      <c r="F35" s="93">
         <v>41</v>
       </c>
     </row>
@@ -7191,6 +8069,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100431B1C8C9D9DBE4AA0E80FF5D0349E59" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f7ed8c6386409f34b595d96d3c2cb336">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8eebbbb-06cf-461a-bdd4-fdce0afb9207" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b92ee3a140b325dd50340e431628f3" ns3:_="">
     <xsd:import namespace="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
@@ -7340,22 +8233,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFFF1BA6-01AE-4C7B-81CA-4E0B23197A87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B34AA1-4D99-4870-B3C7-12AFF67D4A6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7371,28 +8273,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFFF1BA6-01AE-4C7B-81CA-4E0B23197A87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2432S028.xlsx
+++ b/2432S028.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunikata\Desktop\xptouch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FD3E4D-4988-4A6A-A056-4960CD23F143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5BE45-0ACE-4901-8CCD-E06E59BC7E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="286">
   <si>
     <t>Onboard Equipment</t>
   </si>
@@ -2280,12 +2280,25 @@
   <si>
     <t>感圧式</t>
   </si>
+  <si>
+    <t>静電容量式</t>
+    <rPh sb="0" eb="2">
+      <t>セイデン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2482,6 +2495,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="23">
@@ -2908,7 +2929,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3191,15 +3212,114 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3218,24 +3338,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3250,93 +3355,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3673,10 +3691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BC7DEC-5679-4A0D-9125-1D99B7399C91}">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="B23:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3684,17 +3702,18 @@
     <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="141" customWidth="1"/>
-    <col min="11" max="14" width="20.625" customWidth="1"/>
-    <col min="15" max="15" width="4.75" style="141" customWidth="1"/>
-    <col min="16" max="16" width="20.625" customWidth="1"/>
-    <col min="17" max="17" width="4.75" style="141" customWidth="1"/>
-    <col min="18" max="18" width="20.625" customWidth="1"/>
-    <col min="19" max="19" width="73.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="15" width="20.625" customWidth="1"/>
+    <col min="16" max="16" width="4.75" customWidth="1"/>
+    <col min="17" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="18" width="4.75" customWidth="1"/>
+    <col min="19" max="19" width="20.625" customWidth="1"/>
+    <col min="20" max="20" width="73.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3716,38 +3735,39 @@
       <c r="G1" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="96"/>
+      <c r="L1" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="131"/>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="96"/>
+      <c r="Q1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="96"/>
+      <c r="S1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>191</v>
       </c>
@@ -3769,16 +3789,14 @@
       <c r="G2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>107</v>
-      </c>
+      <c r="H2" s="78"/>
       <c r="I2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>107</v>
       </c>
+      <c r="K2" s="78"/>
       <c r="L2" s="34" t="s">
         <v>107</v>
       </c>
@@ -3788,17 +3806,20 @@
       <c r="N2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="132"/>
-      <c r="P2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="35" t="s">
+      <c r="P2" s="78"/>
+      <c r="Q2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="78"/>
+      <c r="S2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="S2" s="16"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="33"/>
       <c r="B3" s="35" t="s">
         <v>221</v>
@@ -3818,32 +3839,33 @@
       <c r="G3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>221</v>
-      </c>
+      <c r="H3" s="78"/>
       <c r="I3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="35"/>
+      <c r="J3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="78"/>
       <c r="L3" s="35"/>
-      <c r="M3" s="35" t="s">
-        <v>221</v>
-      </c>
+      <c r="M3" s="35"/>
       <c r="N3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="O3" s="132"/>
-      <c r="P3" s="77" t="s">
+      <c r="O3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="77" t="s">
+      <c r="R3" s="78"/>
+      <c r="S3" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="S3" s="16"/>
-    </row>
-    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.4">
+      <c r="T3" s="16"/>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
         <v>210</v>
       </c>
@@ -3865,16 +3887,14 @@
       <c r="G4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="78"/>
+      <c r="I4" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="J4" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="132"/>
-      <c r="K4" s="34" t="s">
-        <v>107</v>
-      </c>
+      <c r="K4" s="78"/>
       <c r="L4" s="34" t="s">
         <v>107</v>
       </c>
@@ -3884,52 +3904,62 @@
       <c r="N4" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="132"/>
-      <c r="P4" s="34" t="s">
+      <c r="O4" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="35" t="s">
+      <c r="P4" s="78"/>
+      <c r="Q4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="78"/>
+      <c r="S4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T4" s="16"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="142" t="s">
+      <c r="D5" s="106" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="78"/>
+      <c r="I5" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="I5" s="142" t="s">
+      <c r="J5" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="J5" s="132"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="106" t="s">
+        <v>285</v>
+      </c>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.4">
+      <c r="O5" s="34"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
         <v>217</v>
       </c>
@@ -3941,28 +3971,29 @@
       <c r="G6" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="77" t="s">
-        <v>218</v>
-      </c>
+      <c r="H6" s="78"/>
       <c r="I6" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="J6" s="132"/>
+      <c r="J6" s="77" t="s">
+        <v>218</v>
+      </c>
       <c r="K6" s="78"/>
       <c r="L6" s="78"/>
-      <c r="M6" s="77" t="s">
-        <v>218</v>
-      </c>
+      <c r="M6" s="78"/>
       <c r="N6" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="O6" s="132"/>
+      <c r="O6" s="77" t="s">
+        <v>218</v>
+      </c>
       <c r="P6" s="78"/>
-      <c r="Q6" s="132"/>
+      <c r="Q6" s="78"/>
       <c r="R6" s="78"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S6" s="78"/>
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>103</v>
       </c>
@@ -3984,30 +4015,31 @@
       <c r="G7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="H7" s="97"/>
       <c r="I7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="133"/>
-      <c r="K7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="97"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="M7" s="12"/>
       <c r="N7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="133"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P7" s="97"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>105</v>
       </c>
@@ -4029,30 +4061,31 @@
       <c r="G8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="40" t="s">
-        <v>106</v>
-      </c>
+      <c r="H8" s="97"/>
       <c r="I8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="133"/>
-      <c r="K8" s="40"/>
+      <c r="J8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="97"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
-        <v>106</v>
-      </c>
+      <c r="M8" s="40"/>
       <c r="N8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="O8" s="133"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="40" t="s">
+      <c r="O8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="S8" s="40"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P8" s="97"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="40"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="73" t="s">
         <v>112</v>
       </c>
@@ -4070,20 +4103,21 @@
       <c r="G9" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="74"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="97"/>
       <c r="L9" s="74"/>
-      <c r="M9" s="12"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="97"/>
       <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="73" t="s">
         <v>113</v>
       </c>
@@ -4101,20 +4135,21 @@
       <c r="G10" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="97"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="74"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="97"/>
       <c r="L10" s="74"/>
-      <c r="M10" s="12"/>
+      <c r="M10" s="74"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="97"/>
       <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>203</v>
       </c>
@@ -4136,37 +4171,38 @@
       <c r="G11" s="12">
         <v>2.8</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="97"/>
+      <c r="I11" s="12">
         <v>2.8</v>
       </c>
-      <c r="I11" s="75">
+      <c r="J11" s="75">
         <v>3.2</v>
       </c>
-      <c r="J11" s="133"/>
-      <c r="K11" s="12">
-        <v>3.5</v>
-      </c>
+      <c r="K11" s="97"/>
       <c r="L11" s="12">
         <v>3.5</v>
       </c>
-      <c r="M11" s="75">
+      <c r="M11" s="12">
         <v>3.5</v>
       </c>
       <c r="N11" s="75">
+        <v>3.5</v>
+      </c>
+      <c r="O11" s="75">
         <v>4</v>
       </c>
-      <c r="O11" s="133"/>
-      <c r="P11" s="75">
+      <c r="P11" s="97"/>
+      <c r="Q11" s="75">
         <v>2.8</v>
       </c>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="75">
+      <c r="R11" s="97"/>
+      <c r="S11" s="75">
         <v>5</v>
       </c>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="108" t="s">
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="121" t="s">
         <v>196</v>
       </c>
       <c r="B12" s="12">
@@ -4187,35 +4223,36 @@
       <c r="G12" s="12">
         <v>320</v>
       </c>
-      <c r="H12" s="12">
-        <v>320</v>
-      </c>
+      <c r="H12" s="97"/>
       <c r="I12" s="12">
         <v>320</v>
       </c>
-      <c r="J12" s="133"/>
-      <c r="K12" s="12">
-        <v>480</v>
-      </c>
+      <c r="J12" s="12">
+        <v>320</v>
+      </c>
+      <c r="K12" s="97"/>
       <c r="L12" s="12">
         <v>480</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="12">
         <v>480</v>
       </c>
       <c r="N12" s="20">
         <v>480</v>
       </c>
-      <c r="O12" s="133"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="20">
+      <c r="O12" s="20">
+        <v>480</v>
+      </c>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="20">
         <v>800</v>
       </c>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="108"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="121"/>
       <c r="B13" s="12">
         <v>240</v>
       </c>
@@ -4234,35 +4271,36 @@
       <c r="G13" s="12">
         <v>240</v>
       </c>
-      <c r="H13" s="12">
-        <v>240</v>
-      </c>
+      <c r="H13" s="97"/>
       <c r="I13" s="12">
         <v>240</v>
       </c>
-      <c r="J13" s="133"/>
-      <c r="K13" s="12">
-        <v>320</v>
-      </c>
+      <c r="J13" s="12">
+        <v>240</v>
+      </c>
+      <c r="K13" s="97"/>
       <c r="L13" s="12">
         <v>320</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="12">
         <v>320</v>
       </c>
       <c r="N13" s="20">
         <v>320</v>
       </c>
-      <c r="O13" s="133"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="20">
+      <c r="O13" s="20">
+        <v>320</v>
+      </c>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="20">
         <v>480</v>
       </c>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="95" t="s">
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="122" t="s">
         <v>195</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -4283,35 +4321,36 @@
       <c r="G14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="H14" s="96"/>
       <c r="I14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="131"/>
-      <c r="K14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="96"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="M14" s="13"/>
       <c r="N14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O14" s="131"/>
-      <c r="P14" s="13" t="s">
+      <c r="O14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="13" t="s">
+      <c r="P14" s="96"/>
+      <c r="Q14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="R14" s="96"/>
+      <c r="S14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="95"/>
+    <row r="15" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="122"/>
       <c r="B15" s="80" t="s">
         <v>199</v>
       </c>
@@ -4330,16 +4369,14 @@
       <c r="G15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="98"/>
+      <c r="I15" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="I15" s="81" t="s">
+      <c r="J15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="J15" s="134"/>
-      <c r="K15" s="82" t="s">
-        <v>202</v>
-      </c>
+      <c r="K15" s="98"/>
       <c r="L15" s="82" t="s">
         <v>202</v>
       </c>
@@ -4347,20 +4384,23 @@
         <v>202</v>
       </c>
       <c r="N15" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="O15" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="O15" s="134"/>
-      <c r="P15" s="80" t="s">
+      <c r="P15" s="98"/>
+      <c r="Q15" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="82" t="s">
+      <c r="R15" s="98"/>
+      <c r="S15" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="95"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="122"/>
       <c r="B16" s="80" t="s">
         <v>84</v>
       </c>
@@ -4379,16 +4419,14 @@
       <c r="G16" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="98"/>
+      <c r="I16" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="J16" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="134"/>
-      <c r="K16" s="81" t="s">
-        <v>279</v>
-      </c>
+      <c r="K16" s="98"/>
       <c r="L16" s="81" t="s">
         <v>279</v>
       </c>
@@ -4398,18 +4436,21 @@
       <c r="N16" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="O16" s="134"/>
-      <c r="P16" s="80" t="s">
+      <c r="O16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="21" t="s">
+      <c r="R16" s="98"/>
+      <c r="S16" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A17" s="95"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A17" s="122"/>
       <c r="B17" s="79" t="s">
         <v>83</v>
       </c>
@@ -4428,16 +4469,14 @@
       <c r="G17" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="79" t="s">
-        <v>83</v>
-      </c>
+      <c r="H17" s="99"/>
       <c r="I17" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="135"/>
-      <c r="K17" s="79" t="s">
+      <c r="J17" s="79" t="s">
         <v>83</v>
       </c>
+      <c r="K17" s="99"/>
       <c r="L17" s="79" t="s">
         <v>83</v>
       </c>
@@ -4447,98 +4486,103 @@
       <c r="N17" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="135"/>
-      <c r="P17" s="84" t="s">
+      <c r="O17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="122" t="s">
+      <c r="R17" s="99"/>
+      <c r="S17" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="T17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A18" s="95"/>
-      <c r="B18" s="103" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18" s="122"/>
+      <c r="B18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="103" t="s">
+      <c r="F18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="103" t="s">
+      <c r="H18" s="99"/>
+      <c r="I18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="103" t="s">
+      <c r="J18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="135"/>
-      <c r="K18" s="103" t="s">
+      <c r="K18" s="99"/>
+      <c r="L18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="103" t="s">
+      <c r="M18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="103" t="s">
+      <c r="N18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="103" t="s">
+      <c r="O18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="135"/>
-      <c r="P18" s="125" t="s">
+      <c r="P18" s="99"/>
+      <c r="Q18" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="7" t="s">
+      <c r="R18" s="99"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A19" s="95"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="10" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" s="122"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A20" s="95"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20" s="122"/>
       <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
@@ -4557,37 +4601,38 @@
       <c r="G20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="H20" s="99"/>
       <c r="I20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="135"/>
-      <c r="K20" s="8" t="s">
-        <v>277</v>
-      </c>
+      <c r="J20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="99"/>
       <c r="L20" s="8" t="s">
         <v>277</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="135"/>
-      <c r="P20" s="11">
+      <c r="O20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="11">
         <v>12</v>
       </c>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="7" t="s">
+      <c r="R20" s="99"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A21" s="95"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" s="122"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -4606,16 +4651,14 @@
       <c r="G21" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="H21" s="99"/>
       <c r="I21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="135"/>
-      <c r="K21" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="J21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="99"/>
       <c r="L21" s="8" t="s">
         <v>198</v>
       </c>
@@ -4623,20 +4666,23 @@
         <v>198</v>
       </c>
       <c r="N21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O21" s="135"/>
-      <c r="P21" s="11">
+      <c r="P21" s="99"/>
+      <c r="Q21" s="11">
         <v>11</v>
       </c>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="7" t="s">
+      <c r="R21" s="99"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A22" s="95"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22" s="122"/>
       <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
@@ -4655,37 +4701,38 @@
       <c r="G22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="H22" s="99"/>
       <c r="I22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="135"/>
-      <c r="K22" s="8" t="s">
-        <v>278</v>
-      </c>
+      <c r="J22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="99"/>
       <c r="L22" s="8" t="s">
         <v>278</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>7</v>
+        <v>278</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="135"/>
-      <c r="P22" s="11">
+      <c r="O22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="11">
         <v>13</v>
       </c>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="7" t="s">
+      <c r="R22" s="99"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="95"/>
+    <row r="23" spans="1:21" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="122"/>
       <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
@@ -4704,16 +4751,14 @@
       <c r="G23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="H23" s="99"/>
       <c r="I23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="135"/>
-      <c r="K23" s="8" t="s">
+      <c r="J23" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="K23" s="99"/>
       <c r="L23" s="8" t="s">
         <v>8</v>
       </c>
@@ -4723,18 +4768,21 @@
       <c r="N23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="135"/>
-      <c r="P23" s="8" t="s">
+      <c r="O23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="Q23" s="135"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="7" t="s">
+      <c r="R23" s="99"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A24" s="95"/>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A24" s="122"/>
       <c r="B24" s="8">
         <v>40000000</v>
       </c>
@@ -4753,16 +4801,14 @@
       <c r="G24" s="8">
         <v>40000000</v>
       </c>
-      <c r="H24" s="8">
-        <v>40000000</v>
-      </c>
+      <c r="H24" s="99"/>
       <c r="I24" s="8">
         <v>40000000</v>
       </c>
-      <c r="J24" s="135"/>
-      <c r="K24" s="8">
+      <c r="J24" s="8">
         <v>40000000</v>
       </c>
+      <c r="K24" s="99"/>
       <c r="L24" s="8">
         <v>40000000</v>
       </c>
@@ -4772,18 +4818,21 @@
       <c r="N24" s="8">
         <v>40000000</v>
       </c>
-      <c r="O24" s="135"/>
-      <c r="P24" s="8">
+      <c r="O24" s="8">
         <v>40000000</v>
       </c>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="7" t="s">
+      <c r="P24" s="99"/>
+      <c r="Q24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="R24" s="99"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A25" s="95"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" s="122"/>
       <c r="B25" s="8">
         <v>20000000</v>
       </c>
@@ -4802,37 +4851,38 @@
       <c r="G25" s="8">
         <v>20000000</v>
       </c>
-      <c r="H25" s="8">
-        <v>20000000</v>
-      </c>
+      <c r="H25" s="99"/>
       <c r="I25" s="8">
         <v>20000000</v>
       </c>
-      <c r="J25" s="135"/>
-      <c r="K25" s="8">
-        <v>16000000</v>
-      </c>
+      <c r="J25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="K25" s="99"/>
       <c r="L25" s="8">
         <v>16000000</v>
       </c>
       <c r="M25" s="8">
-        <v>20000000</v>
+        <v>16000000</v>
       </c>
       <c r="N25" s="8">
         <v>20000000</v>
       </c>
-      <c r="O25" s="135"/>
-      <c r="P25" s="8">
+      <c r="O25" s="8">
         <v>20000000</v>
       </c>
-      <c r="Q25" s="135"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="7" t="s">
+      <c r="P25" s="99"/>
+      <c r="Q25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="R25" s="99"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A26" s="96"/>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" s="123"/>
       <c r="B26" s="8">
         <v>2500000</v>
       </c>
@@ -4851,16 +4901,14 @@
       <c r="G26" s="8">
         <v>2500000</v>
       </c>
-      <c r="H26" s="8">
-        <v>2500000</v>
-      </c>
+      <c r="H26" s="99"/>
       <c r="I26" s="8">
         <v>2500000</v>
       </c>
-      <c r="J26" s="135"/>
-      <c r="K26" s="8">
+      <c r="J26" s="8">
         <v>2500000</v>
       </c>
+      <c r="K26" s="99"/>
       <c r="L26" s="8">
         <v>2500000</v>
       </c>
@@ -4870,17 +4918,20 @@
       <c r="N26" s="8">
         <v>2500000</v>
       </c>
-      <c r="O26" s="135"/>
-      <c r="P26" s="8">
+      <c r="O26" s="8">
         <v>2500000</v>
       </c>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="124"/>
-      <c r="S26" s="7" t="s">
+      <c r="P26" s="99"/>
+      <c r="Q26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="R26" s="99"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="24" t="s">
         <v>181</v>
       </c>
@@ -4902,37 +4953,38 @@
       <c r="G27" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="71" t="s">
+      <c r="H27" s="100"/>
+      <c r="I27" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="J27" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="136"/>
-      <c r="K27" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="K27" s="100"/>
       <c r="L27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="36" t="s">
-        <v>52</v>
+      <c r="M27" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="N27" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="O27" s="136"/>
-      <c r="P27" s="85" t="s">
+      <c r="O27" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="Q27" s="136"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="7" t="s">
+      <c r="R27" s="100"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="94" t="s">
+    <row r="28" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="129" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4953,18 +5005,16 @@
       <c r="G28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="H28" s="96"/>
       <c r="I28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="131"/>
-      <c r="K28" s="4" t="s">
+      <c r="J28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="96"/>
+      <c r="L28" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>80</v>
@@ -4972,16 +5022,19 @@
       <c r="N28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O28" s="131"/>
-      <c r="P28" s="4" t="s">
+      <c r="O28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A29" s="95"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A29" s="122"/>
       <c r="B29" s="16" t="s">
         <v>92</v>
       </c>
@@ -5000,18 +5053,16 @@
       <c r="G29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="H29" s="101"/>
       <c r="I29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="137"/>
-      <c r="K29" s="19" t="s">
+      <c r="J29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="101"/>
+      <c r="L29" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>92</v>
@@ -5019,16 +5070,19 @@
       <c r="N29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="O29" s="137"/>
-      <c r="P29" s="19" t="s">
+      <c r="O29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A30" s="95"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A30" s="122"/>
       <c r="B30" s="5" t="s">
         <v>70</v>
       </c>
@@ -5045,33 +5099,34 @@
       <c r="G30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="99"/>
+      <c r="I30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="J30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="135"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="29" t="s">
-        <v>5</v>
-      </c>
+      <c r="K30" s="99"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="29" t="s">
         <v>5</v>
       </c>
       <c r="N30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O30" s="135"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="7" t="s">
+      <c r="O30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A31" s="95"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A31" s="122"/>
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
@@ -5088,33 +5143,34 @@
       <c r="G31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="99"/>
+      <c r="I31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="J31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="135"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K31" s="99"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="29" t="s">
         <v>6</v>
       </c>
       <c r="N31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="135"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="7" t="s">
+      <c r="O31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A32" s="95"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A32" s="122"/>
       <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
@@ -5131,33 +5187,34 @@
       <c r="G32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="99"/>
+      <c r="I32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="J32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="135"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="29" t="s">
-        <v>7</v>
-      </c>
+      <c r="K32" s="99"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="29" t="s">
         <v>7</v>
       </c>
       <c r="N32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="O32" s="135"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="7" t="s">
+      <c r="O32" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A33" s="95"/>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A33" s="122"/>
       <c r="B33" s="8" t="s">
         <v>13</v>
       </c>
@@ -5174,99 +5231,102 @@
       <c r="G33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H33" s="99"/>
       <c r="I33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="135"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="K33" s="99"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="135"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="7" t="s">
+      <c r="O33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A34" s="95"/>
-      <c r="B34" s="103" t="s">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A34" s="122"/>
+      <c r="B34" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="103" t="s">
+      <c r="D34" s="108" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="103" t="s">
+      <c r="G34" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="103" t="s">
+      <c r="H34" s="99"/>
+      <c r="I34" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="105" t="s">
+      <c r="J34" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="135"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="103">
+      <c r="K34" s="99"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="108">
         <v>-1</v>
       </c>
-      <c r="M34" s="105" t="s">
+      <c r="N34" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="N34" s="105" t="s">
+      <c r="O34" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="O34" s="135"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="135"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="7" t="s">
+      <c r="P34" s="99"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="119"/>
+      <c r="T34" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A35" s="95"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A35" s="122"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="135"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="135"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="10" t="s">
+      <c r="F35" s="120"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A36" s="95"/>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A36" s="122"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -5275,27 +5335,28 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="99"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="130" t="s">
+      <c r="J36" s="9"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="9"/>
+      <c r="M36" s="6"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="135"/>
-      <c r="P36" s="11" t="s">
+      <c r="O36" s="9"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="Q36" s="135"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="12" t="s">
+      <c r="R36" s="99"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A37" s="95"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A37" s="122"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -5304,27 +5365,28 @@
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="99"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="29" t="s">
+      <c r="J37" s="9"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="9"/>
+      <c r="M37" s="6"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="135"/>
-      <c r="P37" s="11" t="s">
+      <c r="O37" s="9"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q37" s="135"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="12" t="s">
+      <c r="R37" s="99"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A38" s="95"/>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A38" s="122"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -5333,27 +5395,28 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="29" t="s">
+      <c r="H38" s="97"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="86" t="s">
+      <c r="O38" s="6"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="Q38" s="133"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="12" t="s">
+      <c r="R38" s="97"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A39" s="96"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A39" s="123"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -5362,27 +5425,28 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="9">
+      <c r="H39" s="97"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="9">
         <v>-1</v>
       </c>
-      <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="86" t="s">
+      <c r="O39" s="6"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="12" t="s">
+      <c r="R39" s="97"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A40" s="108" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A40" s="121" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="30" t="s">
@@ -5403,33 +5467,34 @@
       <c r="G40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="H40" s="99"/>
       <c r="I40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="135"/>
-      <c r="K40" s="30"/>
+      <c r="J40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="99"/>
       <c r="L40" s="30"/>
-      <c r="M40" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="M40" s="30"/>
       <c r="N40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="O40" s="135"/>
-      <c r="P40" s="29" t="s">
+      <c r="O40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="Q40" s="135"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="7" t="s">
+      <c r="R40" s="99"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A41" s="108"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A41" s="121"/>
       <c r="B41" s="8" t="s">
         <v>19</v>
       </c>
@@ -5448,31 +5513,32 @@
       <c r="G41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="H41" s="99"/>
       <c r="I41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="135"/>
-      <c r="K41" s="8"/>
+      <c r="J41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="99"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="M41" s="8"/>
       <c r="N41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O41" s="135"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="7" t="s">
+      <c r="O41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A42" s="108"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A42" s="121"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -5491,31 +5557,32 @@
       <c r="G42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="H42" s="99"/>
       <c r="I42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="135"/>
-      <c r="K42" s="8"/>
+      <c r="J42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="99"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="M42" s="8"/>
       <c r="N42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="135"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="135"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="7" t="s">
+      <c r="O42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A43" s="108" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A43" s="121" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -5536,235 +5603,242 @@
       <c r="G43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="H43" s="99"/>
       <c r="I43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="135"/>
-      <c r="K43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="99"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O43" s="135"/>
-      <c r="P43" s="11" t="s">
+      <c r="O43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="Q43" s="135"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="7" t="s">
+      <c r="R43" s="99"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A44" s="108"/>
-      <c r="B44" s="103" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A44" s="121"/>
+      <c r="B44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="103" t="s">
+      <c r="D44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="103" t="s">
+      <c r="F44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="103" t="s">
+      <c r="G44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="103" t="s">
+      <c r="H44" s="99"/>
+      <c r="I44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="103" t="s">
+      <c r="J44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="135"/>
-      <c r="K44" s="8"/>
+      <c r="K44" s="99"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="103" t="s">
+      <c r="M44" s="8"/>
+      <c r="N44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="103" t="s">
+      <c r="O44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="O44" s="135"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="135"/>
-      <c r="R44" s="103"/>
-      <c r="S44" s="7" t="s">
+      <c r="P44" s="99"/>
+      <c r="Q44" s="112"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A45" s="108"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="8"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A45" s="121"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="99"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="135"/>
-      <c r="P45" s="126"/>
-      <c r="Q45" s="135"/>
-      <c r="R45" s="103"/>
-      <c r="S45" s="10" t="s">
+      <c r="M45" s="8"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A46" s="108"/>
-      <c r="B46" s="103" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A46" s="121"/>
+      <c r="B46" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="103" t="s">
+      <c r="C46" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="103" t="s">
+      <c r="D46" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="103" t="s">
+      <c r="E46" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="103" t="s">
+      <c r="F46" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="103" t="s">
+      <c r="G46" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="103" t="s">
+      <c r="H46" s="99"/>
+      <c r="I46" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="103" t="s">
+      <c r="J46" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="J46" s="135"/>
-      <c r="K46" s="8"/>
+      <c r="K46" s="99"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="103" t="s">
+      <c r="M46" s="8"/>
+      <c r="N46" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="N46" s="103" t="s">
+      <c r="O46" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="O46" s="135"/>
-      <c r="P46" s="125" t="s">
+      <c r="P46" s="99"/>
+      <c r="Q46" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="Q46" s="135"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="7" t="s">
+      <c r="R46" s="99"/>
+      <c r="S46" s="108"/>
+      <c r="T46" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A47" s="108"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="8"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A47" s="121"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="99"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="103"/>
-      <c r="N47" s="103"/>
-      <c r="O47" s="135"/>
-      <c r="P47" s="126"/>
-      <c r="Q47" s="135"/>
-      <c r="R47" s="103"/>
-      <c r="S47" s="10" t="s">
+      <c r="M47" s="8"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="113"/>
+      <c r="R47" s="99"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A48" s="108"/>
-      <c r="B48" s="103" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A48" s="121"/>
+      <c r="B48" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="103" t="s">
+      <c r="C48" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="103" t="s">
+      <c r="D48" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="103" t="s">
+      <c r="E48" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="103" t="s">
+      <c r="F48" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="103" t="s">
+      <c r="G48" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="103" t="s">
+      <c r="H48" s="99"/>
+      <c r="I48" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="I48" s="103" t="s">
+      <c r="J48" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="135"/>
-      <c r="K48" s="8"/>
+      <c r="K48" s="99"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="103" t="s">
+      <c r="M48" s="8"/>
+      <c r="N48" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="N48" s="103" t="s">
+      <c r="O48" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="O48" s="135"/>
-      <c r="P48" s="125" t="s">
+      <c r="P48" s="99"/>
+      <c r="Q48" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="Q48" s="135"/>
-      <c r="R48" s="103"/>
-      <c r="S48" s="7" t="s">
+      <c r="R48" s="99"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A49" s="108"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="135"/>
-      <c r="K49" s="8"/>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A49" s="121"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="99"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="135"/>
-      <c r="P49" s="126"/>
-      <c r="Q49" s="135"/>
-      <c r="R49" s="103"/>
-      <c r="S49" s="10" t="s">
+      <c r="M49" s="8"/>
+      <c r="N49" s="108"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="113"/>
+      <c r="R49" s="99"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A50" s="108" t="s">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A50" s="121" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="9"/>
@@ -5775,33 +5849,34 @@
       <c r="G50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="H50" s="99"/>
       <c r="I50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="135"/>
-      <c r="K50" s="9"/>
+      <c r="J50" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="99"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="M50" s="9"/>
       <c r="N50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="O50" s="135"/>
-      <c r="P50" s="127" t="s">
+      <c r="O50" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="Q50" s="135"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="7" t="s">
+      <c r="R50" s="99"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A51" s="108"/>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A51" s="121"/>
       <c r="B51" s="8" t="s">
         <v>36</v>
       </c>
@@ -5820,101 +5895,104 @@
       <c r="G51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="H51" s="99"/>
       <c r="I51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J51" s="135"/>
-      <c r="K51" s="8"/>
+      <c r="J51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="99"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="M51" s="8"/>
       <c r="N51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O51" s="135"/>
-      <c r="P51" s="128"/>
-      <c r="Q51" s="135"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="7" t="s">
+      <c r="O51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="115"/>
+      <c r="R51" s="99"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A52" s="108" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A52" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="104" t="s">
+      <c r="B52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="104" t="s">
+      <c r="C52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="104" t="s">
+      <c r="E52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="104" t="s">
+      <c r="F52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="104" t="s">
+      <c r="G52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="104" t="s">
+      <c r="H52" s="99"/>
+      <c r="I52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="104" t="s">
+      <c r="J52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="135"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="99"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="104" t="s">
+      <c r="M52" s="5"/>
+      <c r="N52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="104" t="s">
+      <c r="O52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="135"/>
-      <c r="P52" s="104" t="s">
+      <c r="P52" s="99"/>
+      <c r="Q52" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="Q52" s="135"/>
-      <c r="R52" s="104"/>
-      <c r="S52" s="7" t="s">
+      <c r="R52" s="99"/>
+      <c r="S52" s="107"/>
+      <c r="T52" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A53" s="108"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="135"/>
-      <c r="K53" s="5"/>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A53" s="121"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="99"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="104"/>
-      <c r="N53" s="104"/>
-      <c r="O53" s="135"/>
-      <c r="P53" s="104"/>
-      <c r="Q53" s="135"/>
-      <c r="R53" s="104"/>
-      <c r="S53" s="10" t="s">
+      <c r="M53" s="5"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="107"/>
+      <c r="P53" s="99"/>
+      <c r="Q53" s="107"/>
+      <c r="R53" s="99"/>
+      <c r="S53" s="107"/>
+      <c r="T53" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A54" s="108"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A54" s="121"/>
       <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
@@ -5931,170 +6009,175 @@
       <c r="G54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="H54" s="99"/>
       <c r="I54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="135"/>
-      <c r="K54" s="8"/>
+      <c r="J54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="99"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="M54" s="8"/>
       <c r="N54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O54" s="135"/>
-      <c r="P54" s="8" t="s">
+      <c r="O54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q54" s="135"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="7" t="s">
+      <c r="P54" s="99"/>
+      <c r="Q54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="99"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A55" s="108" t="s">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A55" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="104" t="s">
+      <c r="B55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="104" t="s">
+      <c r="D55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="104" t="s">
+      <c r="E55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="104" t="s">
+      <c r="F55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="104" t="s">
+      <c r="G55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="104" t="s">
+      <c r="H55" s="99"/>
+      <c r="I55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="I55" s="104" t="s">
+      <c r="J55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="J55" s="135"/>
-      <c r="K55" s="5"/>
+      <c r="K55" s="99"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="104" t="s">
+      <c r="M55" s="5"/>
+      <c r="N55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="N55" s="104" t="s">
+      <c r="O55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="O55" s="135"/>
-      <c r="P55" s="104" t="s">
+      <c r="P55" s="99"/>
+      <c r="Q55" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="Q55" s="135"/>
-      <c r="R55" s="104"/>
-      <c r="S55" s="7" t="s">
+      <c r="R55" s="99"/>
+      <c r="S55" s="107"/>
+      <c r="T55" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A56" s="108"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="5"/>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A56" s="121"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="99"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="135"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="135"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="10" t="s">
+      <c r="M56" s="5"/>
+      <c r="N56" s="107"/>
+      <c r="O56" s="107"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="107"/>
+      <c r="R56" s="99"/>
+      <c r="S56" s="107"/>
+      <c r="T56" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A57" s="108"/>
-      <c r="B57" s="103" t="s">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A57" s="121"/>
+      <c r="B57" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="103" t="s">
+      <c r="C57" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="103" t="s">
+      <c r="D57" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="103" t="s">
+      <c r="F57" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="103" t="s">
+      <c r="G57" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="H57" s="103" t="s">
+      <c r="H57" s="99"/>
+      <c r="I57" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="I57" s="103" t="s">
+      <c r="J57" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="135"/>
-      <c r="K57" s="8"/>
+      <c r="K57" s="99"/>
       <c r="L57" s="8"/>
-      <c r="M57" s="103" t="s">
+      <c r="M57" s="8"/>
+      <c r="N57" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="N57" s="103" t="s">
+      <c r="O57" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="O57" s="135"/>
-      <c r="P57" s="103" t="s">
+      <c r="P57" s="99"/>
+      <c r="Q57" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="Q57" s="135"/>
-      <c r="R57" s="103"/>
-      <c r="S57" s="7" t="s">
+      <c r="R57" s="99"/>
+      <c r="S57" s="108"/>
+      <c r="T57" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A58" s="108"/>
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="135"/>
-      <c r="K58" s="8"/>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A58" s="121"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="99"/>
       <c r="L58" s="8"/>
-      <c r="M58" s="103"/>
-      <c r="N58" s="103"/>
-      <c r="O58" s="135"/>
-      <c r="P58" s="103"/>
-      <c r="Q58" s="135"/>
-      <c r="R58" s="103"/>
-      <c r="S58" s="10" t="s">
+      <c r="M58" s="8"/>
+      <c r="N58" s="108"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="108"/>
+      <c r="R58" s="99"/>
+      <c r="S58" s="108"/>
+      <c r="T58" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>214</v>
       </c>
@@ -6114,22 +6197,23 @@
         <v>50</v>
       </c>
       <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="99"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="135"/>
-      <c r="K59" s="14"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="99"/>
       <c r="L59" s="14"/>
-      <c r="M59" s="9"/>
+      <c r="M59" s="14"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="135"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="135"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="7" t="s">
+      <c r="O59" s="9"/>
+      <c r="P59" s="99"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="99"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>49</v>
       </c>
@@ -6141,33 +6225,34 @@
       <c r="G60" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H60" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="H60" s="99"/>
       <c r="I60" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J60" s="135"/>
-      <c r="K60" s="9"/>
+      <c r="J60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" s="99"/>
       <c r="L60" s="9"/>
-      <c r="M60" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="M60" s="9"/>
       <c r="N60" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="135"/>
-      <c r="P60" s="29" t="s">
+      <c r="O60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P60" s="99"/>
+      <c r="Q60" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="Q60" s="135"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="7" t="s">
+      <c r="R60" s="99"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A61" s="109" t="s">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A61" s="137" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="9"/>
@@ -6178,77 +6263,80 @@
       <c r="G61" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="116" t="s">
-        <v>26</v>
-      </c>
+      <c r="H61" s="99"/>
       <c r="I61" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="J61" s="135"/>
-      <c r="K61" s="9"/>
+      <c r="J61" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" s="99"/>
       <c r="L61" s="9"/>
-      <c r="M61" s="116" t="s">
-        <v>26</v>
-      </c>
+      <c r="M61" s="9"/>
       <c r="N61" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="O61" s="135"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="135"/>
-      <c r="R61" s="116"/>
-      <c r="S61" s="7" t="s">
+      <c r="O61" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="P61" s="99"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="99"/>
+      <c r="S61" s="116"/>
+      <c r="T61" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A62" s="113"/>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A62" s="141"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
+      <c r="H62" s="99"/>
       <c r="I62" s="116"/>
-      <c r="J62" s="135"/>
-      <c r="K62" s="9"/>
+      <c r="J62" s="116"/>
+      <c r="K62" s="99"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="116"/>
+      <c r="M62" s="9"/>
       <c r="N62" s="116"/>
-      <c r="O62" s="135"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="135"/>
-      <c r="R62" s="116"/>
-      <c r="S62" s="10" t="s">
+      <c r="O62" s="116"/>
+      <c r="P62" s="99"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="99"/>
+      <c r="S62" s="116"/>
+      <c r="T62" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A63" s="113"/>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A63" s="141"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
+      <c r="H63" s="99"/>
       <c r="I63" s="116"/>
-      <c r="J63" s="135"/>
-      <c r="K63" s="9"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="99"/>
       <c r="L63" s="9"/>
-      <c r="M63" s="116"/>
+      <c r="M63" s="9"/>
       <c r="N63" s="116"/>
-      <c r="O63" s="135"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="135"/>
-      <c r="R63" s="116"/>
-      <c r="S63" s="15" t="s">
+      <c r="O63" s="116"/>
+      <c r="P63" s="99"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="99"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A64" s="113"/>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A64" s="141"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -6257,77 +6345,80 @@
       <c r="G64" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="116" t="s">
-        <v>31</v>
-      </c>
+      <c r="H64" s="99"/>
       <c r="I64" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="J64" s="135"/>
-      <c r="K64" s="9"/>
+      <c r="J64" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="99"/>
       <c r="L64" s="9"/>
-      <c r="M64" s="116" t="s">
-        <v>31</v>
-      </c>
+      <c r="M64" s="9"/>
       <c r="N64" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="O64" s="135"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="135"/>
-      <c r="R64" s="116"/>
-      <c r="S64" s="7" t="s">
+      <c r="O64" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="99"/>
+      <c r="S64" s="116"/>
+      <c r="T64" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A65" s="113"/>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A65" s="141"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
+      <c r="H65" s="99"/>
       <c r="I65" s="116"/>
-      <c r="J65" s="135"/>
-      <c r="K65" s="9"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="99"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="116"/>
+      <c r="M65" s="9"/>
       <c r="N65" s="116"/>
-      <c r="O65" s="135"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="135"/>
-      <c r="R65" s="116"/>
-      <c r="S65" s="10" t="s">
+      <c r="O65" s="116"/>
+      <c r="P65" s="99"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="99"/>
+      <c r="S65" s="116"/>
+      <c r="T65" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A66" s="113"/>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A66" s="141"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
+      <c r="H66" s="99"/>
       <c r="I66" s="116"/>
-      <c r="J66" s="135"/>
-      <c r="K66" s="9"/>
+      <c r="J66" s="116"/>
+      <c r="K66" s="99"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="116"/>
+      <c r="M66" s="9"/>
       <c r="N66" s="116"/>
-      <c r="O66" s="135"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="135"/>
-      <c r="R66" s="116"/>
-      <c r="S66" s="15" t="s">
+      <c r="O66" s="116"/>
+      <c r="P66" s="99"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="99"/>
+      <c r="S66" s="116"/>
+      <c r="T66" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A67" s="113"/>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A67" s="141"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -6336,133 +6427,138 @@
       <c r="G67" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="116" t="s">
-        <v>29</v>
-      </c>
+      <c r="H67" s="99"/>
       <c r="I67" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="J67" s="135"/>
-      <c r="K67" s="9"/>
+      <c r="J67" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="99"/>
       <c r="L67" s="9"/>
-      <c r="M67" s="116" t="s">
-        <v>29</v>
-      </c>
+      <c r="M67" s="9"/>
       <c r="N67" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="O67" s="135"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="135"/>
-      <c r="R67" s="116"/>
-      <c r="S67" s="7" t="s">
+      <c r="O67" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="99"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="99"/>
+      <c r="S67" s="116"/>
+      <c r="T67" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A68" s="113"/>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A68" s="141"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
+      <c r="H68" s="99"/>
       <c r="I68" s="116"/>
-      <c r="J68" s="135"/>
-      <c r="K68" s="9"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="99"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="116"/>
+      <c r="M68" s="9"/>
       <c r="N68" s="116"/>
-      <c r="O68" s="135"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="135"/>
-      <c r="R68" s="116"/>
-      <c r="S68" s="10" t="s">
+      <c r="O68" s="116"/>
+      <c r="P68" s="99"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="99"/>
+      <c r="S68" s="116"/>
+      <c r="T68" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A69" s="113"/>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A69" s="141"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="116"/>
+      <c r="H69" s="99"/>
       <c r="I69" s="116"/>
-      <c r="J69" s="135"/>
-      <c r="K69" s="9"/>
+      <c r="J69" s="116"/>
+      <c r="K69" s="99"/>
       <c r="L69" s="9"/>
-      <c r="M69" s="116"/>
+      <c r="M69" s="9"/>
       <c r="N69" s="116"/>
-      <c r="O69" s="135"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="135"/>
-      <c r="R69" s="116"/>
-      <c r="S69" s="15" t="s">
+      <c r="O69" s="116"/>
+      <c r="P69" s="99"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="99"/>
+      <c r="S69" s="116"/>
+      <c r="T69" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A70" s="113"/>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A70" s="141"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="114" t="s">
+      <c r="G70" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="H70" s="114" t="s">
+      <c r="H70" s="102"/>
+      <c r="I70" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="I70" s="117" t="s">
+      <c r="J70" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="J70" s="138"/>
-      <c r="K70" s="9"/>
+      <c r="K70" s="102"/>
       <c r="L70" s="9"/>
-      <c r="M70" s="117" t="s">
-        <v>59</v>
-      </c>
+      <c r="M70" s="9"/>
       <c r="N70" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="O70" s="138"/>
-      <c r="P70" s="65"/>
-      <c r="Q70" s="138"/>
-      <c r="R70" s="117"/>
-      <c r="S70" s="7" t="s">
+      <c r="O70" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" s="102"/>
+      <c r="Q70" s="65"/>
+      <c r="R70" s="102"/>
+      <c r="S70" s="117"/>
+      <c r="T70" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="113"/>
+    <row r="71" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="141"/>
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
       <c r="D71" s="49"/>
       <c r="E71" s="49"/>
       <c r="F71" s="49"/>
-      <c r="G71" s="115"/>
-      <c r="H71" s="115"/>
-      <c r="I71" s="118"/>
-      <c r="J71" s="138"/>
-      <c r="K71" s="49"/>
+      <c r="G71" s="128"/>
+      <c r="H71" s="102"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="118"/>
+      <c r="K71" s="102"/>
       <c r="L71" s="49"/>
-      <c r="M71" s="118"/>
+      <c r="M71" s="49"/>
       <c r="N71" s="118"/>
-      <c r="O71" s="138"/>
-      <c r="P71" s="66"/>
-      <c r="Q71" s="138"/>
-      <c r="R71" s="118"/>
-      <c r="S71" s="56" t="s">
+      <c r="O71" s="118"/>
+      <c r="P71" s="102"/>
+      <c r="Q71" s="66"/>
+      <c r="R71" s="102"/>
+      <c r="S71" s="118"/>
+      <c r="T71" s="56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="110" t="s">
+    <row r="72" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="138" t="s">
         <v>64</v>
       </c>
       <c r="B72" s="43" t="s">
@@ -6483,27 +6579,28 @@
       <c r="G72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="H72" s="43" t="s">
+      <c r="H72" s="99"/>
+      <c r="I72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="135"/>
-      <c r="K72" s="43"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="99"/>
       <c r="L72" s="43"/>
-      <c r="M72" s="9"/>
+      <c r="M72" s="43"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="135"/>
-      <c r="P72" s="88" t="s">
+      <c r="O72" s="9"/>
+      <c r="P72" s="99"/>
+      <c r="Q72" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="135"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="59" t="s">
+      <c r="R72" s="99"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="111"/>
+    <row r="73" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="139"/>
       <c r="B73" s="62" t="s">
         <v>62</v>
       </c>
@@ -6522,33 +6619,38 @@
       <c r="G73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H73" s="70" t="s">
-        <v>61</v>
-      </c>
+      <c r="H73" s="97"/>
       <c r="I73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J73" s="133"/>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="70" t="s">
+      <c r="J73" s="70" t="s">
         <v>61</v>
+      </c>
+      <c r="K73" s="97"/>
+      <c r="L73" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="M73" s="64" t="s">
+        <v>59</v>
       </c>
       <c r="N73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="O73" s="133"/>
-      <c r="P73" s="87" t="s">
+      <c r="O73" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" s="97"/>
+      <c r="Q73" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="Q73" s="133"/>
-      <c r="R73" s="70"/>
-      <c r="S73" s="60" t="s">
+      <c r="R73" s="97"/>
+      <c r="S73" s="70"/>
+      <c r="T73" s="60" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="111"/>
+    <row r="74" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="139"/>
       <c r="B74" s="67" t="s">
         <v>60</v>
       </c>
@@ -6565,31 +6667,36 @@
         <v>60</v>
       </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="31" t="s">
+      <c r="H74" s="97"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="J74" s="133"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="31" t="s">
-        <v>193</v>
+      <c r="K74" s="97"/>
+      <c r="L74" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="M74" s="68" t="s">
+        <v>60</v>
       </c>
       <c r="N74" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="O74" s="133"/>
-      <c r="P74" s="87" t="s">
+      <c r="O74" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="P74" s="97"/>
+      <c r="Q74" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="Q74" s="133"/>
-      <c r="R74" s="31"/>
-      <c r="S74" s="60" t="s">
+      <c r="R74" s="97"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="60" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="112"/>
+    <row r="75" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="140"/>
       <c r="B75" s="47" t="s">
         <v>176</v>
       </c>
@@ -6608,25 +6715,26 @@
       <c r="G75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="H75" s="47" t="s">
+      <c r="H75" s="99"/>
+      <c r="I75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="I75" s="9"/>
-      <c r="J75" s="135"/>
-      <c r="K75" s="47"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="99"/>
       <c r="L75" s="47"/>
-      <c r="M75" s="9"/>
+      <c r="M75" s="47"/>
       <c r="N75" s="9"/>
-      <c r="O75" s="135"/>
-      <c r="P75" s="87" t="s">
+      <c r="O75" s="9"/>
+      <c r="P75" s="99"/>
+      <c r="Q75" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="Q75" s="135"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="61"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A76" s="107" t="s">
+      <c r="R75" s="99"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="61"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A76" s="136" t="s">
         <v>63</v>
       </c>
       <c r="B76" s="64" t="s">
@@ -6645,21 +6753,22 @@
         <v>59</v>
       </c>
       <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="133"/>
-      <c r="K76" s="129"/>
-      <c r="L76" s="129"/>
-      <c r="M76" s="52"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="97"/>
+      <c r="L76" s="94"/>
+      <c r="M76" s="94"/>
       <c r="N76" s="52"/>
-      <c r="O76" s="133"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="133"/>
-      <c r="R76" s="52"/>
-      <c r="S76" s="58"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A77" s="108"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="97"/>
+      <c r="Q76" s="52"/>
+      <c r="R76" s="97"/>
+      <c r="S76" s="52"/>
+      <c r="T76" s="58"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A77" s="121"/>
       <c r="B77" s="67" t="s">
         <v>60</v>
       </c>
@@ -6676,23 +6785,24 @@
         <v>60</v>
       </c>
       <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="133"/>
-      <c r="K77" s="68"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="97"/>
       <c r="L77" s="68"/>
-      <c r="M77" s="12"/>
+      <c r="M77" s="68"/>
       <c r="N77" s="12"/>
-      <c r="O77" s="133"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="133"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12" t="s">
+      <c r="O77" s="12"/>
+      <c r="P77" s="97"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="97"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="109"/>
+    <row r="78" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="137"/>
       <c r="B78" s="69" t="s">
         <v>61</v>
       </c>
@@ -6709,23 +6819,24 @@
         <v>61</v>
       </c>
       <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="133"/>
-      <c r="K78" s="69"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="97"/>
       <c r="L78" s="69"/>
-      <c r="M78" s="40"/>
+      <c r="M78" s="69"/>
       <c r="N78" s="40"/>
-      <c r="O78" s="133"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="133"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40" t="s">
+      <c r="O78" s="40"/>
+      <c r="P78" s="97"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="97"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="97" t="s">
+    <row r="79" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="130" t="s">
         <v>177</v>
       </c>
       <c r="B79" s="53"/>
@@ -6738,23 +6849,24 @@
         <v>180</v>
       </c>
       <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="133"/>
-      <c r="K79" s="54"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="97"/>
       <c r="L79" s="54"/>
       <c r="M79" s="54"/>
       <c r="N79" s="54"/>
-      <c r="O79" s="133"/>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="133"/>
-      <c r="R79" s="54"/>
-      <c r="S79" s="44" t="s">
+      <c r="O79" s="54"/>
+      <c r="P79" s="97"/>
+      <c r="Q79" s="54"/>
+      <c r="R79" s="97"/>
+      <c r="S79" s="54"/>
+      <c r="T79" s="44" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="98"/>
+    <row r="80" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="131"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -6765,23 +6877,24 @@
         <v>178</v>
       </c>
       <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="133"/>
-      <c r="K80" s="12"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="97"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
-      <c r="O80" s="133"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="133"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="44" t="s">
+      <c r="O80" s="12"/>
+      <c r="P80" s="97"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="97"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="44" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A81" s="98"/>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A81" s="131"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -6792,23 +6905,24 @@
         <v>179</v>
       </c>
       <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="133"/>
-      <c r="K81" s="12"/>
+      <c r="H81" s="97"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="97"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
-      <c r="O81" s="133"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="133"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="44" t="s">
+      <c r="O81" s="12"/>
+      <c r="P81" s="97"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="97"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="44" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="99"/>
+    <row r="82" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="132"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
       <c r="D82" s="55"/>
@@ -6819,23 +6933,24 @@
         <v>176</v>
       </c>
       <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="133"/>
-      <c r="K82" s="46"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="97"/>
       <c r="L82" s="46"/>
       <c r="M82" s="46"/>
       <c r="N82" s="46"/>
-      <c r="O82" s="133"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="133"/>
-      <c r="R82" s="46"/>
-      <c r="S82" s="48" t="s">
+      <c r="O82" s="46"/>
+      <c r="P82" s="97"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="97"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A83" s="100" t="s">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A83" s="133" t="s">
         <v>182</v>
       </c>
       <c r="B83" s="50" t="s">
@@ -6856,33 +6971,34 @@
       <c r="G83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="H83" s="51" t="s">
-        <v>183</v>
-      </c>
+      <c r="H83" s="103"/>
       <c r="I83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="J83" s="139"/>
-      <c r="K83" s="50"/>
+      <c r="J83" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="K83" s="103"/>
       <c r="L83" s="50"/>
-      <c r="M83" s="51" t="s">
-        <v>183</v>
-      </c>
+      <c r="M83" s="50"/>
       <c r="N83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="O83" s="139"/>
-      <c r="P83" s="51" t="s">
+      <c r="O83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="Q83" s="139"/>
-      <c r="R83" s="51"/>
-      <c r="S83" s="52" t="s">
+      <c r="P83" s="103"/>
+      <c r="Q83" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="R83" s="103"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="52" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A84" s="101"/>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A84" s="134"/>
       <c r="B84" s="12" t="s">
         <v>184</v>
       </c>
@@ -6901,31 +7017,32 @@
       <c r="G84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="H84" s="32" t="s">
-        <v>176</v>
-      </c>
+      <c r="H84" s="103"/>
       <c r="I84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="J84" s="139"/>
-      <c r="K84" s="12"/>
+      <c r="J84" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="K84" s="103"/>
       <c r="L84" s="12"/>
-      <c r="M84" s="32" t="s">
-        <v>176</v>
-      </c>
+      <c r="M84" s="12"/>
       <c r="N84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="O84" s="139"/>
-      <c r="P84" s="32" t="s">
+      <c r="O84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="Q84" s="139"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="12"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A85" s="101"/>
+      <c r="P84" s="103"/>
+      <c r="Q84" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="R84" s="103"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="12"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A85" s="134"/>
       <c r="B85" s="12" t="s">
         <v>185</v>
       </c>
@@ -6944,31 +7061,32 @@
       <c r="G85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="H85" s="31" t="s">
-        <v>184</v>
-      </c>
+      <c r="H85" s="97"/>
       <c r="I85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="J85" s="133"/>
-      <c r="K85" s="12"/>
+      <c r="J85" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K85" s="97"/>
       <c r="L85" s="12"/>
-      <c r="M85" s="31" t="s">
-        <v>184</v>
-      </c>
+      <c r="M85" s="12"/>
       <c r="N85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="O85" s="133"/>
-      <c r="P85" s="31" t="s">
+      <c r="O85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="Q85" s="133"/>
-      <c r="R85" s="31"/>
-      <c r="S85" s="12"/>
-    </row>
-    <row r="86" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="102"/>
+      <c r="P85" s="97"/>
+      <c r="Q85" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="R85" s="97"/>
+      <c r="S85" s="31"/>
+      <c r="T85" s="12"/>
+    </row>
+    <row r="86" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="135"/>
       <c r="B86" s="38" t="s">
         <v>176</v>
       </c>
@@ -6987,31 +7105,32 @@
       <c r="G86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="H86" s="39" t="s">
-        <v>185</v>
-      </c>
+      <c r="H86" s="97"/>
       <c r="I86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="J86" s="133"/>
-      <c r="K86" s="38"/>
+      <c r="J86" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="K86" s="97"/>
       <c r="L86" s="38"/>
-      <c r="M86" s="39" t="s">
-        <v>185</v>
-      </c>
+      <c r="M86" s="38"/>
       <c r="N86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="O86" s="133"/>
-      <c r="P86" s="39" t="s">
+      <c r="O86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="Q86" s="133"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="40"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A87" s="119" t="s">
+      <c r="P86" s="97"/>
+      <c r="Q86" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="R86" s="97"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="40"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A87" s="124" t="s">
         <v>74</v>
       </c>
       <c r="B87" s="41"/>
@@ -7020,235 +7139,127 @@
       <c r="E87" s="41"/>
       <c r="F87" s="41"/>
       <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="43" t="s">
+      <c r="H87" s="104"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="J87" s="140"/>
-      <c r="K87" s="41"/>
+      <c r="K87" s="104"/>
       <c r="L87" s="41"/>
-      <c r="M87" s="43" t="s">
-        <v>175</v>
-      </c>
+      <c r="M87" s="41"/>
       <c r="N87" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="O87" s="140"/>
-      <c r="P87" s="89" t="s">
+      <c r="O87" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="Q87" s="140"/>
-      <c r="R87" s="43"/>
-      <c r="S87" s="44"/>
-    </row>
-    <row r="88" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="120"/>
+      <c r="P87" s="104"/>
+      <c r="Q87" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="R87" s="104"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="44"/>
+    </row>
+    <row r="88" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="125"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37"/>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="29" t="s">
+      <c r="H88" s="99"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="J88" s="135"/>
-      <c r="K88" s="37"/>
+      <c r="K88" s="99"/>
       <c r="L88" s="37"/>
-      <c r="M88" s="29" t="s">
-        <v>70</v>
-      </c>
+      <c r="M88" s="37"/>
       <c r="N88" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="O88" s="135"/>
-      <c r="P88" s="90" t="s">
+      <c r="O88" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P88" s="99"/>
+      <c r="Q88" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="Q88" s="135"/>
-      <c r="R88" s="29"/>
-      <c r="S88" s="45" t="s">
+      <c r="R88" s="99"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="45" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="120"/>
+    <row r="89" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="125"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
       <c r="E89" s="37"/>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="29" t="s">
+      <c r="H89" s="99"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J89" s="135"/>
-      <c r="K89" s="37"/>
+      <c r="K89" s="99"/>
       <c r="L89" s="37"/>
-      <c r="M89" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="M89" s="37"/>
       <c r="N89" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O89" s="135"/>
-      <c r="P89" s="91" t="s">
+      <c r="O89" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="P89" s="99"/>
+      <c r="Q89" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="Q89" s="135"/>
-      <c r="R89" s="29"/>
-      <c r="S89" s="45" t="s">
+      <c r="R89" s="99"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="45" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="121"/>
+    <row r="90" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="126"/>
       <c r="B90" s="46"/>
       <c r="C90" s="46"/>
       <c r="D90" s="46"/>
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="47" t="s">
+      <c r="H90" s="104"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="J90" s="140"/>
-      <c r="K90" s="46"/>
+      <c r="K90" s="104"/>
       <c r="L90" s="46"/>
-      <c r="M90" s="47" t="s">
-        <v>176</v>
-      </c>
+      <c r="M90" s="46"/>
       <c r="N90" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="O90" s="140"/>
-      <c r="P90" s="92" t="s">
+      <c r="O90" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="P90" s="104"/>
+      <c r="Q90" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="140"/>
-      <c r="R90" s="47"/>
-      <c r="S90" s="48"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="R94" s="28"/>
+      <c r="R90" s="104"/>
+      <c r="S90" s="47"/>
+      <c r="T90" s="48"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S94" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="R17:R26"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="N67:N69"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="R64:R66"/>
-    <mergeCell ref="R67:R69"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="N61:N63"/>
-    <mergeCell ref="N64:N66"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A26"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M61:M63"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A83:A86"/>
@@ -7273,6 +7284,118 @@
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A61:A71"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N61:N63"/>
+    <mergeCell ref="N64:N66"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A26"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S61:S63"/>
+    <mergeCell ref="S64:S66"/>
+    <mergeCell ref="S67:S69"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="O64:O66"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="S17:S26"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D34:D35"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8069,21 +8192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100431B1C8C9D9DBE4AA0E80FF5D0349E59" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f7ed8c6386409f34b595d96d3c2cb336">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8eebbbb-06cf-461a-bdd4-fdce0afb9207" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b92ee3a140b325dd50340e431628f3" ns3:_="">
     <xsd:import namespace="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
@@ -8233,31 +8341,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFFF1BA6-01AE-4C7B-81CA-4E0B23197A87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B34AA1-4D99-4870-B3C7-12AFF67D4A6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8273,4 +8372,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFFF1BA6-01AE-4C7B-81CA-4E0B23197A87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2432S028.xlsx
+++ b/2432S028.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunikata\Desktop\xptouch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5BE45-0ACE-4901-8CCD-E06E59BC7E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4856222C-A312-42DA-99C5-D0BC3A246AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="300">
   <si>
     <t>Onboard Equipment</t>
   </si>
@@ -2291,6 +2291,62 @@
     <rPh sb="4" eb="5">
       <t>シキ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CrowPanel3.5</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IO2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ILI9488</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CrowPanel2.8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CrowPanel 4.3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CrowPanel 5.0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CLK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MOSI</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MISO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IICTouch</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CrowPanel 7.0</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2929,7 +2985,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3251,10 +3307,94 @@
     <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3266,95 +3406,26 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3691,29 +3762,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BC7DEC-5679-4A0D-9125-1D99B7399C91}">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="7" width="20.625" customWidth="1"/>
     <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="10" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="15" width="20.625" customWidth="1"/>
-    <col min="16" max="16" width="4.75" customWidth="1"/>
-    <col min="17" max="17" width="20.625" customWidth="1"/>
-    <col min="18" max="18" width="4.75" customWidth="1"/>
-    <col min="19" max="19" width="20.625" customWidth="1"/>
-    <col min="20" max="20" width="73.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="15" width="20.625" customWidth="1"/>
+    <col min="16" max="16" width="6.5" customWidth="1"/>
+    <col min="17" max="18" width="20.625" customWidth="1"/>
+    <col min="19" max="19" width="4.75" customWidth="1"/>
+    <col min="20" max="20" width="19.25" customWidth="1"/>
+    <col min="21" max="21" width="20.625" customWidth="1"/>
+    <col min="22" max="22" width="4.75" customWidth="1"/>
+    <col min="23" max="23" width="20.625" customWidth="1"/>
+    <col min="24" max="24" width="4.75" customWidth="1"/>
+    <col min="25" max="25" width="20.625" customWidth="1"/>
+    <col min="26" max="26" width="73.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3726,48 +3809,58 @@
       <c r="D1" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="H1" s="96"/>
       <c r="I1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="K1" s="96"/>
       <c r="L1" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="96"/>
+      <c r="N1" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>281</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="P1" s="96"/>
       <c r="Q1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="96"/>
+      <c r="T1" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="V1" s="96"/>
+      <c r="W1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="13" t="s">
+      <c r="X1" s="96"/>
+      <c r="Y1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>191</v>
       </c>
@@ -3780,9 +3873,7 @@
       <c r="D2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>106</v>
-      </c>
+      <c r="E2" s="78"/>
       <c r="F2" s="35" t="s">
         <v>106</v>
       </c>
@@ -3790,8 +3881,8 @@
         <v>106</v>
       </c>
       <c r="H2" s="78"/>
-      <c r="I2" s="34" t="s">
-        <v>107</v>
+      <c r="I2" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="J2" s="34" t="s">
         <v>107</v>
@@ -3800,9 +3891,7 @@
       <c r="L2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="34" t="s">
-        <v>107</v>
-      </c>
+      <c r="M2" s="78"/>
       <c r="N2" s="34" t="s">
         <v>107</v>
       </c>
@@ -3813,13 +3902,27 @@
       <c r="Q2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="78"/>
+      <c r="T2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="V2" s="78"/>
+      <c r="W2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="T2" s="16"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Z2" s="16"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="33"/>
       <c r="B3" s="35" t="s">
         <v>221</v>
@@ -3830,9 +3933,7 @@
       <c r="D3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>221</v>
-      </c>
+      <c r="E3" s="78"/>
       <c r="F3" s="35" t="s">
         <v>221</v>
       </c>
@@ -3847,25 +3948,37 @@
         <v>221</v>
       </c>
       <c r="K3" s="78"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="L3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="77" t="s">
+      <c r="R3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="S3" s="78"/>
+      <c r="T3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="V3" s="78"/>
+      <c r="W3" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="R3" s="78"/>
-      <c r="S3" s="77" t="s">
+      <c r="X3" s="78"/>
+      <c r="Y3" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="T3" s="16"/>
-    </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.4">
+      <c r="Z3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
         <v>210</v>
       </c>
@@ -3878,9 +3991,7 @@
       <c r="D4" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>106</v>
-      </c>
+      <c r="E4" s="78"/>
       <c r="F4" s="35" t="s">
         <v>106</v>
       </c>
@@ -3888,19 +3999,17 @@
         <v>106</v>
       </c>
       <c r="H4" s="78"/>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>107</v>
-      </c>
+      <c r="M4" s="78"/>
       <c r="N4" s="34" t="s">
         <v>107</v>
       </c>
@@ -3911,13 +4020,27 @@
       <c r="Q4" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="R4" s="78"/>
-      <c r="S4" s="35" t="s">
+      <c r="R4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="78"/>
+      <c r="T4" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" s="78"/>
+      <c r="W4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Z4" s="16"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="33" t="s">
         <v>283</v>
       </c>
@@ -3930,11 +4053,9 @@
       <c r="D5" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="78"/>
+      <c r="F5" s="106" t="s">
         <v>285</v>
-      </c>
-      <c r="F5" s="105" t="s">
-        <v>284</v>
       </c>
       <c r="G5" s="105" t="s">
         <v>284</v>
@@ -3947,19 +4068,31 @@
         <v>284</v>
       </c>
       <c r="K5" s="78"/>
-      <c r="L5" s="106" t="s">
+      <c r="L5" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="M5" s="78"/>
+      <c r="N5" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
       <c r="O5" s="34"/>
       <c r="P5" s="78"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="16"/>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.4">
+      <c r="R5" s="34"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="U5" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="V5" s="78"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="16"/>
+    </row>
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
         <v>217</v>
       </c>
@@ -3968,9 +4101,7 @@
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
-      <c r="G6" s="77" t="s">
-        <v>218</v>
-      </c>
+      <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="77" t="s">
         <v>218</v>
@@ -3979,21 +4110,29 @@
         <v>218</v>
       </c>
       <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
+      <c r="L6" s="77" t="s">
+        <v>218</v>
+      </c>
       <c r="M6" s="78"/>
-      <c r="N6" s="77" t="s">
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="O6" s="77" t="s">
+      <c r="R6" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
       <c r="S6" s="78"/>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="16"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>103</v>
       </c>
@@ -4006,9 +4145,7 @@
       <c r="D7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="E7" s="97"/>
       <c r="F7" s="12" t="s">
         <v>104</v>
       </c>
@@ -4023,8 +4160,10 @@
         <v>104</v>
       </c>
       <c r="K7" s="97"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="97"/>
       <c r="N7" s="12" t="s">
         <v>104</v>
       </c>
@@ -4032,14 +4171,24 @@
         <v>104</v>
       </c>
       <c r="P7" s="97"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="R7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>105</v>
       </c>
@@ -4052,9 +4201,7 @@
       <c r="D8" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>106</v>
-      </c>
+      <c r="E8" s="97"/>
       <c r="F8" s="40" t="s">
         <v>106</v>
       </c>
@@ -4069,23 +4216,35 @@
         <v>106</v>
       </c>
       <c r="K8" s="97"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="L8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="97"/>
       <c r="N8" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="R8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="T8" s="40"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Z8" s="40"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="73" t="s">
         <v>112</v>
       </c>
@@ -4094,30 +4253,44 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="97"/>
+      <c r="F9" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="G9" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="H9" s="97"/>
+      <c r="I9" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="J9" s="21" t="s">
+        <v>110</v>
+      </c>
       <c r="K9" s="97"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="74" t="s">
+        <v>110</v>
+      </c>
       <c r="P9" s="97"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Q9" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="73" t="s">
         <v>113</v>
       </c>
@@ -4126,30 +4299,44 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="97"/>
+      <c r="F10" s="74" t="s">
         <v>108</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>110</v>
       </c>
       <c r="G10" s="74" t="s">
         <v>110</v>
       </c>
       <c r="H10" s="97"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="K10" s="97"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="74" t="s">
+        <v>110</v>
+      </c>
       <c r="P10" s="97"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Q10" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>203</v>
       </c>
@@ -4162,9 +4349,7 @@
       <c r="D11" s="12">
         <v>2.8</v>
       </c>
-      <c r="E11" s="12">
-        <v>2.8</v>
-      </c>
+      <c r="E11" s="97"/>
       <c r="F11" s="12">
         <v>2.8</v>
       </c>
@@ -4175,34 +4360,46 @@
       <c r="I11" s="12">
         <v>2.8</v>
       </c>
-      <c r="J11" s="75">
+      <c r="J11" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="K11" s="97"/>
+      <c r="L11" s="75">
         <v>3.2</v>
       </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="M11" s="12">
-        <v>3.5</v>
-      </c>
+      <c r="M11" s="97"/>
       <c r="N11" s="75">
         <v>3.5</v>
       </c>
       <c r="O11" s="75">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P11" s="97"/>
       <c r="Q11" s="75">
+        <v>3.5</v>
+      </c>
+      <c r="R11" s="75">
+        <v>4</v>
+      </c>
+      <c r="S11" s="97"/>
+      <c r="T11" s="12">
         <v>2.8</v>
       </c>
-      <c r="R11" s="97"/>
-      <c r="S11" s="75">
+      <c r="U11" s="75">
+        <v>3.5</v>
+      </c>
+      <c r="V11" s="97"/>
+      <c r="W11" s="75">
+        <v>2.8</v>
+      </c>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="75">
         <v>5</v>
       </c>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A12" s="121" t="s">
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" s="119" t="s">
         <v>196</v>
       </c>
       <c r="B12" s="12">
@@ -4214,9 +4411,7 @@
       <c r="D12" s="12">
         <v>320</v>
       </c>
-      <c r="E12" s="12">
-        <v>320</v>
-      </c>
+      <c r="E12" s="97"/>
       <c r="F12" s="12">
         <v>320</v>
       </c>
@@ -4232,11 +4427,9 @@
       </c>
       <c r="K12" s="97"/>
       <c r="L12" s="12">
-        <v>480</v>
-      </c>
-      <c r="M12" s="12">
-        <v>480</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M12" s="97"/>
       <c r="N12" s="20">
         <v>480</v>
       </c>
@@ -4244,15 +4437,29 @@
         <v>480</v>
       </c>
       <c r="P12" s="97"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="20">
+      <c r="Q12" s="20">
+        <v>480</v>
+      </c>
+      <c r="R12" s="20">
+        <v>480</v>
+      </c>
+      <c r="S12" s="97"/>
+      <c r="T12" s="12">
+        <v>320</v>
+      </c>
+      <c r="U12" s="20">
+        <v>480</v>
+      </c>
+      <c r="V12" s="97"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="20">
         <v>800</v>
       </c>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A13" s="121"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13" s="119"/>
       <c r="B13" s="12">
         <v>240</v>
       </c>
@@ -4262,9 +4469,7 @@
       <c r="D13" s="12">
         <v>240</v>
       </c>
-      <c r="E13" s="12">
-        <v>240</v>
-      </c>
+      <c r="E13" s="97"/>
       <c r="F13" s="12">
         <v>240</v>
       </c>
@@ -4280,11 +4485,9 @@
       </c>
       <c r="K13" s="97"/>
       <c r="L13" s="12">
-        <v>320</v>
-      </c>
-      <c r="M13" s="12">
-        <v>320</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M13" s="97"/>
       <c r="N13" s="20">
         <v>320</v>
       </c>
@@ -4292,15 +4495,29 @@
         <v>320</v>
       </c>
       <c r="P13" s="97"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="20">
+      <c r="Q13" s="20">
+        <v>320</v>
+      </c>
+      <c r="R13" s="20">
+        <v>320</v>
+      </c>
+      <c r="S13" s="97"/>
+      <c r="T13" s="12">
+        <v>240</v>
+      </c>
+      <c r="U13" s="20">
+        <v>320</v>
+      </c>
+      <c r="V13" s="97"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="20">
         <v>480</v>
       </c>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="122" t="s">
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="108" t="s">
         <v>195</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -4312,9 +4529,7 @@
       <c r="D14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="E14" s="96"/>
       <c r="F14" s="13" t="s">
         <v>80</v>
       </c>
@@ -4329,8 +4544,10 @@
         <v>80</v>
       </c>
       <c r="K14" s="96"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="96"/>
       <c r="N14" s="13" t="s">
         <v>80</v>
       </c>
@@ -4341,16 +4558,30 @@
       <c r="Q14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="R14" s="96"/>
-      <c r="S14" s="13" t="s">
+      <c r="R14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="S14" s="96"/>
+      <c r="T14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V14" s="96"/>
+      <c r="W14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z14" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="122"/>
+    <row r="15" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="108"/>
       <c r="B15" s="80" t="s">
         <v>199</v>
       </c>
@@ -4360,9 +4591,7 @@
       <c r="D15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="81" t="s">
-        <v>201</v>
-      </c>
+      <c r="E15" s="98"/>
       <c r="F15" s="81" t="s">
         <v>201</v>
       </c>
@@ -4370,37 +4599,49 @@
         <v>201</v>
       </c>
       <c r="H15" s="98"/>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="J15" s="81" t="s">
+      <c r="K15" s="98"/>
+      <c r="L15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="M15" s="82" t="s">
-        <v>202</v>
-      </c>
+      <c r="M15" s="98"/>
       <c r="N15" s="82" t="s">
         <v>202</v>
       </c>
       <c r="O15" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="R15" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="80" t="s">
+      <c r="S15" s="98"/>
+      <c r="T15" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="R15" s="98"/>
-      <c r="S15" s="82" t="s">
+      <c r="U15" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="V15" s="98"/>
+      <c r="W15" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="122"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="108"/>
       <c r="B16" s="80" t="s">
         <v>84</v>
       </c>
@@ -4410,9 +4651,7 @@
       <c r="D16" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="81" t="s">
-        <v>82</v>
-      </c>
+      <c r="E16" s="98"/>
       <c r="F16" s="81" t="s">
         <v>82</v>
       </c>
@@ -4420,19 +4659,17 @@
         <v>82</v>
       </c>
       <c r="H16" s="98"/>
-      <c r="I16" s="83" t="s">
+      <c r="I16" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="83" t="s">
         <v>84</v>
-      </c>
-      <c r="J16" s="81" t="s">
-        <v>82</v>
       </c>
       <c r="K16" s="98"/>
       <c r="L16" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="M16" s="81" t="s">
-        <v>279</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M16" s="98"/>
       <c r="N16" s="81" t="s">
         <v>279</v>
       </c>
@@ -4440,17 +4677,31 @@
         <v>279</v>
       </c>
       <c r="P16" s="98"/>
-      <c r="Q16" s="80" t="s">
+      <c r="Q16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="R16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="S16" s="98"/>
+      <c r="T16" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R16" s="98"/>
-      <c r="S16" s="21" t="s">
+      <c r="U16" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="V16" s="98"/>
+      <c r="W16" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="122"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="108"/>
       <c r="B17" s="79" t="s">
         <v>83</v>
       </c>
@@ -4460,18 +4711,16 @@
       <c r="D17" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="E17" s="99"/>
+      <c r="F17" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="G17" s="79" t="s">
         <v>83</v>
-      </c>
-      <c r="G17" s="79" t="s">
-        <v>2</v>
       </c>
       <c r="H17" s="99"/>
       <c r="I17" s="79" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="J17" s="79" t="s">
         <v>83</v>
@@ -4480,9 +4729,7 @@
       <c r="L17" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="79" t="s">
-        <v>83</v>
-      </c>
+      <c r="M17" s="99"/>
       <c r="N17" s="79" t="s">
         <v>83</v>
       </c>
@@ -4490,99 +4737,129 @@
         <v>83</v>
       </c>
       <c r="P17" s="99"/>
-      <c r="Q17" s="84" t="s">
+      <c r="Q17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="S17" s="99"/>
+      <c r="T17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="U17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="V17" s="99"/>
+      <c r="W17" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="R17" s="99"/>
-      <c r="S17" s="109" t="s">
+      <c r="X17" s="99"/>
+      <c r="Y17" s="137" t="s">
         <v>240</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="Z17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="U17" t="s">
+      <c r="AA17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="122"/>
-      <c r="B18" s="108" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18" s="108"/>
+      <c r="B18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="99"/>
+      <c r="F18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="G18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="108" t="s">
+      <c r="H18" s="99"/>
+      <c r="I18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="108" t="s">
+      <c r="J18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="108" t="s">
+      <c r="K18" s="99"/>
+      <c r="L18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="99"/>
-      <c r="L18" s="108" t="s">
+      <c r="M18" s="99"/>
+      <c r="N18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="108" t="s">
+      <c r="O18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="108" t="s">
+      <c r="P18" s="99"/>
+      <c r="Q18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="108" t="s">
+      <c r="R18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="112" t="s">
+      <c r="S18" s="99"/>
+      <c r="T18" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="U18" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="V18" s="99"/>
+      <c r="W18" s="135" t="s">
         <v>225</v>
       </c>
-      <c r="R18" s="99"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="7" t="s">
+      <c r="X18" s="99"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="122"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A19" s="108"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="99"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
       <c r="K19" s="99"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
       <c r="P19" s="99"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="10" t="s">
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="136"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="U19" t="s">
+      <c r="AA19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="122"/>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A20" s="108"/>
       <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
@@ -4592,14 +4869,12 @@
       <c r="D20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="99"/>
+      <c r="F20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="H20" s="99"/>
       <c r="I20" s="8" t="s">
@@ -4610,29 +4885,41 @@
       </c>
       <c r="K20" s="99"/>
       <c r="L20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="99"/>
+      <c r="N20" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="O20" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="P20" s="99"/>
+      <c r="Q20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="R20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="11">
+      <c r="S20" s="99"/>
+      <c r="T20" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="V20" s="99"/>
+      <c r="W20" s="11">
         <v>12</v>
       </c>
-      <c r="R20" s="99"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="7" t="s">
+      <c r="X20" s="99"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="122"/>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" s="108"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -4642,47 +4929,57 @@
       <c r="D21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="E21" s="99"/>
       <c r="F21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="H21" s="99"/>
       <c r="I21" s="8" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="K21" s="99"/>
       <c r="L21" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>198</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M21" s="99"/>
       <c r="N21" s="8" t="s">
         <v>198</v>
       </c>
       <c r="O21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="11">
+      <c r="S21" s="99"/>
+      <c r="T21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="V21" s="99"/>
+      <c r="W21" s="11">
         <v>11</v>
       </c>
-      <c r="R21" s="99"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="7" t="s">
+      <c r="X21" s="99"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="122"/>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A22" s="108"/>
       <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
@@ -4692,9 +4989,7 @@
       <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E22" s="99"/>
       <c r="F22" s="8" t="s">
         <v>7</v>
       </c>
@@ -4710,29 +5005,41 @@
       </c>
       <c r="K22" s="99"/>
       <c r="L22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="99"/>
+      <c r="N22" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="O22" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="P22" s="99"/>
+      <c r="Q22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="R22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="11">
+      <c r="S22" s="99"/>
+      <c r="T22" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="V22" s="99"/>
+      <c r="W22" s="11">
         <v>13</v>
       </c>
-      <c r="R22" s="99"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="7" t="s">
+      <c r="X22" s="99"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="122"/>
+    <row r="23" spans="1:27" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="108"/>
       <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
@@ -4742,9 +5049,7 @@
       <c r="D23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="E23" s="99"/>
       <c r="F23" s="8" t="s">
         <v>8</v>
       </c>
@@ -4762,9 +5067,7 @@
       <c r="L23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="M23" s="99"/>
       <c r="N23" s="8" t="s">
         <v>8</v>
       </c>
@@ -4773,16 +5076,30 @@
       </c>
       <c r="P23" s="99"/>
       <c r="Q23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="99"/>
+      <c r="T23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="99"/>
+      <c r="W23" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="R23" s="99"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="7" t="s">
+      <c r="X23" s="99"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="122"/>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A24" s="108"/>
       <c r="B24" s="8">
         <v>40000000</v>
       </c>
@@ -4792,14 +5109,12 @@
       <c r="D24" s="8">
         <v>40000000</v>
       </c>
-      <c r="E24" s="11">
-        <v>55000000</v>
-      </c>
+      <c r="E24" s="99"/>
       <c r="F24" s="11">
         <v>55000000</v>
       </c>
-      <c r="G24" s="8">
-        <v>40000000</v>
+      <c r="G24" s="11">
+        <v>55000000</v>
       </c>
       <c r="H24" s="99"/>
       <c r="I24" s="8">
@@ -4812,9 +5127,7 @@
       <c r="L24" s="8">
         <v>40000000</v>
       </c>
-      <c r="M24" s="8">
-        <v>40000000</v>
-      </c>
+      <c r="M24" s="99"/>
       <c r="N24" s="8">
         <v>40000000</v>
       </c>
@@ -4825,14 +5138,28 @@
       <c r="Q24" s="8">
         <v>40000000</v>
       </c>
-      <c r="R24" s="99"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="7" t="s">
+      <c r="R24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="S24" s="99"/>
+      <c r="T24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="U24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="V24" s="99"/>
+      <c r="W24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="138"/>
+      <c r="Z24" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="122"/>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A25" s="108"/>
       <c r="B25" s="8">
         <v>20000000</v>
       </c>
@@ -4842,13 +5169,11 @@
       <c r="D25" s="8">
         <v>20000000</v>
       </c>
-      <c r="E25" s="11">
-        <v>20000000</v>
-      </c>
+      <c r="E25" s="99"/>
       <c r="F25" s="11">
         <v>20000000</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="11">
         <v>20000000</v>
       </c>
       <c r="H25" s="99"/>
@@ -4860,29 +5185,41 @@
       </c>
       <c r="K25" s="99"/>
       <c r="L25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="M25" s="99"/>
+      <c r="N25" s="8">
         <v>16000000</v>
       </c>
-      <c r="M25" s="8">
+      <c r="O25" s="8">
         <v>16000000</v>
-      </c>
-      <c r="N25" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="O25" s="8">
-        <v>20000000</v>
       </c>
       <c r="P25" s="99"/>
       <c r="Q25" s="8">
         <v>20000000</v>
       </c>
-      <c r="R25" s="99"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="7" t="s">
+      <c r="R25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="S25" s="99"/>
+      <c r="T25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="U25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="V25" s="99"/>
+      <c r="W25" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="138"/>
+      <c r="Z25" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="123"/>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A26" s="109"/>
       <c r="B26" s="8">
         <v>2500000</v>
       </c>
@@ -4892,13 +5229,11 @@
       <c r="D26" s="8">
         <v>2500000</v>
       </c>
-      <c r="E26" s="11">
-        <v>2500000</v>
-      </c>
+      <c r="E26" s="99"/>
       <c r="F26" s="11">
         <v>2500000</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="11">
         <v>2500000</v>
       </c>
       <c r="H26" s="99"/>
@@ -4912,9 +5247,7 @@
       <c r="L26" s="8">
         <v>2500000</v>
       </c>
-      <c r="M26" s="8">
-        <v>2500000</v>
-      </c>
+      <c r="M26" s="99"/>
       <c r="N26" s="8">
         <v>2500000</v>
       </c>
@@ -4925,13 +5258,27 @@
       <c r="Q26" s="8">
         <v>2500000</v>
       </c>
-      <c r="R26" s="99"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="7" t="s">
+      <c r="R26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="S26" s="99"/>
+      <c r="T26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="U26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="V26" s="99"/>
+      <c r="W26" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="24" t="s">
         <v>181</v>
       </c>
@@ -4944,47 +5291,57 @@
       <c r="D27" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="E27" s="100"/>
       <c r="F27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="71" t="s">
-        <v>59</v>
+      <c r="G27" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="H27" s="100"/>
       <c r="I27" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="100"/>
+      <c r="L27" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="100"/>
-      <c r="L27" s="29" t="s">
+      <c r="M27" s="100"/>
+      <c r="N27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="O27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="36" t="s">
+      <c r="P27" s="100"/>
+      <c r="Q27" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="O27" s="36" t="s">
+      <c r="R27" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="85" t="s">
+      <c r="S27" s="100"/>
+      <c r="T27" s="142" t="s">
+        <v>62</v>
+      </c>
+      <c r="U27" s="142" t="s">
+        <v>62</v>
+      </c>
+      <c r="V27" s="100"/>
+      <c r="W27" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="R27" s="100"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="7" t="s">
+      <c r="X27" s="100"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="129" t="s">
+    <row r="28" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="107" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4996,11 +5353,9 @@
       <c r="D28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="96"/>
+      <c r="F28" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>80</v>
@@ -5013,28 +5368,40 @@
         <v>80</v>
       </c>
       <c r="K28" s="96"/>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" s="96"/>
+      <c r="N28" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>80</v>
       </c>
       <c r="P28" s="96"/>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S28" s="96"/>
+      <c r="T28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V28" s="96"/>
+      <c r="W28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R28" s="96"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="7"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="122"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="7"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A29" s="108"/>
       <c r="B29" s="16" t="s">
         <v>92</v>
       </c>
@@ -5044,11 +5411,9 @@
       <c r="D29" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="101"/>
+      <c r="F29" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>92</v>
@@ -5061,28 +5426,40 @@
         <v>92</v>
       </c>
       <c r="K29" s="101"/>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="101"/>
+      <c r="N29" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="O29" s="16" t="s">
         <v>92</v>
       </c>
       <c r="P29" s="101"/>
-      <c r="Q29" s="19" t="s">
+      <c r="Q29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="S29" s="101"/>
+      <c r="T29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="V29" s="101"/>
+      <c r="W29" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="R29" s="101"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="7"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="122"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="7"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A30" s="108"/>
       <c r="B30" s="5" t="s">
         <v>70</v>
       </c>
@@ -5092,41 +5469,51 @@
       <c r="D30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="29" t="s">
+      <c r="E30" s="99"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="29" t="s">
         <v>5</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="H30" s="99"/>
       <c r="I30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J30" s="29" t="s">
+      <c r="J30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" s="99"/>
+      <c r="L30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="99"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="29" t="s">
-        <v>5</v>
-      </c>
+      <c r="M30" s="99"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="29" t="s">
         <v>5</v>
       </c>
       <c r="P30" s="99"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="7" t="s">
+      <c r="Q30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S30" s="99"/>
+      <c r="T30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="U30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="V30" s="99"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="122"/>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A31" s="108"/>
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
@@ -5136,41 +5523,51 @@
       <c r="D31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="29" t="s">
+      <c r="E31" s="99"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="29" t="s">
         <v>6</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="H31" s="99"/>
       <c r="I31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="J31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="99"/>
+      <c r="L31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="99"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="M31" s="99"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="29" t="s">
         <v>6</v>
       </c>
       <c r="P31" s="99"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="7" t="s">
+      <c r="Q31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="99"/>
+      <c r="T31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="99"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="99"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="122"/>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A32" s="108"/>
       <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
@@ -5180,41 +5577,51 @@
       <c r="D32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="29" t="s">
+      <c r="E32" s="99"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="29" t="s">
         <v>7</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="H32" s="99"/>
       <c r="I32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="J32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="99"/>
+      <c r="L32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="99"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" s="29" t="s">
-        <v>7</v>
-      </c>
+      <c r="M32" s="99"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="29" t="s">
         <v>7</v>
       </c>
       <c r="P32" s="99"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="7" t="s">
+      <c r="Q32" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="99"/>
+      <c r="T32" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="U32" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="99"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A33" s="122"/>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A33" s="108"/>
       <c r="B33" s="8" t="s">
         <v>13</v>
       </c>
@@ -5224,10 +5631,8 @@
       <c r="D33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="E33" s="99"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="8" t="s">
         <v>13</v>
       </c>
@@ -5239,214 +5644,270 @@
         <v>13</v>
       </c>
       <c r="K33" s="99"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="8" t="s">
+      <c r="L33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="M33" s="99"/>
+      <c r="N33" s="9"/>
       <c r="O33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P33" s="99"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="7" t="s">
+      <c r="Q33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S33" s="99"/>
+      <c r="T33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V33" s="99"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="99"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A34" s="122"/>
-      <c r="B34" s="108" t="s">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A34" s="108"/>
+      <c r="B34" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="108" t="s">
+      <c r="C34" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="108" t="s">
+      <c r="D34" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="119" t="s">
+      <c r="E34" s="99"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="108" t="s">
+      <c r="H34" s="99"/>
+      <c r="I34" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="99"/>
-      <c r="I34" s="108" t="s">
+      <c r="J34" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="119" t="s">
+      <c r="K34" s="99"/>
+      <c r="L34" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="99"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="108">
+      <c r="M34" s="99"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="116">
         <v>-1</v>
       </c>
-      <c r="N34" s="119" t="s">
+      <c r="P34" s="99"/>
+      <c r="Q34" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="O34" s="119" t="s">
+      <c r="R34" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="119"/>
-      <c r="T34" s="7" t="s">
+      <c r="S34" s="99"/>
+      <c r="T34" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="U34" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="V34" s="99"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="133"/>
+      <c r="Z34" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A35" s="122"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="108"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A35" s="108"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="134"/>
       <c r="H35" s="99"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="120"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
       <c r="K35" s="99"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="116"/>
       <c r="P35" s="99"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="10" t="s">
+      <c r="Q35" s="134"/>
+      <c r="R35" s="134"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="134"/>
+      <c r="U35" s="134"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="134"/>
+      <c r="Z35" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A36" s="122"/>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A36" s="108"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="99"/>
+      <c r="F36" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="9"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="99"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="95" t="s">
+      <c r="L36" s="9"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
+      <c r="O36" s="6"/>
       <c r="P36" s="99"/>
-      <c r="Q36" s="11" t="s">
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="R36" s="99"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="12" t="s">
+      <c r="X36" s="99"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A37" s="122"/>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A37" s="108"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="99"/>
+      <c r="F37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="9"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="99"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="29" t="s">
+      <c r="L37" s="9"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
+      <c r="O37" s="6"/>
       <c r="P37" s="99"/>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="6">
+        <v>2</v>
+      </c>
+      <c r="V37" s="99"/>
+      <c r="W37" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="R37" s="99"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="12" t="s">
+      <c r="X37" s="99"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A38" s="122"/>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A38" s="108"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="97"/>
+      <c r="F38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="97"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="97"/>
-      <c r="L38" s="29" t="s">
+      <c r="L38" s="6"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="97"/>
-      <c r="Q38" s="86" t="s">
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="97"/>
+      <c r="U38" s="6">
+        <v>1</v>
+      </c>
+      <c r="V38" s="97"/>
+      <c r="W38" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="R38" s="97"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="12" t="s">
+      <c r="X38" s="97"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A39" s="123"/>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A39" s="109"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="9">
+      <c r="E39" s="97"/>
+      <c r="F39" s="9">
         <v>-1</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="9"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="97"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="97"/>
-      <c r="L39" s="9">
+      <c r="L39" s="6"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="9">
         <v>-1</v>
       </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="97"/>
-      <c r="Q39" s="86" t="s">
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="97"/>
+      <c r="T39" s="97"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="97"/>
+      <c r="W39" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="R39" s="97"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="12" t="s">
+      <c r="X39" s="97"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A40" s="121" t="s">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A40" s="119" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="30" t="s">
@@ -5458,14 +5919,12 @@
       <c r="D40" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="E40" s="99"/>
       <c r="F40" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="29" t="s">
-        <v>17</v>
+      <c r="G40" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="H40" s="99"/>
       <c r="I40" s="29" t="s">
@@ -5475,26 +5934,34 @@
         <v>17</v>
       </c>
       <c r="K40" s="99"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="29" t="s">
+      <c r="L40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="O40" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="M40" s="99"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
       <c r="P40" s="99"/>
       <c r="Q40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="R40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" s="99"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="99"/>
+      <c r="W40" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="R40" s="99"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="7" t="s">
+      <c r="X40" s="99"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A41" s="121"/>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A41" s="119"/>
       <c r="B41" s="8" t="s">
         <v>19</v>
       </c>
@@ -5504,9 +5971,7 @@
       <c r="D41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="E41" s="99"/>
       <c r="F41" s="8" t="s">
         <v>19</v>
       </c>
@@ -5521,24 +5986,32 @@
         <v>19</v>
       </c>
       <c r="K41" s="99"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8" t="s">
+      <c r="L41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O41" s="8" t="s">
+      <c r="M41" s="99"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="7" t="s">
+      <c r="R41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" s="99"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="99"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="99"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A42" s="121"/>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A42" s="119"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -5548,9 +6021,7 @@
       <c r="D42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="E42" s="99"/>
       <c r="F42" s="8" t="s">
         <v>21</v>
       </c>
@@ -5565,24 +6036,32 @@
         <v>21</v>
       </c>
       <c r="K42" s="99"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8" t="s">
+      <c r="L42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="8" t="s">
+      <c r="M42" s="99"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="7" t="s">
+      <c r="R42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="99"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="99"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="99"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A43" s="121" t="s">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A43" s="119" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -5594,9 +6073,7 @@
       <c r="D43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E43" s="99"/>
       <c r="F43" s="5" t="s">
         <v>24</v>
       </c>
@@ -5611,244 +6088,286 @@
         <v>24</v>
       </c>
       <c r="K43" s="99"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5" t="s">
+      <c r="L43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="M43" s="99"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="11" t="s">
+      <c r="R43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="99"/>
+      <c r="W43" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="R43" s="99"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="7" t="s">
+      <c r="X43" s="99"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A44" s="121"/>
-      <c r="B44" s="108" t="s">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A44" s="119"/>
+      <c r="B44" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="108" t="s">
+      <c r="D44" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="108" t="s">
+      <c r="E44" s="99"/>
+      <c r="F44" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="108" t="s">
+      <c r="G44" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="108" t="s">
+      <c r="H44" s="99"/>
+      <c r="I44" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="99"/>
-      <c r="I44" s="108" t="s">
+      <c r="J44" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="108" t="s">
+      <c r="K44" s="99"/>
+      <c r="L44" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="K44" s="99"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="108" t="s">
+      <c r="M44" s="99"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="O44" s="108" t="s">
+      <c r="R44" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="112"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="7" t="s">
+      <c r="S44" s="99"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="135"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="116"/>
+      <c r="Z44" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A45" s="121"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A45" s="119"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
       <c r="H45" s="99"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
       <c r="K45" s="99"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="108"/>
-      <c r="O45" s="108"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
       <c r="P45" s="99"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="10" t="s">
+      <c r="Q45" s="116"/>
+      <c r="R45" s="116"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="136"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="116"/>
+      <c r="Z45" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A46" s="121"/>
-      <c r="B46" s="108" t="s">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A46" s="119"/>
+      <c r="B46" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="108" t="s">
+      <c r="D46" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="108" t="s">
+      <c r="E46" s="99"/>
+      <c r="F46" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="108" t="s">
+      <c r="G46" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="108" t="s">
+      <c r="H46" s="99"/>
+      <c r="I46" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="99"/>
-      <c r="I46" s="108" t="s">
+      <c r="J46" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="J46" s="108" t="s">
+      <c r="K46" s="99"/>
+      <c r="L46" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="K46" s="99"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="108" t="s">
+      <c r="M46" s="99"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="O46" s="108" t="s">
+      <c r="R46" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="P46" s="99"/>
-      <c r="Q46" s="112" t="s">
+      <c r="S46" s="99"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="99"/>
+      <c r="W46" s="135" t="s">
         <v>231</v>
       </c>
-      <c r="R46" s="99"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="7" t="s">
+      <c r="X46" s="99"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A47" s="121"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A47" s="119"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
       <c r="H47" s="99"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
       <c r="K47" s="99"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="108"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
       <c r="P47" s="99"/>
-      <c r="Q47" s="113"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="10" t="s">
+      <c r="Q47" s="116"/>
+      <c r="R47" s="116"/>
+      <c r="S47" s="99"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="99"/>
+      <c r="W47" s="136"/>
+      <c r="X47" s="99"/>
+      <c r="Y47" s="116"/>
+      <c r="Z47" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A48" s="121"/>
-      <c r="B48" s="108" t="s">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A48" s="119"/>
+      <c r="B48" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="108" t="s">
+      <c r="C48" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="108" t="s">
+      <c r="D48" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="108" t="s">
+      <c r="E48" s="99"/>
+      <c r="F48" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="108" t="s">
+      <c r="G48" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="108" t="s">
+      <c r="H48" s="99"/>
+      <c r="I48" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="99"/>
-      <c r="I48" s="108" t="s">
+      <c r="J48" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="108" t="s">
+      <c r="K48" s="99"/>
+      <c r="L48" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="99"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="108" t="s">
+      <c r="M48" s="99"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="O48" s="108" t="s">
+      <c r="R48" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="P48" s="99"/>
-      <c r="Q48" s="112" t="s">
+      <c r="S48" s="99"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="99"/>
+      <c r="W48" s="135" t="s">
         <v>233</v>
       </c>
-      <c r="R48" s="99"/>
-      <c r="S48" s="108"/>
-      <c r="T48" s="7" t="s">
+      <c r="X48" s="99"/>
+      <c r="Y48" s="116"/>
+      <c r="Z48" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A49" s="121"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A49" s="119"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
       <c r="H49" s="99"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
       <c r="K49" s="99"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="108"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
       <c r="P49" s="99"/>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="99"/>
-      <c r="S49" s="108"/>
-      <c r="T49" s="10" t="s">
+      <c r="Q49" s="116"/>
+      <c r="R49" s="116"/>
+      <c r="S49" s="99"/>
+      <c r="T49" s="99"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="99"/>
+      <c r="W49" s="136"/>
+      <c r="X49" s="99"/>
+      <c r="Y49" s="116"/>
+      <c r="Z49" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A50" s="121" t="s">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A50" s="119" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="99"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="G50" s="9"/>
       <c r="H50" s="99"/>
       <c r="I50" s="29" t="s">
         <v>34</v>
@@ -5857,26 +6376,34 @@
         <v>34</v>
       </c>
       <c r="K50" s="99"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="29" t="s">
+      <c r="L50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="O50" s="29" t="s">
+      <c r="M50" s="99"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="P50" s="99"/>
-      <c r="Q50" s="114" t="s">
+      <c r="R50" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="S50" s="99"/>
+      <c r="T50" s="99"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="99"/>
+      <c r="W50" s="140" t="s">
         <v>238</v>
       </c>
-      <c r="R50" s="99"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="7" t="s">
+      <c r="X50" s="99"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A51" s="121"/>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A51" s="119"/>
       <c r="B51" s="8" t="s">
         <v>36</v>
       </c>
@@ -5886,9 +6413,7 @@
       <c r="D51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="E51" s="99"/>
       <c r="F51" s="8" t="s">
         <v>36</v>
       </c>
@@ -5903,96 +6428,116 @@
         <v>36</v>
       </c>
       <c r="K51" s="99"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8" t="s">
+      <c r="L51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O51" s="8" t="s">
+      <c r="M51" s="99"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P51" s="99"/>
-      <c r="Q51" s="115"/>
-      <c r="R51" s="99"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="7" t="s">
+      <c r="R51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S51" s="99"/>
+      <c r="T51" s="99"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="99"/>
+      <c r="W51" s="141"/>
+      <c r="X51" s="99"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A52" s="121" t="s">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A52" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="107" t="s">
+      <c r="C52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="107" t="s">
+      <c r="E52" s="99"/>
+      <c r="F52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="107" t="s">
+      <c r="G52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="H52" s="99"/>
+      <c r="I52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="99"/>
-      <c r="I52" s="107" t="s">
+      <c r="J52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="107" t="s">
+      <c r="K52" s="99"/>
+      <c r="L52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="K52" s="99"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="107" t="s">
+      <c r="M52" s="99"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="99"/>
+      <c r="Q52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="107" t="s">
+      <c r="R52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="P52" s="99"/>
-      <c r="Q52" s="107" t="s">
+      <c r="S52" s="99"/>
+      <c r="T52" s="99"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="99"/>
+      <c r="W52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="R52" s="99"/>
-      <c r="S52" s="107"/>
-      <c r="T52" s="7" t="s">
+      <c r="X52" s="99"/>
+      <c r="Y52" s="117"/>
+      <c r="Z52" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A53" s="121"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A53" s="119"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
       <c r="H53" s="99"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
       <c r="K53" s="99"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="107"/>
-      <c r="O53" s="107"/>
+      <c r="L53" s="117"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
       <c r="P53" s="99"/>
-      <c r="Q53" s="107"/>
-      <c r="R53" s="99"/>
-      <c r="S53" s="107"/>
-      <c r="T53" s="10" t="s">
+      <c r="Q53" s="117"/>
+      <c r="R53" s="117"/>
+      <c r="S53" s="99"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="99"/>
+      <c r="W53" s="117"/>
+      <c r="X53" s="99"/>
+      <c r="Y53" s="117"/>
+      <c r="Z53" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A54" s="121"/>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A54" s="119"/>
       <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
@@ -6002,13 +6547,11 @@
       <c r="D54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="99"/>
+      <c r="F54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="G54" s="8"/>
       <c r="H54" s="99"/>
       <c r="I54" s="8" t="s">
         <v>8</v>
@@ -6017,167 +6560,199 @@
         <v>8</v>
       </c>
       <c r="K54" s="99"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8" t="s">
+      <c r="L54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O54" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="M54" s="99"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
       <c r="P54" s="99"/>
       <c r="Q54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R54" s="99"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="7" t="s">
+      <c r="R54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="99"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="99"/>
+      <c r="W54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X54" s="99"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A55" s="121" t="s">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A55" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="107" t="s">
+      <c r="C55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="107" t="s">
+      <c r="D55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="107" t="s">
+      <c r="E55" s="99"/>
+      <c r="F55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="107" t="s">
+      <c r="G55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="107" t="s">
+      <c r="H55" s="99"/>
+      <c r="I55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="99"/>
-      <c r="I55" s="107" t="s">
+      <c r="J55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="J55" s="107" t="s">
+      <c r="K55" s="99"/>
+      <c r="L55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="K55" s="99"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="107" t="s">
+      <c r="M55" s="99"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="99"/>
+      <c r="Q55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="O55" s="107" t="s">
+      <c r="R55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="P55" s="99"/>
-      <c r="Q55" s="107" t="s">
+      <c r="S55" s="99"/>
+      <c r="T55" s="99"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="99"/>
+      <c r="W55" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="R55" s="99"/>
-      <c r="S55" s="107"/>
-      <c r="T55" s="7" t="s">
+      <c r="X55" s="99"/>
+      <c r="Y55" s="117"/>
+      <c r="Z55" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A56" s="121"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="107"/>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A56" s="119"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
       <c r="H56" s="99"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="107"/>
+      <c r="I56" s="117"/>
+      <c r="J56" s="117"/>
       <c r="K56" s="99"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="107"/>
-      <c r="O56" s="107"/>
+      <c r="L56" s="117"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
       <c r="P56" s="99"/>
-      <c r="Q56" s="107"/>
-      <c r="R56" s="99"/>
-      <c r="S56" s="107"/>
-      <c r="T56" s="10" t="s">
+      <c r="Q56" s="117"/>
+      <c r="R56" s="117"/>
+      <c r="S56" s="99"/>
+      <c r="T56" s="99"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="99"/>
+      <c r="W56" s="117"/>
+      <c r="X56" s="99"/>
+      <c r="Y56" s="117"/>
+      <c r="Z56" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A57" s="121"/>
-      <c r="B57" s="108" t="s">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A57" s="119"/>
+      <c r="B57" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="108" t="s">
+      <c r="C57" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="108" t="s">
+      <c r="D57" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="108" t="s">
+      <c r="E57" s="99"/>
+      <c r="F57" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="108" t="s">
+      <c r="G57" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="108" t="s">
+      <c r="H57" s="99"/>
+      <c r="I57" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="H57" s="99"/>
-      <c r="I57" s="108" t="s">
+      <c r="J57" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="108" t="s">
+      <c r="K57" s="99"/>
+      <c r="L57" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="K57" s="99"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="108" t="s">
+      <c r="M57" s="99"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="O57" s="108" t="s">
+      <c r="R57" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="P57" s="99"/>
-      <c r="Q57" s="108" t="s">
+      <c r="S57" s="99"/>
+      <c r="T57" s="99"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="99"/>
+      <c r="W57" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="R57" s="99"/>
-      <c r="S57" s="108"/>
-      <c r="T57" s="7" t="s">
+      <c r="X57" s="99"/>
+      <c r="Y57" s="116"/>
+      <c r="Z57" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A58" s="121"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108"/>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A58" s="119"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
       <c r="H58" s="99"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="108"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
       <c r="K58" s="99"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="108"/>
-      <c r="O58" s="108"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
       <c r="P58" s="99"/>
-      <c r="Q58" s="108"/>
-      <c r="R58" s="99"/>
-      <c r="S58" s="108"/>
-      <c r="T58" s="10" t="s">
+      <c r="Q58" s="116"/>
+      <c r="R58" s="116"/>
+      <c r="S58" s="99"/>
+      <c r="T58" s="99"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="116"/>
+      <c r="X58" s="99"/>
+      <c r="Y58" s="116"/>
+      <c r="Z58" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>214</v>
       </c>
@@ -6190,41 +6765,45 @@
       <c r="D59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="E59" s="99"/>
       <c r="F59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="9"/>
+      <c r="G59" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="H59" s="99"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="99"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="99"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
       <c r="P59" s="99"/>
       <c r="Q59" s="9"/>
-      <c r="R59" s="99"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="7" t="s">
+      <c r="R59" s="9"/>
+      <c r="S59" s="99"/>
+      <c r="T59" s="99"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="99"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="99"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="99"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="G60" s="9"/>
       <c r="H60" s="99"/>
       <c r="I60" s="29" t="s">
         <v>50</v>
@@ -6233,332 +6812,406 @@
         <v>50</v>
       </c>
       <c r="K60" s="99"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="29" t="s">
+      <c r="L60" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="M60" s="99"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
       <c r="P60" s="99"/>
       <c r="Q60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="R60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="S60" s="99"/>
+      <c r="T60" s="99"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="99"/>
+      <c r="W60" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="R60" s="99"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="7" t="s">
+      <c r="X60" s="99"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A61" s="137" t="s">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A61" s="120" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="E61" s="99"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="116" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="99"/>
-      <c r="I61" s="116" t="s">
+      <c r="J61" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="J61" s="116" t="s">
+      <c r="K61" s="99"/>
+      <c r="L61" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="K61" s="99"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="116" t="s">
+      <c r="M61" s="99"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="99"/>
+      <c r="Q61" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="O61" s="116" t="s">
+      <c r="R61" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="P61" s="99"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="99"/>
-      <c r="S61" s="116"/>
-      <c r="T61" s="7" t="s">
+      <c r="S61" s="99"/>
+      <c r="T61" s="99"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="99"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="99"/>
+      <c r="Y61" s="125"/>
+      <c r="Z61" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A62" s="141"/>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A62" s="124"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="99"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="116"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="99"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="125"/>
       <c r="K62" s="99"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
+      <c r="L62" s="125"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
       <c r="P62" s="99"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="99"/>
-      <c r="S62" s="116"/>
-      <c r="T62" s="10" t="s">
+      <c r="Q62" s="125"/>
+      <c r="R62" s="125"/>
+      <c r="S62" s="99"/>
+      <c r="T62" s="99"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="99"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="99"/>
+      <c r="Y62" s="125"/>
+      <c r="Z62" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A63" s="141"/>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A63" s="124"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="99"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="116"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="99"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="125"/>
       <c r="K63" s="99"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="116"/>
+      <c r="L63" s="125"/>
+      <c r="M63" s="99"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
       <c r="P63" s="99"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="99"/>
-      <c r="S63" s="116"/>
-      <c r="T63" s="15" t="s">
+      <c r="Q63" s="125"/>
+      <c r="R63" s="125"/>
+      <c r="S63" s="99"/>
+      <c r="T63" s="99"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="99"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="99"/>
+      <c r="Y63" s="125"/>
+      <c r="Z63" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A64" s="141"/>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A64" s="124"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="99"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="116" t="s">
+      <c r="G64" s="9"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="99"/>
-      <c r="I64" s="116" t="s">
+      <c r="J64" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="J64" s="116" t="s">
+      <c r="K64" s="99"/>
+      <c r="L64" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="K64" s="99"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="116" t="s">
+      <c r="M64" s="99"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="O64" s="116" t="s">
+      <c r="R64" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="P64" s="99"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="99"/>
-      <c r="S64" s="116"/>
-      <c r="T64" s="7" t="s">
+      <c r="S64" s="99"/>
+      <c r="T64" s="99"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="99"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="99"/>
+      <c r="Y64" s="125"/>
+      <c r="Z64" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A65" s="141"/>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A65" s="124"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="E65" s="99"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="116"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="99"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="116"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="125"/>
       <c r="K65" s="99"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="116"/>
-      <c r="O65" s="116"/>
+      <c r="L65" s="125"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
       <c r="P65" s="99"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="99"/>
-      <c r="S65" s="116"/>
-      <c r="T65" s="10" t="s">
+      <c r="Q65" s="125"/>
+      <c r="R65" s="125"/>
+      <c r="S65" s="99"/>
+      <c r="T65" s="99"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="99"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="99"/>
+      <c r="Y65" s="125"/>
+      <c r="Z65" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A66" s="141"/>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A66" s="124"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="E66" s="99"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="116"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="99"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="116"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="125"/>
       <c r="K66" s="99"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="116"/>
-      <c r="O66" s="116"/>
+      <c r="L66" s="125"/>
+      <c r="M66" s="99"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
       <c r="P66" s="99"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="99"/>
-      <c r="S66" s="116"/>
-      <c r="T66" s="15" t="s">
+      <c r="Q66" s="125"/>
+      <c r="R66" s="125"/>
+      <c r="S66" s="99"/>
+      <c r="T66" s="99"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="99"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="99"/>
+      <c r="Y66" s="125"/>
+      <c r="Z66" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A67" s="141"/>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A67" s="124"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="99"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="116" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="99"/>
-      <c r="I67" s="116" t="s">
+      <c r="J67" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="J67" s="116" t="s">
+      <c r="K67" s="99"/>
+      <c r="L67" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="K67" s="99"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="116" t="s">
+      <c r="M67" s="99"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="99"/>
+      <c r="Q67" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="O67" s="116" t="s">
+      <c r="R67" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="P67" s="99"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="99"/>
-      <c r="S67" s="116"/>
-      <c r="T67" s="7" t="s">
+      <c r="S67" s="99"/>
+      <c r="T67" s="99"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="99"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="99"/>
+      <c r="Y67" s="125"/>
+      <c r="Z67" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A68" s="141"/>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A68" s="124"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="99"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="116"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="99"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="125"/>
       <c r="K68" s="99"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="116"/>
+      <c r="L68" s="125"/>
+      <c r="M68" s="99"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
       <c r="P68" s="99"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="99"/>
-      <c r="S68" s="116"/>
-      <c r="T68" s="10" t="s">
+      <c r="Q68" s="125"/>
+      <c r="R68" s="125"/>
+      <c r="S68" s="99"/>
+      <c r="T68" s="99"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="99"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="99"/>
+      <c r="Y68" s="125"/>
+      <c r="Z68" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A69" s="141"/>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A69" s="124"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="99"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="116"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="99"/>
-      <c r="I69" s="116"/>
-      <c r="J69" s="116"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="125"/>
       <c r="K69" s="99"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="116"/>
-      <c r="O69" s="116"/>
+      <c r="L69" s="125"/>
+      <c r="M69" s="99"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
       <c r="P69" s="99"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="99"/>
-      <c r="S69" s="116"/>
-      <c r="T69" s="15" t="s">
+      <c r="Q69" s="125"/>
+      <c r="R69" s="125"/>
+      <c r="S69" s="99"/>
+      <c r="T69" s="99"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="99"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="99"/>
+      <c r="Y69" s="125"/>
+      <c r="Z69" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A70" s="141"/>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A70" s="124"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="102"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="127" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="H70" s="102"/>
-      <c r="I70" s="127" t="s">
+      <c r="J70" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="J70" s="117" t="s">
+      <c r="K70" s="102"/>
+      <c r="L70" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K70" s="102"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="117" t="s">
+      <c r="M70" s="102"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="102"/>
+      <c r="Q70" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="O70" s="117" t="s">
+      <c r="R70" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="P70" s="102"/>
-      <c r="Q70" s="65"/>
-      <c r="R70" s="102"/>
-      <c r="S70" s="117"/>
-      <c r="T70" s="7" t="s">
+      <c r="S70" s="102"/>
+      <c r="T70" s="102"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="102"/>
+      <c r="W70" s="65"/>
+      <c r="X70" s="102"/>
+      <c r="Y70" s="128"/>
+      <c r="Z70" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="141"/>
+    <row r="71" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="124"/>
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
       <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
+      <c r="E71" s="102"/>
       <c r="F71" s="49"/>
-      <c r="G71" s="128"/>
+      <c r="G71" s="49"/>
       <c r="H71" s="102"/>
-      <c r="I71" s="128"/>
-      <c r="J71" s="118"/>
+      <c r="I71" s="127"/>
+      <c r="J71" s="127"/>
       <c r="K71" s="102"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="118"/>
-      <c r="O71" s="118"/>
+      <c r="L71" s="129"/>
+      <c r="M71" s="102"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
       <c r="P71" s="102"/>
-      <c r="Q71" s="66"/>
-      <c r="R71" s="102"/>
-      <c r="S71" s="118"/>
-      <c r="T71" s="56" t="s">
+      <c r="Q71" s="129"/>
+      <c r="R71" s="129"/>
+      <c r="S71" s="102"/>
+      <c r="T71" s="102"/>
+      <c r="U71" s="49"/>
+      <c r="V71" s="102"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="102"/>
+      <c r="Y71" s="129"/>
+      <c r="Z71" s="56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="138" t="s">
+    <row r="72" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="121" t="s">
         <v>64</v>
       </c>
       <c r="B72" s="43" t="s">
@@ -6570,9 +7223,7 @@
       <c r="D72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="E72" s="43" t="s">
-        <v>175</v>
-      </c>
+      <c r="E72" s="99"/>
       <c r="F72" s="43" t="s">
         <v>175</v>
       </c>
@@ -6583,24 +7234,32 @@
       <c r="I72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="J72" s="9"/>
+      <c r="J72" s="43" t="s">
+        <v>175</v>
+      </c>
       <c r="K72" s="99"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="99"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
       <c r="P72" s="99"/>
-      <c r="Q72" s="88" t="s">
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="99"/>
+      <c r="T72" s="99"/>
+      <c r="U72" s="143"/>
+      <c r="V72" s="99"/>
+      <c r="W72" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="99"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="59" t="s">
+      <c r="X72" s="99"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="139"/>
+    <row r="73" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="122"/>
       <c r="B73" s="62" t="s">
         <v>62</v>
       </c>
@@ -6610,14 +7269,12 @@
       <c r="D73" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="64" t="s">
-        <v>59</v>
-      </c>
+      <c r="E73" s="97"/>
       <c r="F73" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="70" t="s">
-        <v>61</v>
+      <c r="G73" s="64" t="s">
+        <v>59</v>
       </c>
       <c r="H73" s="97"/>
       <c r="I73" s="70" t="s">
@@ -6627,30 +7284,38 @@
         <v>61</v>
       </c>
       <c r="K73" s="97"/>
-      <c r="L73" s="64" t="s">
+      <c r="L73" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="M73" s="97"/>
+      <c r="N73" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="M73" s="64" t="s">
+      <c r="O73" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="N73" s="70" t="s">
+      <c r="P73" s="97"/>
+      <c r="Q73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="O73" s="70" t="s">
+      <c r="R73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="P73" s="97"/>
-      <c r="Q73" s="87" t="s">
+      <c r="S73" s="97"/>
+      <c r="T73" s="97"/>
+      <c r="U73" s="64"/>
+      <c r="V73" s="97"/>
+      <c r="W73" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="R73" s="97"/>
-      <c r="S73" s="70"/>
-      <c r="T73" s="60" t="s">
+      <c r="X73" s="97"/>
+      <c r="Y73" s="70"/>
+      <c r="Z73" s="60" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="139"/>
+    <row r="74" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="122"/>
       <c r="B74" s="67" t="s">
         <v>60</v>
       </c>
@@ -6660,43 +7325,49 @@
       <c r="D74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E74" s="68" t="s">
-        <v>60</v>
-      </c>
+      <c r="E74" s="97"/>
       <c r="F74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="G74" s="9"/>
+      <c r="G74" s="68" t="s">
+        <v>60</v>
+      </c>
       <c r="H74" s="97"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="31" t="s">
+      <c r="J74" s="9"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="K74" s="97"/>
-      <c r="L74" s="68" t="s">
+      <c r="M74" s="97"/>
+      <c r="N74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="M74" s="68" t="s">
+      <c r="O74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="N74" s="31" t="s">
+      <c r="P74" s="97"/>
+      <c r="Q74" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="O74" s="31" t="s">
+      <c r="R74" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="P74" s="97"/>
-      <c r="Q74" s="87" t="s">
+      <c r="S74" s="97"/>
+      <c r="T74" s="97"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="97"/>
+      <c r="W74" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="R74" s="97"/>
-      <c r="S74" s="31"/>
-      <c r="T74" s="60" t="s">
+      <c r="X74" s="97"/>
+      <c r="Y74" s="31"/>
+      <c r="Z74" s="60" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="140"/>
+    <row r="75" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="123"/>
       <c r="B75" s="47" t="s">
         <v>176</v>
       </c>
@@ -6706,9 +7377,7 @@
       <c r="D75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="47" t="s">
-        <v>176</v>
-      </c>
+      <c r="E75" s="99"/>
       <c r="F75" s="47" t="s">
         <v>176</v>
       </c>
@@ -6719,22 +7388,30 @@
       <c r="I75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="J75" s="9"/>
+      <c r="J75" s="47" t="s">
+        <v>176</v>
+      </c>
       <c r="K75" s="99"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
       <c r="P75" s="99"/>
-      <c r="Q75" s="87" t="s">
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="99"/>
+      <c r="T75" s="99"/>
+      <c r="U75" s="144"/>
+      <c r="V75" s="99"/>
+      <c r="W75" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="R75" s="99"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="61"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A76" s="136" t="s">
+      <c r="X75" s="99"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="61"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A76" s="118" t="s">
         <v>63</v>
       </c>
       <c r="B76" s="64" t="s">
@@ -6746,29 +7423,35 @@
       <c r="D76" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="64" t="s">
-        <v>59</v>
-      </c>
+      <c r="E76" s="97"/>
       <c r="F76" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G76" s="57"/>
+      <c r="G76" s="64" t="s">
+        <v>59</v>
+      </c>
       <c r="H76" s="97"/>
       <c r="I76" s="57"/>
-      <c r="J76" s="52"/>
+      <c r="J76" s="57"/>
       <c r="K76" s="97"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="97"/>
+      <c r="N76" s="94"/>
+      <c r="O76" s="94"/>
       <c r="P76" s="97"/>
       <c r="Q76" s="52"/>
-      <c r="R76" s="97"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="58"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A77" s="121"/>
+      <c r="R76" s="52"/>
+      <c r="S76" s="97"/>
+      <c r="T76" s="97"/>
+      <c r="U76" s="94"/>
+      <c r="V76" s="97"/>
+      <c r="W76" s="52"/>
+      <c r="X76" s="97"/>
+      <c r="Y76" s="52"/>
+      <c r="Z76" s="58"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A77" s="119"/>
       <c r="B77" s="67" t="s">
         <v>60</v>
       </c>
@@ -6778,31 +7461,37 @@
       <c r="D77" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="68" t="s">
-        <v>60</v>
-      </c>
+      <c r="E77" s="97"/>
       <c r="F77" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="G77" s="9"/>
+      <c r="G77" s="68" t="s">
+        <v>60</v>
+      </c>
       <c r="H77" s="97"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="12"/>
+      <c r="J77" s="9"/>
       <c r="K77" s="97"/>
-      <c r="L77" s="68"/>
-      <c r="M77" s="68"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="97"/>
+      <c r="N77" s="68"/>
+      <c r="O77" s="68"/>
       <c r="P77" s="97"/>
       <c r="Q77" s="12"/>
-      <c r="R77" s="97"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12" t="s">
+      <c r="R77" s="12"/>
+      <c r="S77" s="97"/>
+      <c r="T77" s="97"/>
+      <c r="U77" s="68"/>
+      <c r="V77" s="97"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="97"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="137"/>
+    <row r="78" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="120"/>
       <c r="B78" s="69" t="s">
         <v>61</v>
       </c>
@@ -6812,145 +7501,175 @@
       <c r="D78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="69" t="s">
-        <v>61</v>
-      </c>
+      <c r="E78" s="97"/>
       <c r="F78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G78" s="49"/>
+      <c r="G78" s="69" t="s">
+        <v>61</v>
+      </c>
       <c r="H78" s="97"/>
       <c r="I78" s="49"/>
-      <c r="J78" s="40"/>
+      <c r="J78" s="49"/>
       <c r="K78" s="97"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="69"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="97"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="69"/>
       <c r="P78" s="97"/>
       <c r="Q78" s="40"/>
-      <c r="R78" s="97"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40" t="s">
+      <c r="R78" s="40"/>
+      <c r="S78" s="97"/>
+      <c r="T78" s="97"/>
+      <c r="U78" s="69"/>
+      <c r="V78" s="97"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="97"/>
+      <c r="Y78" s="40"/>
+      <c r="Z78" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="130" t="s">
+    <row r="79" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="110" t="s">
         <v>177</v>
       </c>
       <c r="B79" s="53"/>
       <c r="C79" s="53"/>
       <c r="D79" s="53"/>
-      <c r="E79" s="54" t="s">
-        <v>180</v>
-      </c>
+      <c r="E79" s="97"/>
       <c r="F79" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="G79" s="53"/>
+      <c r="G79" s="54" t="s">
+        <v>180</v>
+      </c>
       <c r="H79" s="97"/>
       <c r="I79" s="53"/>
-      <c r="J79" s="54"/>
+      <c r="J79" s="53"/>
       <c r="K79" s="97"/>
       <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
+      <c r="M79" s="97"/>
       <c r="N79" s="54"/>
       <c r="O79" s="54"/>
       <c r="P79" s="97"/>
       <c r="Q79" s="54"/>
-      <c r="R79" s="97"/>
-      <c r="S79" s="54"/>
-      <c r="T79" s="44" t="s">
+      <c r="R79" s="54"/>
+      <c r="S79" s="97"/>
+      <c r="T79" s="97"/>
+      <c r="U79" s="54"/>
+      <c r="V79" s="97"/>
+      <c r="W79" s="54"/>
+      <c r="X79" s="97"/>
+      <c r="Y79" s="54"/>
+      <c r="Z79" s="44" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="131"/>
+    <row r="80" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="111"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="E80" s="97"/>
       <c r="F80" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G80" s="9"/>
+      <c r="G80" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="H80" s="97"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="12"/>
+      <c r="J80" s="9"/>
       <c r="K80" s="97"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
+      <c r="M80" s="97"/>
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
       <c r="P80" s="97"/>
       <c r="Q80" s="12"/>
-      <c r="R80" s="97"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="44" t="s">
+      <c r="R80" s="12"/>
+      <c r="S80" s="97"/>
+      <c r="T80" s="97"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="97"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="97"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="44" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A81" s="131"/>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A81" s="111"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="12" t="s">
-        <v>179</v>
-      </c>
+      <c r="E81" s="97"/>
       <c r="F81" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G81" s="9"/>
+      <c r="G81" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="H81" s="97"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="12"/>
+      <c r="J81" s="9"/>
       <c r="K81" s="97"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
+      <c r="M81" s="97"/>
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
       <c r="P81" s="97"/>
       <c r="Q81" s="12"/>
-      <c r="R81" s="97"/>
-      <c r="S81" s="12"/>
-      <c r="T81" s="44" t="s">
+      <c r="R81" s="12"/>
+      <c r="S81" s="97"/>
+      <c r="T81" s="97"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="97"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="97"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="44" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="132"/>
+    <row r="82" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="112"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
       <c r="D82" s="55"/>
-      <c r="E82" s="46" t="s">
-        <v>176</v>
-      </c>
+      <c r="E82" s="97"/>
       <c r="F82" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G82" s="55"/>
+      <c r="G82" s="46" t="s">
+        <v>176</v>
+      </c>
       <c r="H82" s="97"/>
       <c r="I82" s="55"/>
-      <c r="J82" s="46"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="97"/>
       <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
+      <c r="M82" s="97"/>
       <c r="N82" s="46"/>
       <c r="O82" s="46"/>
       <c r="P82" s="97"/>
       <c r="Q82" s="46"/>
-      <c r="R82" s="97"/>
-      <c r="S82" s="46"/>
-      <c r="T82" s="48" t="s">
+      <c r="R82" s="46"/>
+      <c r="S82" s="97"/>
+      <c r="T82" s="97"/>
+      <c r="U82" s="46"/>
+      <c r="V82" s="97"/>
+      <c r="W82" s="46"/>
+      <c r="X82" s="97"/>
+      <c r="Y82" s="46"/>
+      <c r="Z82" s="48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A83" s="133" t="s">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A83" s="113" t="s">
         <v>182</v>
       </c>
       <c r="B83" s="50" t="s">
@@ -6962,13 +7681,11 @@
       <c r="D83" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="50" t="s">
-        <v>183</v>
-      </c>
+      <c r="E83" s="103"/>
       <c r="F83" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="G83" s="51" t="s">
+      <c r="G83" s="50" t="s">
         <v>183</v>
       </c>
       <c r="H83" s="103"/>
@@ -6979,26 +7696,34 @@
         <v>183</v>
       </c>
       <c r="K83" s="103"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="51" t="s">
+      <c r="L83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="O83" s="51" t="s">
-        <v>183</v>
-      </c>
+      <c r="M83" s="103"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="50"/>
       <c r="P83" s="103"/>
       <c r="Q83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="R83" s="103"/>
-      <c r="S83" s="51"/>
-      <c r="T83" s="52" t="s">
+      <c r="R83" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="S83" s="103"/>
+      <c r="T83" s="103"/>
+      <c r="U83" s="50"/>
+      <c r="V83" s="103"/>
+      <c r="W83" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="X83" s="103"/>
+      <c r="Y83" s="51"/>
+      <c r="Z83" s="52" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A84" s="134"/>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A84" s="114"/>
       <c r="B84" s="12" t="s">
         <v>184</v>
       </c>
@@ -7008,14 +7733,12 @@
       <c r="D84" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="E84" s="103"/>
       <c r="F84" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G84" s="32" t="s">
-        <v>176</v>
+      <c r="G84" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="H84" s="103"/>
       <c r="I84" s="32" t="s">
@@ -7025,24 +7748,32 @@
         <v>176</v>
       </c>
       <c r="K84" s="103"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="32" t="s">
+      <c r="L84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="O84" s="32" t="s">
-        <v>176</v>
-      </c>
+      <c r="M84" s="103"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
       <c r="P84" s="103"/>
       <c r="Q84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R84" s="103"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="12"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A85" s="134"/>
+      <c r="R84" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="S84" s="103"/>
+      <c r="T84" s="103"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="103"/>
+      <c r="W84" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="X84" s="103"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="12"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A85" s="114"/>
       <c r="B85" s="12" t="s">
         <v>185</v>
       </c>
@@ -7052,14 +7783,12 @@
       <c r="D85" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>185</v>
-      </c>
+      <c r="E85" s="97"/>
       <c r="F85" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="31" t="s">
-        <v>184</v>
+      <c r="G85" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="H85" s="97"/>
       <c r="I85" s="31" t="s">
@@ -7069,24 +7798,32 @@
         <v>184</v>
       </c>
       <c r="K85" s="97"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="31" t="s">
+      <c r="L85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="O85" s="31" t="s">
-        <v>184</v>
-      </c>
+      <c r="M85" s="97"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
       <c r="P85" s="97"/>
       <c r="Q85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="R85" s="97"/>
-      <c r="S85" s="31"/>
-      <c r="T85" s="12"/>
-    </row>
-    <row r="86" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="135"/>
+      <c r="R85" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="S85" s="97"/>
+      <c r="T85" s="97"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="97"/>
+      <c r="W85" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="X85" s="97"/>
+      <c r="Y85" s="31"/>
+      <c r="Z85" s="12"/>
+    </row>
+    <row r="86" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="115"/>
       <c r="B86" s="38" t="s">
         <v>176</v>
       </c>
@@ -7096,14 +7833,12 @@
       <c r="D86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E86" s="38" t="s">
-        <v>176</v>
-      </c>
+      <c r="E86" s="97"/>
       <c r="F86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="G86" s="39" t="s">
-        <v>185</v>
+      <c r="G86" s="38" t="s">
+        <v>176</v>
       </c>
       <c r="H86" s="97"/>
       <c r="I86" s="39" t="s">
@@ -7113,170 +7848,318 @@
         <v>185</v>
       </c>
       <c r="K86" s="97"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="39" t="s">
+      <c r="L86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="O86" s="39" t="s">
-        <v>185</v>
-      </c>
+      <c r="M86" s="97"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
       <c r="P86" s="97"/>
       <c r="Q86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="R86" s="97"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="40"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A87" s="124" t="s">
+      <c r="R86" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="S86" s="97"/>
+      <c r="T86" s="97"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="97"/>
+      <c r="W86" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="X86" s="97"/>
+      <c r="Y86" s="39"/>
+      <c r="Z86" s="40"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A87" s="130" t="s">
         <v>74</v>
       </c>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
       <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="104"/>
       <c r="F87" s="41"/>
-      <c r="G87" s="42"/>
+      <c r="G87" s="41"/>
       <c r="H87" s="104"/>
       <c r="I87" s="42"/>
-      <c r="J87" s="43" t="s">
+      <c r="J87" s="42"/>
+      <c r="K87" s="104"/>
+      <c r="L87" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="K87" s="104"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="43" t="s">
+      <c r="M87" s="104"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="104"/>
+      <c r="Q87" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="O87" s="43" t="s">
+      <c r="R87" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="P87" s="104"/>
-      <c r="Q87" s="89" t="s">
+      <c r="S87" s="104"/>
+      <c r="T87" s="104"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="104"/>
+      <c r="W87" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="R87" s="104"/>
-      <c r="S87" s="43"/>
-      <c r="T87" s="44"/>
-    </row>
-    <row r="88" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="125"/>
+      <c r="X87" s="104"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="44"/>
+    </row>
+    <row r="88" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="131"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
+      <c r="E88" s="99"/>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
       <c r="H88" s="99"/>
       <c r="I88" s="37"/>
-      <c r="J88" s="29" t="s">
+      <c r="J88" s="37"/>
+      <c r="K88" s="99"/>
+      <c r="L88" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="K88" s="99"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="29" t="s">
+      <c r="M88" s="99"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="99"/>
+      <c r="Q88" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="O88" s="29" t="s">
+      <c r="R88" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="P88" s="99"/>
-      <c r="Q88" s="90" t="s">
+      <c r="S88" s="99"/>
+      <c r="T88" s="99"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="99"/>
+      <c r="W88" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="R88" s="99"/>
-      <c r="S88" s="29"/>
-      <c r="T88" s="45" t="s">
+      <c r="X88" s="99"/>
+      <c r="Y88" s="29"/>
+      <c r="Z88" s="45" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="125"/>
+    <row r="89" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="131"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
+      <c r="E89" s="99"/>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
       <c r="H89" s="99"/>
       <c r="I89" s="37"/>
-      <c r="J89" s="29" t="s">
+      <c r="J89" s="37"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K89" s="99"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="29" t="s">
+      <c r="M89" s="99"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="99"/>
+      <c r="Q89" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O89" s="29" t="s">
+      <c r="R89" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="P89" s="99"/>
-      <c r="Q89" s="91" t="s">
+      <c r="S89" s="99"/>
+      <c r="T89" s="99"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="99"/>
+      <c r="W89" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="R89" s="99"/>
-      <c r="S89" s="29"/>
-      <c r="T89" s="45" t="s">
+      <c r="X89" s="99"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="45" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="126"/>
+    <row r="90" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="132"/>
       <c r="B90" s="46"/>
       <c r="C90" s="46"/>
       <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
+      <c r="E90" s="104"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
       <c r="H90" s="104"/>
       <c r="I90" s="46"/>
-      <c r="J90" s="47" t="s">
+      <c r="J90" s="46"/>
+      <c r="K90" s="104"/>
+      <c r="L90" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="K90" s="104"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="47" t="s">
+      <c r="M90" s="104"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="104"/>
+      <c r="Q90" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="O90" s="47" t="s">
+      <c r="R90" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="P90" s="104"/>
-      <c r="Q90" s="92" t="s">
+      <c r="S90" s="104"/>
+      <c r="T90" s="104"/>
+      <c r="U90" s="46"/>
+      <c r="V90" s="104"/>
+      <c r="W90" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="R90" s="104"/>
-      <c r="S90" s="47"/>
-      <c r="T90" s="48"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="S94" s="28"/>
+      <c r="X90" s="104"/>
+      <c r="Y90" s="47"/>
+      <c r="Z90" s="48"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y94" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="140">
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="Y17:Y26"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="R67:R69"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="Y57:Y58"/>
+    <mergeCell ref="Y61:Y63"/>
+    <mergeCell ref="Y64:Y66"/>
+    <mergeCell ref="Y67:Y69"/>
+    <mergeCell ref="Y70:Y71"/>
+    <mergeCell ref="W48:W49"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="R64:R66"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A26"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="Q64:Q66"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D52:D53"/>
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="C57:C58"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G52:G53"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F44:F45"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A72:A75"/>
     <mergeCell ref="B48:B49"/>
@@ -7284,118 +8167,6 @@
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A61:A71"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N61:N63"/>
-    <mergeCell ref="N64:N66"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="N67:N69"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A26"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="O67:O69"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="S48:S49"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S61:S63"/>
-    <mergeCell ref="S64:S66"/>
-    <mergeCell ref="S67:S69"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="O64:O66"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="S17:S26"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D34:D35"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7738,18 +8509,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BACAD1-97A4-4AD0-A21C-371462B24AAD}">
-  <dimension ref="B1:F35"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
     <col min="6" max="6" width="9" style="93"/>
+    <col min="7" max="8" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>275</v>
       </c>
@@ -7762,28 +8535,37 @@
       <c r="F1" s="93" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>244</v>
       </c>
@@ -7791,7 +8573,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>245</v>
       </c>
@@ -7799,7 +8581,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>246</v>
       </c>
@@ -7807,7 +8589,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>247</v>
       </c>
@@ -7823,8 +8605,17 @@
       <c r="F9" s="93">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9" s="93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>248</v>
       </c>
@@ -7840,8 +8631,17 @@
       <c r="F10" s="93">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <v>48</v>
+      </c>
+      <c r="H10">
+        <v>48</v>
+      </c>
+      <c r="I10" s="93">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>249</v>
       </c>
@@ -7857,8 +8657,17 @@
       <c r="F11" s="93">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>47</v>
+      </c>
+      <c r="I11" s="93">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>250</v>
       </c>
@@ -7874,8 +8683,17 @@
       <c r="F12" s="93">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12" s="93">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>251</v>
       </c>
@@ -7891,8 +8709,17 @@
       <c r="F13" s="93">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13" s="93">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>252</v>
       </c>
@@ -7900,7 +8727,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>253</v>
       </c>
@@ -7908,7 +8735,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>254</v>
       </c>
@@ -7924,8 +8751,17 @@
       <c r="F16" s="93">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>255</v>
       </c>
@@ -7941,8 +8777,17 @@
       <c r="F17" s="93">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" s="93">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>256</v>
       </c>
@@ -7958,8 +8803,17 @@
       <c r="F18" s="93">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" s="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>257</v>
       </c>
@@ -7975,8 +8829,17 @@
       <c r="F19" s="93">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19" s="93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>258</v>
       </c>
@@ -7992,8 +8855,17 @@
       <c r="F20" s="93">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20" s="93">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>259</v>
       </c>
@@ -8009,8 +8881,17 @@
       <c r="F21" s="93">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>260</v>
       </c>
@@ -8018,7 +8899,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>261</v>
       </c>
@@ -8026,7 +8907,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>262</v>
       </c>
@@ -8034,7 +8915,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>263</v>
       </c>
@@ -8050,8 +8931,17 @@
       <c r="F25" s="93">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25" s="93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>264</v>
       </c>
@@ -8067,8 +8957,17 @@
       <c r="F26" s="93">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" s="93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>265</v>
       </c>
@@ -8082,10 +8981,19 @@
         <v>46</v>
       </c>
       <c r="F27" s="93">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="G27">
+        <v>46</v>
+      </c>
+      <c r="H27">
+        <v>46</v>
+      </c>
+      <c r="I27" s="93">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>266</v>
       </c>
@@ -8101,8 +9009,17 @@
       <c r="F28" s="93">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28" s="93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>267</v>
       </c>
@@ -8118,23 +9035,50 @@
       <c r="F29" s="93">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <v>42</v>
+      </c>
+      <c r="D31">
+        <v>42</v>
+      </c>
+      <c r="E31">
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>42</v>
+      </c>
+      <c r="H31">
+        <v>42</v>
+      </c>
+      <c r="I31" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>270</v>
       </c>
@@ -8150,8 +9094,17 @@
       <c r="F33" s="93">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G33">
+        <v>39</v>
+      </c>
+      <c r="H33">
+        <v>39</v>
+      </c>
+      <c r="I33" s="93">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>271</v>
       </c>
@@ -8167,8 +9120,17 @@
       <c r="F34" s="93">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G34">
+        <v>41</v>
+      </c>
+      <c r="H34">
+        <v>41</v>
+      </c>
+      <c r="I34" s="93">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>272</v>
       </c>
@@ -8184,14 +9146,149 @@
       <c r="F35" s="93">
         <v>41</v>
       </c>
+      <c r="G35">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>40</v>
+      </c>
+      <c r="I35" s="93">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="146" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="93">
+        <v>19</v>
+      </c>
+      <c r="D38" s="93">
+        <v>19</v>
+      </c>
+      <c r="E38" s="93">
+        <v>19</v>
+      </c>
+      <c r="F38" s="93">
+        <v>19</v>
+      </c>
+      <c r="H38" s="93">
+        <v>19</v>
+      </c>
+      <c r="I38" s="93">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="146"/>
+      <c r="B39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="93">
+        <v>20</v>
+      </c>
+      <c r="D39" s="93">
+        <v>20</v>
+      </c>
+      <c r="E39" s="93">
+        <v>20</v>
+      </c>
+      <c r="F39" s="93">
+        <v>20</v>
+      </c>
+      <c r="H39" s="93">
+        <v>20</v>
+      </c>
+      <c r="I39" s="93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="146"/>
+      <c r="C40" s="93">
+        <v>38</v>
+      </c>
+      <c r="D40" s="93">
+        <v>38</v>
+      </c>
+      <c r="E40" s="93">
+        <v>38</v>
+      </c>
+      <c r="F40" s="93">
+        <v>38</v>
+      </c>
+      <c r="H40" s="93">
+        <v>38</v>
+      </c>
+      <c r="I40" s="93">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="146"/>
+      <c r="B41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="146"/>
+      <c r="B42" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" s="145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="146"/>
+      <c r="B43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="146"/>
+      <c r="B44" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A44"/>
+  </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100431B1C8C9D9DBE4AA0E80FF5D0349E59" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f7ed8c6386409f34b595d96d3c2cb336">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8eebbbb-06cf-461a-bdd4-fdce0afb9207" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b92ee3a140b325dd50340e431628f3" ns3:_="">
     <xsd:import namespace="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
@@ -8341,22 +9438,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFFF1BA6-01AE-4C7B-81CA-4E0B23197A87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B34AA1-4D99-4870-B3C7-12AFF67D4A6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8372,28 +9478,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFFF1BA6-01AE-4C7B-81CA-4E0B23197A87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2432S028.xlsx
+++ b/2432S028.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunikata\Desktop\xptouch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4856222C-A312-42DA-99C5-D0BC3A246AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34531131-253E-4EAF-A036-664B977036B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3B433E45-3806-4035-B9E5-3F86EFD58587}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="303">
   <si>
     <t>Onboard Equipment</t>
   </si>
@@ -2007,11 +2007,6 @@
   </si>
   <si>
     <t>Like
-2.8inch_ESP-32E_7789</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Like
 Sunton_2432S028</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2347,6 +2342,22 @@
   </si>
   <si>
     <t>CrowPanel 7.0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>感圧式</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ST7796_DRIVER</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ST7796 _DRIVER</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Sunton_2432S028 TypeC</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2561,7 +2572,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2691,6 +2702,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2985,7 +3008,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3307,15 +3330,87 @@
     <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3334,18 +3429,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3361,71 +3447,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3764,26 +3799,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BC7DEC-5679-4A0D-9125-1D99B7399C91}">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1:Y1048576"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="149" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="12" width="20.625" customWidth="1"/>
-    <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="15" width="20.625" customWidth="1"/>
+    <col min="12" max="13" width="20.625" customWidth="1"/>
+    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="20.625" customWidth="1"/>
     <col min="16" max="16" width="6.5" customWidth="1"/>
     <col min="17" max="18" width="20.625" customWidth="1"/>
     <col min="19" max="19" width="4.75" customWidth="1"/>
@@ -3796,7 +3832,7 @@
     <col min="26" max="26" width="73.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3804,35 +3840,35 @@
         <v>93</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" s="96"/>
+        <v>302</v>
+      </c>
+      <c r="D1" s="96"/>
+      <c r="E1" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="F1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="I1" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="13" t="s">
         <v>190</v>
+      </c>
+      <c r="J1" s="148" t="s">
+        <v>281</v>
       </c>
       <c r="K1" s="96"/>
       <c r="L1" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="N1" s="96"/>
+      <c r="O1" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="M1" s="96"/>
-      <c r="N1" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="P1" s="96"/>
       <c r="Q1" s="13" t="s">
@@ -3843,18 +3879,18 @@
       </c>
       <c r="S1" s="96"/>
       <c r="T1" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V1" s="96"/>
       <c r="W1" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X1" s="96"/>
       <c r="Y1" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z1" s="13" t="s">
         <v>1</v>
@@ -3870,31 +3906,31 @@
       <c r="C2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="F2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="35" t="s">
-        <v>106</v>
+      <c r="I2" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="J2" s="34" t="s">
         <v>107</v>
       </c>
       <c r="K2" s="78"/>
-      <c r="L2" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="34" t="s">
-        <v>107</v>
-      </c>
+      <c r="L2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="78"/>
       <c r="O2" s="34" t="s">
         <v>107</v>
       </c>
@@ -3925,56 +3961,60 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="33"/>
       <c r="B3" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="78"/>
+        <v>220</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="35" t="s">
+        <v>220</v>
+      </c>
       <c r="F3" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="78"/>
+        <v>220</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="35" t="s">
+        <v>220</v>
+      </c>
       <c r="I3" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K3" s="78"/>
       <c r="L3" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+        <v>220</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" s="78"/>
+      <c r="O3" s="35" t="s">
+        <v>220</v>
+      </c>
       <c r="P3" s="78"/>
       <c r="Q3" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S3" s="78"/>
       <c r="T3" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V3" s="78"/>
       <c r="W3" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X3" s="78"/>
       <c r="Y3" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z3" s="16"/>
     </row>
@@ -3985,36 +4025,36 @@
       <c r="B4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="78"/>
+      <c r="C4" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="F4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="76" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="35" t="s">
+      <c r="M4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="N4" s="78"/>
+      <c r="O4" s="76" t="s">
         <v>212</v>
-      </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="76" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>107</v>
       </c>
       <c r="P4" s="78"/>
       <c r="Q4" s="34" t="s">
@@ -4025,7 +4065,7 @@
       </c>
       <c r="S4" s="78"/>
       <c r="T4" s="76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U4" s="34" t="s">
         <v>107</v>
@@ -4042,49 +4082,55 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="106" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="F5" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="J5" s="106" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="106" t="s">
-        <v>285</v>
-      </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="106" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="105" t="s">
+      <c r="K5" s="78"/>
+      <c r="L5" s="106" t="s">
         <v>284</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="105" t="s">
-        <v>284</v>
-      </c>
-      <c r="J5" s="105" t="s">
-        <v>284</v>
-      </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="105" t="s">
-        <v>284</v>
-      </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="106" t="s">
-        <v>285</v>
-      </c>
-      <c r="O5" s="34"/>
+      <c r="M5" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="N5" s="78"/>
+      <c r="O5" s="147" t="s">
+        <v>299</v>
+      </c>
       <c r="P5" s="78"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
+      <c r="Q5" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="R5" s="147" t="s">
+        <v>299</v>
+      </c>
       <c r="S5" s="78"/>
       <c r="T5" s="105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U5" s="105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V5" s="78"/>
       <c r="W5" s="34"/>
@@ -4094,7 +4140,7 @@
     </row>
     <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="78"/>
       <c r="C6" s="78"/>
@@ -4102,26 +4148,26 @@
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
+      <c r="H6" s="77" t="s">
+        <v>217</v>
+      </c>
       <c r="I6" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>218</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="J6" s="78"/>
       <c r="K6" s="78"/>
-      <c r="L6" s="77" t="s">
-        <v>218</v>
-      </c>
+      <c r="L6" s="78"/>
       <c r="M6" s="78"/>
       <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
+      <c r="O6" s="77" t="s">
+        <v>217</v>
+      </c>
       <c r="P6" s="78"/>
       <c r="Q6" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R6" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S6" s="78"/>
       <c r="T6" s="78"/>
@@ -4142,17 +4188,17 @@
       <c r="C7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="97"/>
+      <c r="E7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="97"/>
       <c r="F7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="97"/>
+      <c r="H7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="97"/>
       <c r="I7" s="12" t="s">
         <v>104</v>
       </c>
@@ -4163,10 +4209,10 @@
       <c r="L7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>104</v>
       </c>
+      <c r="N7" s="97"/>
       <c r="O7" s="12" t="s">
         <v>104</v>
       </c>
@@ -4198,33 +4244,33 @@
       <c r="C8" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="40" t="s">
+        <v>106</v>
+      </c>
       <c r="F8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="97"/>
+      <c r="H8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="97"/>
       <c r="I8" s="40" t="s">
         <v>106</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K8" s="97"/>
       <c r="L8" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="97"/>
+      <c r="O8" s="40" t="s">
         <v>106</v>
-      </c>
-      <c r="M8" s="97"/>
-      <c r="N8" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" s="40" t="s">
-        <v>107</v>
       </c>
       <c r="P8" s="97"/>
       <c r="Q8" s="40" t="s">
@@ -4248,34 +4294,38 @@
       <c r="A9" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="97"/>
+      <c r="C9" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="97"/>
+      <c r="E9" s="74" t="s">
+        <v>108</v>
+      </c>
       <c r="F9" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="97"/>
+      <c r="H9" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="150" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="21" t="s">
+      <c r="K9" s="97"/>
+      <c r="L9" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="74" t="s">
+      <c r="M9" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="O9" s="74" t="s">
-        <v>110</v>
-      </c>
+      <c r="N9" s="97"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="97"/>
       <c r="Q9" s="74" t="s">
         <v>110</v>
@@ -4294,34 +4344,38 @@
       <c r="A10" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="150" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="97"/>
+      <c r="C10" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="97"/>
+      <c r="E10" s="74" t="s">
+        <v>110</v>
+      </c>
       <c r="F10" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="74" t="s">
+      <c r="G10" s="97"/>
+      <c r="H10" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="I10" s="150" t="s">
         <v>111</v>
       </c>
+      <c r="J10" s="74" t="s">
+        <v>110</v>
+      </c>
       <c r="K10" s="97"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="74" t="s">
+      <c r="L10" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="O10" s="74" t="s">
+      <c r="M10" s="74" t="s">
         <v>110</v>
       </c>
+      <c r="N10" s="97"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="97"/>
       <c r="Q10" s="74" t="s">
         <v>110</v>
@@ -4346,17 +4400,17 @@
       <c r="C11" s="12">
         <v>2.8</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="97"/>
+      <c r="E11" s="12">
         <v>2.8</v>
       </c>
-      <c r="E11" s="97"/>
       <c r="F11" s="12">
         <v>2.8</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="97"/>
+      <c r="H11" s="12">
         <v>2.8</v>
       </c>
-      <c r="H11" s="97"/>
       <c r="I11" s="12">
         <v>2.8</v>
       </c>
@@ -4365,14 +4419,14 @@
       </c>
       <c r="K11" s="97"/>
       <c r="L11" s="75">
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="75">
+        <v>3.5</v>
+      </c>
+      <c r="N11" s="97"/>
+      <c r="O11" s="75">
         <v>3.2</v>
-      </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="75">
-        <v>3.5</v>
-      </c>
-      <c r="O11" s="75">
-        <v>3.5</v>
       </c>
       <c r="P11" s="97"/>
       <c r="Q11" s="75">
@@ -4399,7 +4453,7 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="125" t="s">
         <v>196</v>
       </c>
       <c r="B12" s="12">
@@ -4408,17 +4462,17 @@
       <c r="C12" s="12">
         <v>320</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="97"/>
+      <c r="E12" s="12">
         <v>320</v>
       </c>
-      <c r="E12" s="97"/>
       <c r="F12" s="12">
         <v>320</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="97"/>
+      <c r="H12" s="12">
         <v>320</v>
       </c>
-      <c r="H12" s="97"/>
       <c r="I12" s="12">
         <v>320</v>
       </c>
@@ -4426,15 +4480,15 @@
         <v>320</v>
       </c>
       <c r="K12" s="97"/>
-      <c r="L12" s="12">
+      <c r="L12" s="20">
+        <v>480</v>
+      </c>
+      <c r="M12" s="20">
+        <v>480</v>
+      </c>
+      <c r="N12" s="97"/>
+      <c r="O12" s="12">
         <v>320</v>
-      </c>
-      <c r="M12" s="97"/>
-      <c r="N12" s="20">
-        <v>480</v>
-      </c>
-      <c r="O12" s="20">
-        <v>480</v>
       </c>
       <c r="P12" s="97"/>
       <c r="Q12" s="20">
@@ -4459,24 +4513,24 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="119"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="12">
         <v>240</v>
       </c>
       <c r="C13" s="12">
         <v>240</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="97"/>
+      <c r="E13" s="12">
         <v>240</v>
       </c>
-      <c r="E13" s="97"/>
       <c r="F13" s="12">
         <v>240</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="97"/>
+      <c r="H13" s="12">
         <v>240</v>
       </c>
-      <c r="H13" s="97"/>
       <c r="I13" s="12">
         <v>240</v>
       </c>
@@ -4484,15 +4538,15 @@
         <v>240</v>
       </c>
       <c r="K13" s="97"/>
-      <c r="L13" s="12">
+      <c r="L13" s="20">
+        <v>320</v>
+      </c>
+      <c r="M13" s="20">
+        <v>320</v>
+      </c>
+      <c r="N13" s="97"/>
+      <c r="O13" s="12">
         <v>240</v>
-      </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="20">
-        <v>320</v>
-      </c>
-      <c r="O13" s="20">
-        <v>320</v>
       </c>
       <c r="P13" s="97"/>
       <c r="Q13" s="20">
@@ -4517,7 +4571,7 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="126" t="s">
         <v>195</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -4526,17 +4580,17 @@
       <c r="C14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="96"/>
+      <c r="E14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="96"/>
       <c r="F14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="96"/>
+      <c r="H14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="96"/>
       <c r="I14" s="13" t="s">
         <v>80</v>
       </c>
@@ -4547,10 +4601,10 @@
       <c r="L14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="96"/>
-      <c r="N14" s="13" t="s">
+      <c r="M14" s="13" t="s">
         <v>80</v>
       </c>
+      <c r="N14" s="96"/>
       <c r="O14" s="13" t="s">
         <v>80</v>
       </c>
@@ -4581,40 +4635,40 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="108"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="80" t="s">
         <v>199</v>
       </c>
       <c r="C15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="98"/>
       <c r="F15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="98"/>
+      <c r="H15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="81" t="s">
+      <c r="I15" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="J15" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="J15" s="80" t="s">
-        <v>199</v>
-      </c>
       <c r="K15" s="98"/>
-      <c r="L15" s="81" t="s">
+      <c r="L15" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="N15" s="98"/>
+      <c r="O15" s="81" t="s">
         <v>201</v>
-      </c>
-      <c r="M15" s="98"/>
-      <c r="N15" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="O15" s="82" t="s">
-        <v>202</v>
       </c>
       <c r="P15" s="98"/>
       <c r="Q15" s="82" t="s">
@@ -4628,7 +4682,7 @@
         <v>199</v>
       </c>
       <c r="U15" s="82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V15" s="98"/>
       <c r="W15" s="80" t="s">
@@ -4636,59 +4690,59 @@
       </c>
       <c r="X15" s="98"/>
       <c r="Y15" s="82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="108"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="80" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="98"/>
+      <c r="E16" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="98"/>
       <c r="F16" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="98"/>
+      <c r="H16" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="81" t="s">
+      <c r="I16" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="81" t="s">
         <v>82</v>
-      </c>
-      <c r="J16" s="83" t="s">
-        <v>84</v>
       </c>
       <c r="K16" s="98"/>
       <c r="L16" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="M16" s="81" t="s">
+        <v>300</v>
+      </c>
+      <c r="N16" s="98"/>
+      <c r="O16" s="81" t="s">
         <v>82</v>
-      </c>
-      <c r="M16" s="98"/>
-      <c r="N16" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="O16" s="81" t="s">
-        <v>279</v>
       </c>
       <c r="P16" s="98"/>
       <c r="Q16" s="81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R16" s="81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S16" s="98"/>
       <c r="T16" s="83" t="s">
         <v>84</v>
       </c>
       <c r="U16" s="82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V16" s="98"/>
       <c r="W16" s="80" t="s">
@@ -4701,26 +4755,26 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A17" s="108"/>
+      <c r="A17" s="126"/>
       <c r="B17" s="79" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="99"/>
+      <c r="E17" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="99"/>
       <c r="F17" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="99"/>
+      <c r="H17" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="79" t="s">
+      <c r="I17" s="79" t="s">
         <v>83</v>
-      </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="79" t="s">
-        <v>2</v>
       </c>
       <c r="J17" s="79" t="s">
         <v>83</v>
@@ -4729,10 +4783,10 @@
       <c r="L17" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="99"/>
-      <c r="N17" s="79" t="s">
+      <c r="M17" s="79" t="s">
         <v>83</v>
       </c>
+      <c r="N17" s="99"/>
       <c r="O17" s="79" t="s">
         <v>83</v>
       </c>
@@ -4752,11 +4806,11 @@
       </c>
       <c r="V17" s="99"/>
       <c r="W17" s="84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X17" s="99"/>
-      <c r="Y17" s="137" t="s">
-        <v>240</v>
+      <c r="Y17" s="113" t="s">
+        <v>239</v>
       </c>
       <c r="Z17" s="7" t="s">
         <v>90</v>
@@ -4766,91 +4820,91 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A18" s="108"/>
-      <c r="B18" s="116" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="99"/>
+      <c r="E18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="116" t="s">
+      <c r="F18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="116" t="s">
+      <c r="G18" s="99"/>
+      <c r="H18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="116" t="s">
+      <c r="I18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="116" t="s">
+      <c r="J18" s="112" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="99"/>
-      <c r="L18" s="116" t="s">
+      <c r="L18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="99"/>
-      <c r="N18" s="116" t="s">
+      <c r="M18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="116" t="s">
+      <c r="N18" s="99"/>
+      <c r="O18" s="112" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="99"/>
-      <c r="Q18" s="116" t="s">
+      <c r="Q18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="116" t="s">
+      <c r="R18" s="112" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="99"/>
-      <c r="T18" s="133" t="s">
-        <v>287</v>
-      </c>
-      <c r="U18" s="133" t="s">
-        <v>287</v>
+      <c r="T18" s="120" t="s">
+        <v>286</v>
+      </c>
+      <c r="U18" s="120" t="s">
+        <v>286</v>
       </c>
       <c r="V18" s="99"/>
-      <c r="W18" s="135" t="s">
-        <v>225</v>
+      <c r="W18" s="116" t="s">
+        <v>224</v>
       </c>
       <c r="X18" s="99"/>
-      <c r="Y18" s="138"/>
+      <c r="Y18" s="114"/>
       <c r="Z18" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="108"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
       <c r="K19" s="99"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="112"/>
       <c r="P19" s="99"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
       <c r="S19" s="99"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="134"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
       <c r="V19" s="99"/>
-      <c r="W19" s="136"/>
+      <c r="W19" s="117"/>
       <c r="X19" s="99"/>
-      <c r="Y19" s="138"/>
+      <c r="Y19" s="114"/>
       <c r="Z19" s="10" t="s">
         <v>4</v>
       </c>
@@ -4859,40 +4913,40 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20" s="108"/>
+      <c r="A20" s="126"/>
       <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="99"/>
+      <c r="E20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="99"/>
       <c r="F20" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="99"/>
+      <c r="H20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H20" s="99"/>
       <c r="I20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>5</v>
+        <v>276</v>
       </c>
       <c r="K20" s="99"/>
       <c r="L20" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="N20" s="99"/>
+      <c r="O20" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="M20" s="99"/>
-      <c r="N20" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="P20" s="99"/>
       <c r="Q20" s="8" t="s">
@@ -4903,56 +4957,56 @@
       </c>
       <c r="S20" s="99"/>
       <c r="T20" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V20" s="99"/>
       <c r="W20" s="11">
         <v>12</v>
       </c>
       <c r="X20" s="99"/>
-      <c r="Y20" s="138"/>
+      <c r="Y20" s="114"/>
       <c r="Z20" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="108"/>
+      <c r="A21" s="126"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="99"/>
+      <c r="E21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="99"/>
       <c r="F21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="99"/>
+      <c r="H21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="99"/>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="K21" s="99"/>
       <c r="L21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N21" s="99"/>
+      <c r="O21" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="M21" s="99"/>
-      <c r="N21" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="P21" s="99"/>
       <c r="Q21" s="8" t="s">
@@ -4973,46 +5027,46 @@
         <v>11</v>
       </c>
       <c r="X21" s="99"/>
-      <c r="Y21" s="138"/>
+      <c r="Y21" s="114"/>
       <c r="Z21" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="108"/>
+      <c r="A22" s="126"/>
       <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="99"/>
+      <c r="E22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="99"/>
       <c r="F22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="99"/>
+      <c r="H22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="99"/>
       <c r="I22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
       <c r="K22" s="99"/>
       <c r="L22" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="N22" s="99"/>
+      <c r="O22" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="M22" s="99"/>
-      <c r="N22" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="P22" s="99"/>
       <c r="Q22" s="8" t="s">
@@ -5023,40 +5077,40 @@
       </c>
       <c r="S22" s="99"/>
       <c r="T22" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V22" s="99"/>
       <c r="W22" s="11">
         <v>13</v>
       </c>
       <c r="X22" s="99"/>
-      <c r="Y22" s="138"/>
+      <c r="Y22" s="114"/>
       <c r="Z22" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="108"/>
+      <c r="A23" s="126"/>
       <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="99"/>
+      <c r="E23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="99"/>
       <c r="F23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="99"/>
+      <c r="H23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="99"/>
       <c r="I23" s="8" t="s">
         <v>8</v>
       </c>
@@ -5067,10 +5121,10 @@
       <c r="L23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="99"/>
-      <c r="N23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="N23" s="99"/>
       <c r="O23" s="8" t="s">
         <v>8</v>
       </c>
@@ -5090,33 +5144,33 @@
       </c>
       <c r="V23" s="99"/>
       <c r="W23" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X23" s="99"/>
-      <c r="Y23" s="138"/>
+      <c r="Y23" s="114"/>
       <c r="Z23" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="108"/>
+      <c r="A24" s="126"/>
       <c r="B24" s="8">
         <v>40000000</v>
       </c>
       <c r="C24" s="8">
         <v>40000000</v>
       </c>
-      <c r="D24" s="8">
-        <v>40000000</v>
-      </c>
-      <c r="E24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="11">
+        <v>55000000</v>
+      </c>
       <c r="F24" s="11">
         <v>55000000</v>
       </c>
-      <c r="G24" s="11">
-        <v>55000000</v>
-      </c>
-      <c r="H24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="8">
+        <v>40000000</v>
+      </c>
       <c r="I24" s="8">
         <v>40000000</v>
       </c>
@@ -5127,10 +5181,10 @@
       <c r="L24" s="8">
         <v>40000000</v>
       </c>
-      <c r="M24" s="99"/>
-      <c r="N24" s="8">
+      <c r="M24" s="8">
         <v>40000000</v>
       </c>
+      <c r="N24" s="99"/>
       <c r="O24" s="8">
         <v>40000000</v>
       </c>
@@ -5153,30 +5207,30 @@
         <v>40000000</v>
       </c>
       <c r="X24" s="99"/>
-      <c r="Y24" s="138"/>
+      <c r="Y24" s="114"/>
       <c r="Z24" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="108"/>
+      <c r="A25" s="126"/>
       <c r="B25" s="8">
         <v>20000000</v>
       </c>
       <c r="C25" s="8">
         <v>20000000</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="99"/>
+      <c r="E25" s="11">
         <v>20000000</v>
       </c>
-      <c r="E25" s="99"/>
       <c r="F25" s="11">
         <v>20000000</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="99"/>
+      <c r="H25" s="8">
         <v>20000000</v>
       </c>
-      <c r="H25" s="99"/>
       <c r="I25" s="8">
         <v>20000000</v>
       </c>
@@ -5185,14 +5239,14 @@
       </c>
       <c r="K25" s="99"/>
       <c r="L25" s="8">
+        <v>16000000</v>
+      </c>
+      <c r="M25" s="8">
+        <v>16000000</v>
+      </c>
+      <c r="N25" s="99"/>
+      <c r="O25" s="8">
         <v>20000000</v>
-      </c>
-      <c r="M25" s="99"/>
-      <c r="N25" s="8">
-        <v>16000000</v>
-      </c>
-      <c r="O25" s="8">
-        <v>16000000</v>
       </c>
       <c r="P25" s="99"/>
       <c r="Q25" s="8">
@@ -5213,30 +5267,30 @@
         <v>20000000</v>
       </c>
       <c r="X25" s="99"/>
-      <c r="Y25" s="138"/>
+      <c r="Y25" s="114"/>
       <c r="Z25" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A26" s="109"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="8">
         <v>2500000</v>
       </c>
       <c r="C26" s="8">
         <v>2500000</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="99"/>
+      <c r="E26" s="11">
         <v>2500000</v>
       </c>
-      <c r="E26" s="99"/>
       <c r="F26" s="11">
         <v>2500000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="99"/>
+      <c r="H26" s="8">
         <v>2500000</v>
       </c>
-      <c r="H26" s="99"/>
       <c r="I26" s="8">
         <v>2500000</v>
       </c>
@@ -5247,10 +5301,10 @@
       <c r="L26" s="8">
         <v>2500000</v>
       </c>
-      <c r="M26" s="99"/>
-      <c r="N26" s="8">
+      <c r="M26" s="8">
         <v>2500000</v>
       </c>
+      <c r="N26" s="99"/>
       <c r="O26" s="8">
         <v>2500000</v>
       </c>
@@ -5273,7 +5327,7 @@
         <v>2500000</v>
       </c>
       <c r="X26" s="99"/>
-      <c r="Y26" s="139"/>
+      <c r="Y26" s="115"/>
       <c r="Z26" s="7" t="s">
         <v>79</v>
       </c>
@@ -5288,17 +5342,17 @@
       <c r="C27" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="F27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="71" t="s">
+        <v>59</v>
+      </c>
       <c r="I27" s="71" t="s">
         <v>59</v>
       </c>
@@ -5306,15 +5360,15 @@
         <v>59</v>
       </c>
       <c r="K27" s="100"/>
-      <c r="L27" s="36" t="s">
+      <c r="L27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="100"/>
+      <c r="O27" s="36" t="s">
         <v>52</v>
-      </c>
-      <c r="M27" s="100"/>
-      <c r="N27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>62</v>
       </c>
       <c r="P27" s="100"/>
       <c r="Q27" s="36" t="s">
@@ -5324,15 +5378,15 @@
         <v>52</v>
       </c>
       <c r="S27" s="100"/>
-      <c r="T27" s="142" t="s">
+      <c r="T27" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="U27" s="142" t="s">
+      <c r="U27" s="107" t="s">
         <v>62</v>
       </c>
       <c r="V27" s="100"/>
       <c r="W27" s="85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X27" s="100"/>
       <c r="Y27" s="36"/>
@@ -5341,7 +5395,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="133" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5350,31 +5404,31 @@
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="96"/>
+      <c r="E28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="96"/>
+      <c r="L28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="96"/>
-      <c r="L28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M28" s="96"/>
-      <c r="N28" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="N28" s="96"/>
       <c r="O28" s="2" t="s">
         <v>80</v>
       </c>
@@ -5401,38 +5455,38 @@
       <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A29" s="108"/>
+      <c r="A29" s="126"/>
       <c r="B29" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="101"/>
+      <c r="E29" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="16" t="s">
+      <c r="F29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="I29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="101"/>
+      <c r="L29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K29" s="101"/>
-      <c r="L29" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="101"/>
-      <c r="N29" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="N29" s="101"/>
       <c r="O29" s="16" t="s">
         <v>92</v>
       </c>
@@ -5452,41 +5506,39 @@
       </c>
       <c r="V29" s="101"/>
       <c r="W29" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X29" s="101"/>
       <c r="Y29" s="16"/>
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="108"/>
+      <c r="A30" s="126"/>
       <c r="B30" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="99"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="99"/>
+      <c r="H30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="99"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="99"/>
       <c r="I30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="J30" s="6"/>
       <c r="K30" s="99"/>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="6"/>
+      <c r="M30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="99"/>
-      <c r="N30" s="6"/>
+      <c r="N30" s="99"/>
       <c r="O30" s="29" t="s">
         <v>5</v>
       </c>
@@ -5513,34 +5565,32 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A31" s="108"/>
+      <c r="A31" s="126"/>
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="99"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="99"/>
+      <c r="H31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="99"/>
       <c r="I31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="J31" s="6"/>
       <c r="K31" s="99"/>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="6"/>
+      <c r="M31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M31" s="99"/>
-      <c r="N31" s="6"/>
+      <c r="N31" s="99"/>
       <c r="O31" s="29" t="s">
         <v>6</v>
       </c>
@@ -5567,34 +5617,32 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A32" s="108"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="99"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="99"/>
+      <c r="H32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="99"/>
       <c r="I32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="J32" s="6"/>
       <c r="K32" s="99"/>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="6"/>
+      <c r="M32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="99"/>
-      <c r="N32" s="6"/>
+      <c r="N32" s="99"/>
       <c r="O32" s="29" t="s">
         <v>7</v>
       </c>
@@ -5621,34 +5669,32 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A33" s="108"/>
+      <c r="A33" s="126"/>
       <c r="B33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="99"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="99"/>
+      <c r="H33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="99"/>
       <c r="I33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="9"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="99"/>
-      <c r="L33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="99"/>
-      <c r="N33" s="9"/>
+      <c r="N33" s="99"/>
       <c r="O33" s="8" t="s">
         <v>13</v>
       </c>
@@ -5675,109 +5721,109 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A34" s="108"/>
-      <c r="B34" s="116" t="s">
+      <c r="A34" s="126"/>
+      <c r="B34" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="116" t="s">
+      <c r="C34" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="116" t="s">
+      <c r="D34" s="99"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="99"/>
+      <c r="H34" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="133" t="s">
+      <c r="I34" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="99"/>
-      <c r="I34" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="99"/>
-      <c r="L34" s="133" t="s">
+      <c r="N34" s="99"/>
+      <c r="O34" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="M34" s="99"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="116">
-        <v>-1</v>
-      </c>
       <c r="P34" s="99"/>
-      <c r="Q34" s="133" t="s">
+      <c r="Q34" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="R34" s="133" t="s">
+      <c r="R34" s="120" t="s">
         <v>73</v>
       </c>
       <c r="S34" s="99"/>
-      <c r="T34" s="133" t="s">
+      <c r="T34" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="U34" s="133" t="s">
+      <c r="U34" s="120" t="s">
         <v>73</v>
       </c>
       <c r="V34" s="99"/>
       <c r="W34" s="22"/>
       <c r="X34" s="99"/>
-      <c r="Y34" s="133"/>
+      <c r="Y34" s="120"/>
       <c r="Z34" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A35" s="108"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="99"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="116"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="121"/>
       <c r="P35" s="99"/>
-      <c r="Q35" s="134"/>
-      <c r="R35" s="134"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
       <c r="S35" s="99"/>
-      <c r="T35" s="134"/>
-      <c r="U35" s="134"/>
+      <c r="T35" s="121"/>
+      <c r="U35" s="121"/>
       <c r="V35" s="99"/>
       <c r="W35" s="23"/>
       <c r="X35" s="99"/>
-      <c r="Y35" s="134"/>
+      <c r="Y35" s="121"/>
       <c r="Z35" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A36" s="108"/>
+      <c r="A36" s="126"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="29" t="s">
+      <c r="D36" s="99"/>
+      <c r="E36" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="99"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="J36" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="K36" s="99"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="95" t="s">
+      <c r="L36" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="O36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="99"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
@@ -5786,7 +5832,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="99"/>
       <c r="W36" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X36" s="99"/>
       <c r="Y36" s="9"/>
@@ -5795,25 +5841,27 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A37" s="108"/>
+      <c r="A37" s="126"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="29" t="s">
+      <c r="D37" s="99"/>
+      <c r="E37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="99"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="J37" s="29" t="s">
+        <v>11</v>
+      </c>
       <c r="K37" s="99"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="29" t="s">
+      <c r="L37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="99"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -5833,24 +5881,26 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A38" s="108"/>
+      <c r="A38" s="126"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="29" t="s">
+      <c r="D38" s="97"/>
+      <c r="E38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="97"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="J38" s="29" t="s">
+        <v>13</v>
+      </c>
       <c r="K38" s="97"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="29" t="s">
+      <c r="L38" s="29" t="s">
         <v>13</v>
       </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="97"/>
       <c r="O38" s="6"/>
       <c r="P38" s="97"/>
       <c r="Q38" s="6"/>
@@ -5871,24 +5921,26 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A39" s="109"/>
+      <c r="A39" s="127"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="9">
+      <c r="D39" s="97"/>
+      <c r="E39" s="9">
         <v>-1</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="97"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="J39" s="9">
+        <v>-1</v>
+      </c>
       <c r="K39" s="97"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="9">
+      <c r="L39" s="9">
         <v>-1</v>
       </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="97"/>
       <c r="O39" s="6"/>
       <c r="P39" s="97"/>
       <c r="Q39" s="6"/>
@@ -5903,11 +5955,11 @@
       <c r="X39" s="97"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A40" s="119" t="s">
+      <c r="A40" s="125" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="30" t="s">
@@ -5916,30 +5968,30 @@
       <c r="C40" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="99"/>
+      <c r="E40" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="99"/>
       <c r="F40" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="I40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="J40" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="99"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="99"/>
-      <c r="L40" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="99"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
       <c r="P40" s="99"/>
       <c r="Q40" s="29" t="s">
         <v>17</v>
@@ -5952,7 +6004,7 @@
       <c r="U40" s="30"/>
       <c r="V40" s="99"/>
       <c r="W40" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X40" s="99"/>
       <c r="Y40" s="29"/>
@@ -5961,24 +6013,24 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A41" s="119"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="99"/>
+      <c r="E41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="99"/>
       <c r="F41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="99"/>
+      <c r="H41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="99"/>
       <c r="I41" s="8" t="s">
         <v>19</v>
       </c>
@@ -5986,12 +6038,12 @@
         <v>19</v>
       </c>
       <c r="K41" s="99"/>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="99"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
       <c r="P41" s="99"/>
       <c r="Q41" s="8" t="s">
         <v>19</v>
@@ -6011,24 +6063,24 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A42" s="119"/>
+      <c r="A42" s="125"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="99"/>
+      <c r="E42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="99"/>
       <c r="F42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="99"/>
+      <c r="H42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="99"/>
       <c r="I42" s="8" t="s">
         <v>21</v>
       </c>
@@ -6036,12 +6088,12 @@
         <v>21</v>
       </c>
       <c r="K42" s="99"/>
-      <c r="L42" s="8" t="s">
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="99"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
       <c r="P42" s="99"/>
       <c r="Q42" s="8" t="s">
         <v>21</v>
@@ -6061,7 +6113,7 @@
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A43" s="119" t="s">
+      <c r="A43" s="125" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -6070,17 +6122,17 @@
       <c r="C43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="99"/>
+      <c r="E43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="99"/>
       <c r="F43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="99"/>
+      <c r="H43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="99"/>
       <c r="I43" s="5" t="s">
         <v>24</v>
       </c>
@@ -6088,12 +6140,12 @@
         <v>24</v>
       </c>
       <c r="K43" s="99"/>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M43" s="99"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
       <c r="P43" s="99"/>
       <c r="Q43" s="5" t="s">
         <v>24</v>
@@ -6106,7 +6158,7 @@
       <c r="U43" s="5"/>
       <c r="V43" s="99"/>
       <c r="W43" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X43" s="99"/>
       <c r="Y43" s="5"/>
@@ -6115,273 +6167,273 @@
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A44" s="119"/>
-      <c r="B44" s="116" t="s">
+      <c r="A44" s="125"/>
+      <c r="B44" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="116" t="s">
+      <c r="C44" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="116" t="s">
+      <c r="D44" s="99"/>
+      <c r="E44" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="99"/>
-      <c r="F44" s="116" t="s">
+      <c r="F44" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="116" t="s">
+      <c r="G44" s="99"/>
+      <c r="H44" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="99"/>
-      <c r="I44" s="116" t="s">
+      <c r="I44" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="116" t="s">
+      <c r="J44" s="112" t="s">
         <v>26</v>
       </c>
       <c r="K44" s="99"/>
-      <c r="L44" s="116" t="s">
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="M44" s="99"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
       <c r="P44" s="99"/>
-      <c r="Q44" s="116" t="s">
+      <c r="Q44" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="R44" s="116" t="s">
+      <c r="R44" s="112" t="s">
         <v>26</v>
       </c>
       <c r="S44" s="99"/>
       <c r="T44" s="99"/>
       <c r="U44" s="8"/>
       <c r="V44" s="99"/>
-      <c r="W44" s="135"/>
+      <c r="W44" s="116"/>
       <c r="X44" s="99"/>
-      <c r="Y44" s="116"/>
+      <c r="Y44" s="112"/>
       <c r="Z44" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A45" s="119"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
       <c r="K45" s="99"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="112"/>
       <c r="P45" s="99"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="116"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="112"/>
       <c r="S45" s="99"/>
       <c r="T45" s="99"/>
       <c r="U45" s="8"/>
       <c r="V45" s="99"/>
-      <c r="W45" s="136"/>
+      <c r="W45" s="117"/>
       <c r="X45" s="99"/>
-      <c r="Y45" s="116"/>
+      <c r="Y45" s="112"/>
       <c r="Z45" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A46" s="119"/>
-      <c r="B46" s="116" t="s">
+      <c r="A46" s="125"/>
+      <c r="B46" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="116" t="s">
+      <c r="C46" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="116" t="s">
+      <c r="D46" s="99"/>
+      <c r="E46" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="99"/>
-      <c r="F46" s="116" t="s">
+      <c r="F46" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="116" t="s">
+      <c r="G46" s="99"/>
+      <c r="H46" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="99"/>
-      <c r="I46" s="116" t="s">
+      <c r="I46" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="J46" s="116" t="s">
+      <c r="J46" s="112" t="s">
         <v>29</v>
       </c>
       <c r="K46" s="99"/>
-      <c r="L46" s="116" t="s">
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="M46" s="99"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
       <c r="P46" s="99"/>
-      <c r="Q46" s="116" t="s">
+      <c r="Q46" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="R46" s="116" t="s">
+      <c r="R46" s="112" t="s">
         <v>29</v>
       </c>
       <c r="S46" s="99"/>
       <c r="T46" s="99"/>
       <c r="U46" s="8"/>
       <c r="V46" s="99"/>
-      <c r="W46" s="135" t="s">
-        <v>231</v>
+      <c r="W46" s="116" t="s">
+        <v>230</v>
       </c>
       <c r="X46" s="99"/>
-      <c r="Y46" s="116"/>
+      <c r="Y46" s="112"/>
       <c r="Z46" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A47" s="119"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
       <c r="K47" s="99"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="112"/>
       <c r="P47" s="99"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="116"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="112"/>
       <c r="S47" s="99"/>
       <c r="T47" s="99"/>
       <c r="U47" s="8"/>
       <c r="V47" s="99"/>
-      <c r="W47" s="136"/>
+      <c r="W47" s="117"/>
       <c r="X47" s="99"/>
-      <c r="Y47" s="116"/>
+      <c r="Y47" s="112"/>
       <c r="Z47" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A48" s="119"/>
-      <c r="B48" s="116" t="s">
+      <c r="A48" s="125"/>
+      <c r="B48" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="116" t="s">
+      <c r="C48" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="116" t="s">
+      <c r="D48" s="99"/>
+      <c r="E48" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="99"/>
-      <c r="F48" s="116" t="s">
+      <c r="F48" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="116" t="s">
+      <c r="G48" s="99"/>
+      <c r="H48" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="99"/>
-      <c r="I48" s="116" t="s">
+      <c r="I48" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="116" t="s">
+      <c r="J48" s="112" t="s">
         <v>31</v>
       </c>
       <c r="K48" s="99"/>
-      <c r="L48" s="116" t="s">
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="M48" s="99"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
       <c r="P48" s="99"/>
-      <c r="Q48" s="116" t="s">
+      <c r="Q48" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="R48" s="116" t="s">
+      <c r="R48" s="112" t="s">
         <v>31</v>
       </c>
       <c r="S48" s="99"/>
       <c r="T48" s="99"/>
       <c r="U48" s="8"/>
       <c r="V48" s="99"/>
-      <c r="W48" s="135" t="s">
-        <v>233</v>
+      <c r="W48" s="116" t="s">
+        <v>232</v>
       </c>
       <c r="X48" s="99"/>
-      <c r="Y48" s="116"/>
+      <c r="Y48" s="112"/>
       <c r="Z48" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A49" s="119"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
       <c r="K49" s="99"/>
-      <c r="L49" s="116"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="112"/>
       <c r="P49" s="99"/>
-      <c r="Q49" s="116"/>
-      <c r="R49" s="116"/>
+      <c r="Q49" s="112"/>
+      <c r="R49" s="112"/>
       <c r="S49" s="99"/>
       <c r="T49" s="99"/>
       <c r="U49" s="8"/>
       <c r="V49" s="99"/>
-      <c r="W49" s="136"/>
+      <c r="W49" s="117"/>
       <c r="X49" s="99"/>
-      <c r="Y49" s="116"/>
+      <c r="Y49" s="112"/>
       <c r="Z49" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A50" s="119" t="s">
+      <c r="A50" s="125" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="I50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="29" t="s">
+      <c r="J50" s="9"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="99"/>
-      <c r="L50" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M50" s="99"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
       <c r="P50" s="99"/>
       <c r="Q50" s="29" t="s">
         <v>34</v>
@@ -6393,8 +6445,8 @@
       <c r="T50" s="99"/>
       <c r="U50" s="9"/>
       <c r="V50" s="99"/>
-      <c r="W50" s="140" t="s">
-        <v>238</v>
+      <c r="W50" s="118" t="s">
+        <v>237</v>
       </c>
       <c r="X50" s="99"/>
       <c r="Y50" s="29"/>
@@ -6403,24 +6455,24 @@
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A51" s="119"/>
+      <c r="A51" s="125"/>
       <c r="B51" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="99"/>
+      <c r="E51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="99"/>
       <c r="F51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="99"/>
+      <c r="H51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="99"/>
       <c r="I51" s="8" t="s">
         <v>36</v>
       </c>
@@ -6428,12 +6480,12 @@
         <v>36</v>
       </c>
       <c r="K51" s="99"/>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M51" s="99"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
       <c r="P51" s="99"/>
       <c r="Q51" s="8" t="s">
         <v>36</v>
@@ -6445,7 +6497,7 @@
       <c r="T51" s="99"/>
       <c r="U51" s="8"/>
       <c r="V51" s="99"/>
-      <c r="W51" s="141"/>
+      <c r="W51" s="119"/>
       <c r="X51" s="99"/>
       <c r="Y51" s="8"/>
       <c r="Z51" s="7" t="s">
@@ -6453,106 +6505,106 @@
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A52" s="119" t="s">
+      <c r="A52" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="117" t="s">
+      <c r="B52" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="117" t="s">
+      <c r="C52" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="117" t="s">
+      <c r="D52" s="99"/>
+      <c r="E52" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="99"/>
-      <c r="F52" s="117" t="s">
+      <c r="F52" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="117" t="s">
+      <c r="G52" s="99"/>
+      <c r="H52" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="99"/>
-      <c r="I52" s="117" t="s">
+      <c r="I52" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="117" t="s">
+      <c r="J52" s="111" t="s">
         <v>39</v>
       </c>
       <c r="K52" s="99"/>
-      <c r="L52" s="117" t="s">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="M52" s="99"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
       <c r="P52" s="99"/>
-      <c r="Q52" s="117" t="s">
+      <c r="Q52" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="R52" s="117" t="s">
+      <c r="R52" s="111" t="s">
         <v>39</v>
       </c>
       <c r="S52" s="99"/>
       <c r="T52" s="99"/>
       <c r="U52" s="5"/>
       <c r="V52" s="99"/>
-      <c r="W52" s="117" t="s">
+      <c r="W52" s="111" t="s">
         <v>39</v>
       </c>
       <c r="X52" s="99"/>
-      <c r="Y52" s="117"/>
+      <c r="Y52" s="111"/>
       <c r="Z52" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A53" s="119"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="117"/>
-      <c r="J53" s="117"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="111"/>
       <c r="K53" s="99"/>
-      <c r="L53" s="117"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="111"/>
       <c r="P53" s="99"/>
-      <c r="Q53" s="117"/>
-      <c r="R53" s="117"/>
+      <c r="Q53" s="111"/>
+      <c r="R53" s="111"/>
       <c r="S53" s="99"/>
       <c r="T53" s="99"/>
       <c r="U53" s="5"/>
       <c r="V53" s="99"/>
-      <c r="W53" s="117"/>
+      <c r="W53" s="111"/>
       <c r="X53" s="99"/>
-      <c r="Y53" s="117"/>
+      <c r="Y53" s="111"/>
       <c r="Z53" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A54" s="119"/>
+      <c r="A54" s="125"/>
       <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="99"/>
+      <c r="E54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="99"/>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="8"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="99"/>
       <c r="I54" s="8" t="s">
         <v>8</v>
       </c>
@@ -6560,12 +6612,12 @@
         <v>8</v>
       </c>
       <c r="K54" s="99"/>
-      <c r="L54" s="8" t="s">
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="99"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
       <c r="P54" s="99"/>
       <c r="Q54" s="8" t="s">
         <v>8</v>
@@ -6587,174 +6639,174 @@
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A55" s="119" t="s">
+      <c r="A55" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="117" t="s">
+      <c r="C55" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="99"/>
+      <c r="E55" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="99"/>
-      <c r="F55" s="117" t="s">
+      <c r="F55" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="117" t="s">
+      <c r="G55" s="99"/>
+      <c r="H55" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="99"/>
-      <c r="I55" s="117" t="s">
+      <c r="I55" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="J55" s="117" t="s">
+      <c r="J55" s="111" t="s">
         <v>44</v>
       </c>
       <c r="K55" s="99"/>
-      <c r="L55" s="117" t="s">
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="M55" s="99"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
       <c r="P55" s="99"/>
-      <c r="Q55" s="117" t="s">
+      <c r="Q55" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="R55" s="117" t="s">
+      <c r="R55" s="111" t="s">
         <v>44</v>
       </c>
       <c r="S55" s="99"/>
       <c r="T55" s="99"/>
       <c r="U55" s="5"/>
       <c r="V55" s="99"/>
-      <c r="W55" s="117" t="s">
-        <v>234</v>
+      <c r="W55" s="111" t="s">
+        <v>233</v>
       </c>
       <c r="X55" s="99"/>
-      <c r="Y55" s="117"/>
+      <c r="Y55" s="111"/>
       <c r="Z55" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A56" s="119"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="117"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="111"/>
       <c r="K56" s="99"/>
-      <c r="L56" s="117"/>
-      <c r="M56" s="99"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="111"/>
       <c r="P56" s="99"/>
-      <c r="Q56" s="117"/>
-      <c r="R56" s="117"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="111"/>
       <c r="S56" s="99"/>
       <c r="T56" s="99"/>
       <c r="U56" s="5"/>
       <c r="V56" s="99"/>
-      <c r="W56" s="117"/>
+      <c r="W56" s="111"/>
       <c r="X56" s="99"/>
-      <c r="Y56" s="117"/>
+      <c r="Y56" s="111"/>
       <c r="Z56" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A57" s="119"/>
-      <c r="B57" s="116" t="s">
+      <c r="A57" s="125"/>
+      <c r="B57" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="116" t="s">
+      <c r="C57" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="116" t="s">
+      <c r="D57" s="99"/>
+      <c r="E57" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="99"/>
-      <c r="F57" s="116" t="s">
+      <c r="F57" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="116" t="s">
+      <c r="G57" s="99"/>
+      <c r="H57" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="H57" s="99"/>
-      <c r="I57" s="116" t="s">
+      <c r="I57" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="116" t="s">
+      <c r="J57" s="112" t="s">
         <v>47</v>
       </c>
       <c r="K57" s="99"/>
-      <c r="L57" s="116" t="s">
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="M57" s="99"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
       <c r="P57" s="99"/>
-      <c r="Q57" s="116" t="s">
+      <c r="Q57" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="R57" s="116" t="s">
+      <c r="R57" s="112" t="s">
         <v>47</v>
       </c>
       <c r="S57" s="99"/>
       <c r="T57" s="99"/>
       <c r="U57" s="8"/>
       <c r="V57" s="99"/>
-      <c r="W57" s="116" t="s">
-        <v>235</v>
+      <c r="W57" s="112" t="s">
+        <v>234</v>
       </c>
       <c r="X57" s="99"/>
-      <c r="Y57" s="116"/>
+      <c r="Y57" s="112"/>
       <c r="Z57" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A58" s="119"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="112"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="112"/>
+      <c r="J58" s="112"/>
       <c r="K58" s="99"/>
-      <c r="L58" s="116"/>
-      <c r="M58" s="99"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="112"/>
       <c r="P58" s="99"/>
-      <c r="Q58" s="116"/>
-      <c r="R58" s="116"/>
+      <c r="Q58" s="112"/>
+      <c r="R58" s="112"/>
       <c r="S58" s="99"/>
       <c r="T58" s="99"/>
       <c r="U58" s="8"/>
       <c r="V58" s="99"/>
-      <c r="W58" s="116"/>
+      <c r="W58" s="112"/>
       <c r="X58" s="99"/>
-      <c r="Y58" s="116"/>
+      <c r="Y58" s="112"/>
       <c r="Z58" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>50</v>
@@ -6762,24 +6814,24 @@
       <c r="C59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="99"/>
+      <c r="E59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="99"/>
       <c r="F59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="99"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H59" s="99"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
       <c r="K59" s="99"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="99"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="9"/>
       <c r="P59" s="99"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
@@ -6791,7 +6843,7 @@
       <c r="X59" s="99"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.4">
@@ -6800,24 +6852,24 @@
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="29" t="s">
+        <v>50</v>
+      </c>
       <c r="I60" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J60" s="29" t="s">
+      <c r="J60" s="9"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K60" s="99"/>
-      <c r="L60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="M60" s="99"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
       <c r="P60" s="99"/>
       <c r="Q60" s="29" t="s">
         <v>50</v>
@@ -6830,43 +6882,43 @@
       <c r="U60" s="9"/>
       <c r="V60" s="99"/>
       <c r="W60" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X60" s="99"/>
       <c r="Y60" s="29"/>
       <c r="Z60" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A61" s="120" t="s">
+      <c r="A61" s="141" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="125" t="s">
+      <c r="G61" s="99"/>
+      <c r="H61" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="J61" s="125" t="s">
+      <c r="I61" s="122" t="s">
         <v>26</v>
       </c>
+      <c r="J61" s="9"/>
       <c r="K61" s="99"/>
-      <c r="L61" s="125" t="s">
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="99"/>
+      <c r="O61" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="M61" s="99"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
       <c r="P61" s="99"/>
-      <c r="Q61" s="125" t="s">
+      <c r="Q61" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="R61" s="125" t="s">
+      <c r="R61" s="122" t="s">
         <v>26</v>
       </c>
       <c r="S61" s="99"/>
@@ -6875,98 +6927,98 @@
       <c r="V61" s="99"/>
       <c r="W61" s="9"/>
       <c r="X61" s="99"/>
-      <c r="Y61" s="125"/>
+      <c r="Y61" s="122"/>
       <c r="Z61" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A62" s="124"/>
+      <c r="A62" s="145"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="125"/>
-      <c r="J62" s="125"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="99"/>
-      <c r="L62" s="125"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="99"/>
+      <c r="O62" s="122"/>
       <c r="P62" s="99"/>
-      <c r="Q62" s="125"/>
-      <c r="R62" s="125"/>
+      <c r="Q62" s="122"/>
+      <c r="R62" s="122"/>
       <c r="S62" s="99"/>
       <c r="T62" s="99"/>
       <c r="U62" s="9"/>
       <c r="V62" s="99"/>
       <c r="W62" s="9"/>
       <c r="X62" s="99"/>
-      <c r="Y62" s="125"/>
+      <c r="Y62" s="122"/>
       <c r="Z62" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A63" s="124"/>
+      <c r="A63" s="145"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="125"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="9"/>
       <c r="K63" s="99"/>
-      <c r="L63" s="125"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="99"/>
+      <c r="O63" s="122"/>
       <c r="P63" s="99"/>
-      <c r="Q63" s="125"/>
-      <c r="R63" s="125"/>
+      <c r="Q63" s="122"/>
+      <c r="R63" s="122"/>
       <c r="S63" s="99"/>
       <c r="T63" s="99"/>
       <c r="U63" s="9"/>
       <c r="V63" s="99"/>
       <c r="W63" s="9"/>
       <c r="X63" s="99"/>
-      <c r="Y63" s="125"/>
+      <c r="Y63" s="122"/>
       <c r="Z63" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A64" s="124"/>
+      <c r="A64" s="145"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="125" t="s">
+      <c r="G64" s="99"/>
+      <c r="H64" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="J64" s="125" t="s">
+      <c r="I64" s="122" t="s">
         <v>31</v>
       </c>
+      <c r="J64" s="9"/>
       <c r="K64" s="99"/>
-      <c r="L64" s="125" t="s">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="99"/>
+      <c r="O64" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="M64" s="99"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
       <c r="P64" s="99"/>
-      <c r="Q64" s="125" t="s">
+      <c r="Q64" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R64" s="125" t="s">
+      <c r="R64" s="122" t="s">
         <v>31</v>
       </c>
       <c r="S64" s="99"/>
@@ -6975,98 +7027,98 @@
       <c r="V64" s="99"/>
       <c r="W64" s="9"/>
       <c r="X64" s="99"/>
-      <c r="Y64" s="125"/>
+      <c r="Y64" s="122"/>
       <c r="Z64" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A65" s="124"/>
+      <c r="A65" s="145"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="125"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="99"/>
-      <c r="L65" s="125"/>
-      <c r="M65" s="99"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="99"/>
+      <c r="O65" s="122"/>
       <c r="P65" s="99"/>
-      <c r="Q65" s="125"/>
-      <c r="R65" s="125"/>
+      <c r="Q65" s="122"/>
+      <c r="R65" s="122"/>
       <c r="S65" s="99"/>
       <c r="T65" s="99"/>
       <c r="U65" s="9"/>
       <c r="V65" s="99"/>
       <c r="W65" s="9"/>
       <c r="X65" s="99"/>
-      <c r="Y65" s="125"/>
+      <c r="Y65" s="122"/>
       <c r="Z65" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A66" s="124"/>
+      <c r="A66" s="145"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="125"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="99"/>
-      <c r="L66" s="125"/>
-      <c r="M66" s="99"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="99"/>
+      <c r="O66" s="122"/>
       <c r="P66" s="99"/>
-      <c r="Q66" s="125"/>
-      <c r="R66" s="125"/>
+      <c r="Q66" s="122"/>
+      <c r="R66" s="122"/>
       <c r="S66" s="99"/>
       <c r="T66" s="99"/>
       <c r="U66" s="9"/>
       <c r="V66" s="99"/>
       <c r="W66" s="9"/>
       <c r="X66" s="99"/>
-      <c r="Y66" s="125"/>
+      <c r="Y66" s="122"/>
       <c r="Z66" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A67" s="124"/>
+      <c r="A67" s="145"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="125" t="s">
+      <c r="G67" s="99"/>
+      <c r="H67" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="J67" s="125" t="s">
+      <c r="I67" s="122" t="s">
         <v>29</v>
       </c>
+      <c r="J67" s="9"/>
       <c r="K67" s="99"/>
-      <c r="L67" s="125" t="s">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="99"/>
+      <c r="O67" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="M67" s="99"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
       <c r="P67" s="99"/>
-      <c r="Q67" s="125" t="s">
+      <c r="Q67" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="R67" s="125" t="s">
+      <c r="R67" s="122" t="s">
         <v>29</v>
       </c>
       <c r="S67" s="99"/>
@@ -7075,98 +7127,98 @@
       <c r="V67" s="99"/>
       <c r="W67" s="9"/>
       <c r="X67" s="99"/>
-      <c r="Y67" s="125"/>
+      <c r="Y67" s="122"/>
       <c r="Z67" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A68" s="124"/>
+      <c r="A68" s="145"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="125"/>
-      <c r="J68" s="125"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="122"/>
+      <c r="I68" s="122"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="99"/>
-      <c r="L68" s="125"/>
-      <c r="M68" s="99"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="99"/>
+      <c r="O68" s="122"/>
       <c r="P68" s="99"/>
-      <c r="Q68" s="125"/>
-      <c r="R68" s="125"/>
+      <c r="Q68" s="122"/>
+      <c r="R68" s="122"/>
       <c r="S68" s="99"/>
       <c r="T68" s="99"/>
       <c r="U68" s="9"/>
       <c r="V68" s="99"/>
       <c r="W68" s="9"/>
       <c r="X68" s="99"/>
-      <c r="Y68" s="125"/>
+      <c r="Y68" s="122"/>
       <c r="Z68" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A69" s="124"/>
+      <c r="A69" s="145"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="99"/>
-      <c r="I69" s="125"/>
-      <c r="J69" s="125"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="9"/>
       <c r="K69" s="99"/>
-      <c r="L69" s="125"/>
-      <c r="M69" s="99"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="122"/>
       <c r="P69" s="99"/>
-      <c r="Q69" s="125"/>
-      <c r="R69" s="125"/>
+      <c r="Q69" s="122"/>
+      <c r="R69" s="122"/>
       <c r="S69" s="99"/>
       <c r="T69" s="99"/>
       <c r="U69" s="9"/>
       <c r="V69" s="99"/>
       <c r="W69" s="9"/>
       <c r="X69" s="99"/>
-      <c r="Y69" s="125"/>
+      <c r="Y69" s="122"/>
       <c r="Z69" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A70" s="124"/>
+      <c r="A70" s="145"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="102"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="102"/>
-      <c r="I70" s="126" t="s">
+      <c r="G70" s="102"/>
+      <c r="H70" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="J70" s="126" t="s">
+      <c r="I70" s="131" t="s">
         <v>52</v>
       </c>
+      <c r="J70" s="9"/>
       <c r="K70" s="102"/>
-      <c r="L70" s="128" t="s">
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="102"/>
+      <c r="O70" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="M70" s="102"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
       <c r="P70" s="102"/>
-      <c r="Q70" s="128" t="s">
+      <c r="Q70" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="R70" s="128" t="s">
+      <c r="R70" s="123" t="s">
         <v>59</v>
       </c>
       <c r="S70" s="102"/>
@@ -7175,43 +7227,43 @@
       <c r="V70" s="102"/>
       <c r="W70" s="65"/>
       <c r="X70" s="102"/>
-      <c r="Y70" s="128"/>
+      <c r="Y70" s="123"/>
       <c r="Z70" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="124"/>
+      <c r="A71" s="145"/>
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="102"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="102"/>
-      <c r="I71" s="127"/>
-      <c r="J71" s="127"/>
+      <c r="G71" s="102"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="49"/>
       <c r="K71" s="102"/>
-      <c r="L71" s="129"/>
-      <c r="M71" s="102"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="102"/>
+      <c r="O71" s="124"/>
       <c r="P71" s="102"/>
-      <c r="Q71" s="129"/>
-      <c r="R71" s="129"/>
+      <c r="Q71" s="124"/>
+      <c r="R71" s="124"/>
       <c r="S71" s="102"/>
       <c r="T71" s="102"/>
       <c r="U71" s="49"/>
       <c r="V71" s="102"/>
       <c r="W71" s="66"/>
       <c r="X71" s="102"/>
-      <c r="Y71" s="129"/>
+      <c r="Y71" s="124"/>
       <c r="Z71" s="56" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="121" t="s">
+      <c r="A72" s="142" t="s">
         <v>64</v>
       </c>
       <c r="B72" s="43" t="s">
@@ -7220,17 +7272,17 @@
       <c r="C72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="99"/>
+      <c r="E72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="E72" s="99"/>
       <c r="F72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="G72" s="43" t="s">
+      <c r="G72" s="99"/>
+      <c r="H72" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="H72" s="99"/>
       <c r="I72" s="43" t="s">
         <v>175</v>
       </c>
@@ -7238,16 +7290,16 @@
         <v>175</v>
       </c>
       <c r="K72" s="99"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="99"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="99"/>
+      <c r="O72" s="9"/>
       <c r="P72" s="99"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
       <c r="S72" s="99"/>
       <c r="T72" s="99"/>
-      <c r="U72" s="143"/>
+      <c r="U72" s="108"/>
       <c r="V72" s="99"/>
       <c r="W72" s="88" t="s">
         <v>3</v>
@@ -7259,40 +7311,40 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="122"/>
+      <c r="A73" s="143"/>
       <c r="B73" s="62" t="s">
         <v>62</v>
       </c>
       <c r="C73" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="64" t="s">
+        <v>59</v>
+      </c>
       <c r="F73" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="H73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="70" t="s">
+        <v>61</v>
+      </c>
       <c r="I73" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J73" s="70" t="s">
+      <c r="J73" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="K73" s="97"/>
+      <c r="L73" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="M73" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="N73" s="97"/>
+      <c r="O73" s="70" t="s">
         <v>61</v>
-      </c>
-      <c r="K73" s="97"/>
-      <c r="L73" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="M73" s="97"/>
-      <c r="N73" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="O73" s="64" t="s">
-        <v>59</v>
       </c>
       <c r="P73" s="97"/>
       <c r="Q73" s="70" t="s">
@@ -7306,7 +7358,7 @@
       <c r="U73" s="64"/>
       <c r="V73" s="97"/>
       <c r="W73" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X73" s="97"/>
       <c r="Y73" s="70"/>
@@ -7315,36 +7367,36 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="122"/>
+      <c r="A74" s="143"/>
       <c r="B74" s="67" t="s">
         <v>60</v>
       </c>
       <c r="C74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="68" t="s">
+      <c r="D74" s="97"/>
+      <c r="E74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E74" s="97"/>
       <c r="F74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="G74" s="68" t="s">
+      <c r="G74" s="97"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="H74" s="97"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
       <c r="K74" s="97"/>
-      <c r="L74" s="31" t="s">
+      <c r="L74" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="M74" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="N74" s="97"/>
+      <c r="O74" s="31" t="s">
         <v>193</v>
-      </c>
-      <c r="M74" s="97"/>
-      <c r="N74" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="O74" s="68" t="s">
-        <v>60</v>
       </c>
       <c r="P74" s="97"/>
       <c r="Q74" s="31" t="s">
@@ -7367,24 +7419,24 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="123"/>
+      <c r="A75" s="144"/>
       <c r="B75" s="47" t="s">
         <v>176</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D75" s="99"/>
+      <c r="E75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="99"/>
       <c r="F75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="G75" s="47" t="s">
+      <c r="G75" s="99"/>
+      <c r="H75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="H75" s="99"/>
       <c r="I75" s="47" t="s">
         <v>176</v>
       </c>
@@ -7392,16 +7444,16 @@
         <v>176</v>
       </c>
       <c r="K75" s="99"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="99"/>
+      <c r="O75" s="9"/>
       <c r="P75" s="99"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
       <c r="S75" s="99"/>
       <c r="T75" s="99"/>
-      <c r="U75" s="144"/>
+      <c r="U75" s="109"/>
       <c r="V75" s="99"/>
       <c r="W75" s="87" t="s">
         <v>9</v>
@@ -7411,7 +7463,7 @@
       <c r="Z75" s="61"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A76" s="118" t="s">
+      <c r="A76" s="140" t="s">
         <v>63</v>
       </c>
       <c r="B76" s="64" t="s">
@@ -7420,24 +7472,24 @@
       <c r="C76" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="D76" s="97"/>
+      <c r="E76" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="97"/>
       <c r="F76" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G76" s="64" t="s">
+      <c r="G76" s="97"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="H76" s="97"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
       <c r="K76" s="97"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="97"/>
-      <c r="N76" s="94"/>
-      <c r="O76" s="94"/>
+      <c r="L76" s="94"/>
+      <c r="M76" s="94"/>
+      <c r="N76" s="97"/>
+      <c r="O76" s="52"/>
       <c r="P76" s="97"/>
       <c r="Q76" s="52"/>
       <c r="R76" s="52"/>
@@ -7451,31 +7503,31 @@
       <c r="Z76" s="58"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A77" s="119"/>
+      <c r="A77" s="125"/>
       <c r="B77" s="67" t="s">
         <v>60</v>
       </c>
       <c r="C77" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="68" t="s">
+      <c r="D77" s="97"/>
+      <c r="E77" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="97"/>
       <c r="F77" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="G77" s="68" t="s">
+      <c r="G77" s="97"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="H77" s="97"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
       <c r="K77" s="97"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="97"/>
-      <c r="N77" s="68"/>
-      <c r="O77" s="68"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="97"/>
+      <c r="O77" s="12"/>
       <c r="P77" s="97"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
@@ -7491,31 +7543,31 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="120"/>
+      <c r="A78" s="141"/>
       <c r="B78" s="69" t="s">
         <v>61</v>
       </c>
       <c r="C78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="69" t="s">
+      <c r="D78" s="97"/>
+      <c r="E78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="97"/>
       <c r="F78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G78" s="69" t="s">
+      <c r="G78" s="97"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="97"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
       <c r="K78" s="97"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="97"/>
-      <c r="N78" s="69"/>
-      <c r="O78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="97"/>
+      <c r="O78" s="40"/>
       <c r="P78" s="97"/>
       <c r="Q78" s="40"/>
       <c r="R78" s="40"/>
@@ -7531,26 +7583,26 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="110" t="s">
+      <c r="A79" s="134" t="s">
         <v>177</v>
       </c>
       <c r="B79" s="53"/>
       <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="54" t="s">
+        <v>180</v>
+      </c>
       <c r="F79" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="G79" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="H79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="53"/>
       <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
+      <c r="J79" s="54"/>
       <c r="K79" s="97"/>
       <c r="L79" s="54"/>
-      <c r="M79" s="97"/>
-      <c r="N79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="97"/>
       <c r="O79" s="54"/>
       <c r="P79" s="97"/>
       <c r="Q79" s="54"/>
@@ -7567,24 +7619,24 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="111"/>
+      <c r="A80" s="135"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="97"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="F80" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G80" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H80" s="97"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="J80" s="12"/>
       <c r="K80" s="97"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="97"/>
-      <c r="N80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="97"/>
       <c r="O80" s="12"/>
       <c r="P80" s="97"/>
       <c r="Q80" s="12"/>
@@ -7601,24 +7653,24 @@
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A81" s="111"/>
+      <c r="A81" s="135"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="97"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="F81" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G81" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H81" s="97"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
+      <c r="J81" s="12"/>
       <c r="K81" s="97"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="97"/>
-      <c r="N81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="97"/>
       <c r="O81" s="12"/>
       <c r="P81" s="97"/>
       <c r="Q81" s="12"/>
@@ -7635,24 +7687,24 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="112"/>
+      <c r="A82" s="136"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="97"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="46" t="s">
+        <v>176</v>
+      </c>
       <c r="F82" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G82" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H82" s="97"/>
+      <c r="G82" s="97"/>
+      <c r="H82" s="55"/>
       <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
+      <c r="J82" s="46"/>
       <c r="K82" s="97"/>
       <c r="L82" s="46"/>
-      <c r="M82" s="97"/>
-      <c r="N82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="97"/>
       <c r="O82" s="46"/>
       <c r="P82" s="97"/>
       <c r="Q82" s="46"/>
@@ -7669,7 +7721,7 @@
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A83" s="113" t="s">
+      <c r="A83" s="137" t="s">
         <v>182</v>
       </c>
       <c r="B83" s="50" t="s">
@@ -7678,30 +7730,30 @@
       <c r="C83" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="103"/>
+      <c r="E83" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="103"/>
       <c r="F83" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="G83" s="50" t="s">
+      <c r="G83" s="103"/>
+      <c r="H83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="H83" s="103"/>
       <c r="I83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="J83" s="51" t="s">
+      <c r="J83" s="50" t="s">
         <v>183</v>
       </c>
       <c r="K83" s="103"/>
-      <c r="L83" s="51" t="s">
+      <c r="L83" s="50"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="103"/>
+      <c r="O83" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="M83" s="103"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="50"/>
       <c r="P83" s="103"/>
       <c r="Q83" s="51" t="s">
         <v>183</v>
@@ -7723,37 +7775,37 @@
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A84" s="114"/>
+      <c r="A84" s="138"/>
       <c r="B84" s="12" t="s">
         <v>184</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="103"/>
+      <c r="E84" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E84" s="103"/>
       <c r="F84" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G84" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="H84" s="103"/>
+      <c r="G84" s="103"/>
+      <c r="H84" s="32" t="s">
+        <v>176</v>
+      </c>
       <c r="I84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="J84" s="32" t="s">
+      <c r="J84" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="K84" s="103"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="103"/>
+      <c r="O84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="K84" s="103"/>
-      <c r="L84" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="M84" s="103"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
       <c r="P84" s="103"/>
       <c r="Q84" s="32" t="s">
         <v>176</v>
@@ -7773,37 +7825,37 @@
       <c r="Z84" s="12"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A85" s="114"/>
+      <c r="A85" s="138"/>
       <c r="B85" s="12" t="s">
         <v>185</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="97"/>
+      <c r="E85" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E85" s="97"/>
       <c r="F85" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H85" s="97"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="31" t="s">
+        <v>184</v>
+      </c>
       <c r="I85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="J85" s="31" t="s">
+      <c r="J85" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K85" s="97"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="97"/>
+      <c r="O85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="K85" s="97"/>
-      <c r="L85" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="M85" s="97"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
       <c r="P85" s="97"/>
       <c r="Q85" s="31" t="s">
         <v>184</v>
@@ -7823,37 +7875,37 @@
       <c r="Z85" s="12"/>
     </row>
     <row r="86" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="115"/>
+      <c r="A86" s="139"/>
       <c r="B86" s="38" t="s">
         <v>176</v>
       </c>
       <c r="C86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="38" t="s">
+      <c r="D86" s="97"/>
+      <c r="E86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E86" s="97"/>
       <c r="F86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="G86" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="H86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="39" t="s">
+        <v>185</v>
+      </c>
       <c r="I86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="J86" s="39" t="s">
+      <c r="J86" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="K86" s="97"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="97"/>
+      <c r="O86" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="K86" s="97"/>
-      <c r="L86" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="M86" s="97"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
       <c r="P86" s="97"/>
       <c r="Q86" s="39" t="s">
         <v>185</v>
@@ -7873,25 +7925,25 @@
       <c r="Z86" s="40"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A87" s="130" t="s">
+      <c r="A87" s="128" t="s">
         <v>74</v>
       </c>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="104"/>
+      <c r="D87" s="104"/>
+      <c r="E87" s="41"/>
       <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="104"/>
+      <c r="G87" s="104"/>
+      <c r="H87" s="42"/>
       <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
+      <c r="J87" s="41"/>
       <c r="K87" s="104"/>
-      <c r="L87" s="43" t="s">
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="104"/>
+      <c r="O87" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="M87" s="104"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
       <c r="P87" s="104"/>
       <c r="Q87" s="43" t="s">
         <v>175</v>
@@ -7911,23 +7963,23 @@
       <c r="Z87" s="44"/>
     </row>
     <row r="88" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="131"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="99"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="99"/>
+      <c r="G88" s="99"/>
+      <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="37"/>
       <c r="K88" s="99"/>
-      <c r="L88" s="29" t="s">
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="99"/>
+      <c r="O88" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M88" s="99"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
       <c r="P88" s="99"/>
       <c r="Q88" s="29" t="s">
         <v>70</v>
@@ -7949,23 +8001,23 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="131"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="37"/>
       <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
       <c r="K89" s="99"/>
-      <c r="L89" s="29" t="s">
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="99"/>
+      <c r="O89" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M89" s="99"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
       <c r="P89" s="99"/>
       <c r="Q89" s="29" t="s">
         <v>11</v>
@@ -7987,23 +8039,23 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="132"/>
+      <c r="A90" s="130"/>
       <c r="B90" s="46"/>
       <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="104"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="46"/>
       <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="104"/>
+      <c r="G90" s="104"/>
+      <c r="H90" s="46"/>
       <c r="I90" s="46"/>
       <c r="J90" s="46"/>
       <c r="K90" s="104"/>
-      <c r="L90" s="47" t="s">
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="104"/>
+      <c r="O90" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="M90" s="104"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
       <c r="P90" s="104"/>
       <c r="Q90" s="47" t="s">
         <v>176</v>
@@ -8026,28 +8078,103 @@
       <c r="Y94" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="Y17:Y26"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="N18:N19"/>
+  <mergeCells count="139">
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A61:A71"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="Q64:Q66"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="O64:O66"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A26"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="O34:O35"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="R67:R69"/>
     <mergeCell ref="R70:R71"/>
     <mergeCell ref="Y34:Y35"/>
@@ -8071,102 +8198,26 @@
     <mergeCell ref="R44:R45"/>
     <mergeCell ref="R46:R47"/>
     <mergeCell ref="R48:R49"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A26"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="Q61:Q63"/>
-    <mergeCell ref="Q64:Q66"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="Q67:Q69"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="J52:J53"/>
     <mergeCell ref="J55:J56"/>
     <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="Y17:Y26"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M34:M35"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A61:A71"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T18:T19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8511,7 +8562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BACAD1-97A4-4AD0-A21C-371462B24AAD}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -8524,35 +8575,35 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" t="s">
         <v>275</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="E1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>274</v>
-      </c>
       <c r="G1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" t="s">
         <v>290</v>
       </c>
-      <c r="H1" t="s">
-        <v>291</v>
-      </c>
       <c r="I1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
@@ -8562,12 +8613,12 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
         <v>176</v>
@@ -8575,7 +8626,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
         <v>176</v>
@@ -8583,7 +8634,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
         <v>176</v>
@@ -8591,7 +8642,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9">
         <v>45</v>
@@ -8617,7 +8668,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10">
         <v>48</v>
@@ -8643,7 +8694,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11">
         <v>47</v>
@@ -8669,7 +8720,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -8695,7 +8746,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -8721,7 +8772,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
         <v>176</v>
@@ -8729,7 +8780,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
         <v>176</v>
@@ -8737,7 +8788,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -8763,7 +8814,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -8789,7 +8840,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -8815,7 +8866,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -8841,7 +8892,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -8867,7 +8918,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -8893,7 +8944,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" t="s">
         <v>176</v>
@@ -8901,7 +8952,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D23" t="s">
         <v>176</v>
@@ -8909,7 +8960,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D24" t="s">
         <v>176</v>
@@ -8917,7 +8968,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -8943,7 +8994,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -8969,7 +9020,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C27">
         <v>46</v>
@@ -8995,7 +9046,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -9021,7 +9072,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9052,7 +9103,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31">
         <v>42</v>
@@ -9075,12 +9126,12 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C33">
         <v>39</v>
@@ -9106,7 +9157,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34">
         <v>41</v>
@@ -9132,7 +9183,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35">
         <v>40</v>
@@ -9158,10 +9209,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C38" s="93">
         <v>19</v>
@@ -9185,7 +9236,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="146"/>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C39" s="93">
         <v>20</v>
@@ -9230,7 +9281,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="146"/>
       <c r="B41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -9239,16 +9290,16 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="146"/>
       <c r="B42" t="s">
-        <v>295</v>
-      </c>
-      <c r="G42" s="145">
+        <v>294</v>
+      </c>
+      <c r="G42" s="110">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="146"/>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G43">
         <v>13</v>
@@ -9257,7 +9308,7 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="146"/>
       <c r="B44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -9274,21 +9325,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100431B1C8C9D9DBE4AA0E80FF5D0349E59" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f7ed8c6386409f34b595d96d3c2cb336">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8eebbbb-06cf-461a-bdd4-fdce0afb9207" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b92ee3a140b325dd50340e431628f3" ns3:_="">
     <xsd:import namespace="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
@@ -9438,31 +9474,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFFF1BA6-01AE-4C7B-81CA-4E0B23197A87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B34AA1-4D99-4870-B3C7-12AFF67D4A6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9478,4 +9505,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0288E754-9E21-4B46-B6F4-7FC0FB88B792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFFF1BA6-01AE-4C7B-81CA-4E0B23197A87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8eebbbb-06cf-461a-bdd4-fdce0afb9207"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>